--- a/mosip_master/xlsx/reg_exceptional_holiday.xlsx
+++ b/mosip_master/xlsx/reg_exceptional_holiday.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1091460\Downloads\mosip-data-1.2.0.1\mosip-data-1.2.0.1\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DAED0FE-5B54-4BA0-B495-87EA68AD2E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C962D7CF-3DA0-4FF1-B5F4-19898BB12EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,12 +114,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,11 +446,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="2"/>
+    <col min="1" max="1" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.453125" style="2"/>
+    <col min="6" max="6" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.453125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -456,7 +461,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -476,7 +481,7 @@
       <c r="B2" s="2">
         <v>10001</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>44828</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -496,7 +501,7 @@
       <c r="B3" s="2">
         <v>10002</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>44828</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -516,7 +521,7 @@
       <c r="B4" s="2">
         <v>10003</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>44828</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -536,7 +541,7 @@
       <c r="B5" s="2">
         <v>10004</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>44828</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -556,7 +561,7 @@
       <c r="B6" s="2">
         <v>10005</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>44828</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -576,7 +581,7 @@
       <c r="B7" s="2">
         <v>10006</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>44828</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -596,7 +601,7 @@
       <c r="B8" s="2">
         <v>10007</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="4">
         <v>44828</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -616,7 +621,7 @@
       <c r="B9" s="2">
         <v>10008</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="4">
         <v>44828</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -636,7 +641,7 @@
       <c r="B10" s="2">
         <v>10009</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="4">
         <v>44828</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -656,7 +661,7 @@
       <c r="B11" s="2">
         <v>10010</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="4">
         <v>44828</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -676,7 +681,7 @@
       <c r="B12" s="2">
         <v>10011</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="4">
         <v>44828</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -696,7 +701,7 @@
       <c r="B13" s="2">
         <v>10012</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="4">
         <v>44828</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -716,7 +721,7 @@
       <c r="B14" s="2">
         <v>10013</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="4">
         <v>44828</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -736,7 +741,7 @@
       <c r="B15" s="2">
         <v>10014</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="4">
         <v>44828</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -756,7 +761,7 @@
       <c r="B16" s="2">
         <v>10015</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="4">
         <v>44828</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -776,7 +781,7 @@
       <c r="B17" s="2">
         <v>10016</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="4">
         <v>44828</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -796,7 +801,7 @@
       <c r="B18" s="2">
         <v>10017</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="4">
         <v>44828</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -816,7 +821,7 @@
       <c r="B19" s="2">
         <v>10018</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="4">
         <v>44828</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -836,7 +841,7 @@
       <c r="B20" s="2">
         <v>10019</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="4">
         <v>44828</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -856,7 +861,7 @@
       <c r="B21" s="2">
         <v>10020</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="4">
         <v>44828</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -876,7 +881,7 @@
       <c r="B22" s="2">
         <v>10021</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="4">
         <v>44828</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -896,7 +901,7 @@
       <c r="B23" s="2">
         <v>10022</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="4">
         <v>44828</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -916,7 +921,7 @@
       <c r="B24" s="2">
         <v>10023</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="4">
         <v>44828</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -936,7 +941,7 @@
       <c r="B25" s="2">
         <v>10024</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="4">
         <v>44828</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -956,7 +961,7 @@
       <c r="B26" s="2">
         <v>10025</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="4">
         <v>44828</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -976,7 +981,7 @@
       <c r="B27" s="2">
         <v>10026</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="4">
         <v>44828</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -996,7 +1001,7 @@
       <c r="B28" s="2">
         <v>10027</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="4">
         <v>44828</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -1016,7 +1021,7 @@
       <c r="B29" s="2">
         <v>10028</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="4">
         <v>44828</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -1036,7 +1041,7 @@
       <c r="B30" s="2">
         <v>10029</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="4">
         <v>44828</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -1056,7 +1061,7 @@
       <c r="B31" s="2">
         <v>10030</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="4">
         <v>44828</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -1076,7 +1081,7 @@
       <c r="B32" s="2">
         <v>10031</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="4">
         <v>44828</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -1096,7 +1101,7 @@
       <c r="B33" s="2">
         <v>10032</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="4">
         <v>44828</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -1116,7 +1121,7 @@
       <c r="B34" s="2">
         <v>10033</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="4">
         <v>44828</v>
       </c>
       <c r="D34" s="2" t="s">
@@ -1136,7 +1141,7 @@
       <c r="B35" s="2">
         <v>10034</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="4">
         <v>44828</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -1156,7 +1161,7 @@
       <c r="B36" s="2">
         <v>10035</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="4">
         <v>44828</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -1176,7 +1181,7 @@
       <c r="B37" s="2">
         <v>10036</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="4">
         <v>44828</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -1196,7 +1201,7 @@
       <c r="B38" s="2">
         <v>10037</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="4">
         <v>44828</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -1216,7 +1221,7 @@
       <c r="B39" s="2">
         <v>10038</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="4">
         <v>44828</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -1236,7 +1241,7 @@
       <c r="B40" s="2">
         <v>10039</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="4">
         <v>44828</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -1256,7 +1261,7 @@
       <c r="B41" s="2">
         <v>10040</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="4">
         <v>44828</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -1276,7 +1281,7 @@
       <c r="B42" s="2">
         <v>10041</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="4">
         <v>44828</v>
       </c>
       <c r="D42" s="2" t="s">
@@ -1296,7 +1301,7 @@
       <c r="B43" s="2">
         <v>10042</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="4">
         <v>44828</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -1316,7 +1321,7 @@
       <c r="B44" s="2">
         <v>10043</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="4">
         <v>44828</v>
       </c>
       <c r="D44" s="2" t="s">
@@ -1336,7 +1341,7 @@
       <c r="B45" s="2">
         <v>10044</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="4">
         <v>44828</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -1356,7 +1361,7 @@
       <c r="B46" s="2">
         <v>10045</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="4">
         <v>44828</v>
       </c>
       <c r="D46" s="2" t="s">
@@ -1376,7 +1381,7 @@
       <c r="B47" s="2">
         <v>10046</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="4">
         <v>44828</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -1396,7 +1401,7 @@
       <c r="B48" s="2">
         <v>10047</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="4">
         <v>44828</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -1416,7 +1421,7 @@
       <c r="B49" s="2">
         <v>10048</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="4">
         <v>44828</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -1436,7 +1441,7 @@
       <c r="B50" s="2">
         <v>10049</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="4">
         <v>44828</v>
       </c>
       <c r="D50" s="2" t="s">
@@ -1456,7 +1461,7 @@
       <c r="B51" s="2">
         <v>10050</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="4">
         <v>44828</v>
       </c>
       <c r="D51" s="2" t="s">
@@ -1476,7 +1481,7 @@
       <c r="B52" s="2">
         <v>10051</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="4">
         <v>44828</v>
       </c>
       <c r="D52" s="2" t="s">
@@ -1496,7 +1501,7 @@
       <c r="B53" s="2">
         <v>10052</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="4">
         <v>44828</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -1516,7 +1521,7 @@
       <c r="B54" s="2">
         <v>10053</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="4">
         <v>44828</v>
       </c>
       <c r="D54" s="2" t="s">
@@ -1536,7 +1541,7 @@
       <c r="B55" s="2">
         <v>10054</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="4">
         <v>44828</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -1556,7 +1561,7 @@
       <c r="B56" s="2">
         <v>10055</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="4">
         <v>44828</v>
       </c>
       <c r="D56" s="2" t="s">
@@ -1576,7 +1581,7 @@
       <c r="B57" s="2">
         <v>10056</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="4">
         <v>44828</v>
       </c>
       <c r="D57" s="2" t="s">
@@ -1596,7 +1601,7 @@
       <c r="B58" s="2">
         <v>10057</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="4">
         <v>44828</v>
       </c>
       <c r="D58" s="2" t="s">
@@ -1616,7 +1621,7 @@
       <c r="B59" s="2">
         <v>10058</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="4">
         <v>44828</v>
       </c>
       <c r="D59" s="2" t="s">
@@ -1636,7 +1641,7 @@
       <c r="B60" s="2">
         <v>10059</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="4">
         <v>44828</v>
       </c>
       <c r="D60" s="2" t="s">
@@ -1656,7 +1661,7 @@
       <c r="B61" s="2">
         <v>10060</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="4">
         <v>44828</v>
       </c>
       <c r="D61" s="2" t="s">
@@ -1676,7 +1681,7 @@
       <c r="B62" s="2">
         <v>10061</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="4">
         <v>44828</v>
       </c>
       <c r="D62" s="2" t="s">
@@ -1696,7 +1701,7 @@
       <c r="B63" s="2">
         <v>10062</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="4">
         <v>44828</v>
       </c>
       <c r="D63" s="2" t="s">
@@ -1716,7 +1721,7 @@
       <c r="B64" s="2">
         <v>10063</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="4">
         <v>44828</v>
       </c>
       <c r="D64" s="2" t="s">
@@ -1736,7 +1741,7 @@
       <c r="B65" s="2">
         <v>10064</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="4">
         <v>44828</v>
       </c>
       <c r="D65" s="2" t="s">
@@ -1756,7 +1761,7 @@
       <c r="B66" s="2">
         <v>10065</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="4">
         <v>44828</v>
       </c>
       <c r="D66" s="2" t="s">
@@ -1776,7 +1781,7 @@
       <c r="B67" s="2">
         <v>10066</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="4">
         <v>44828</v>
       </c>
       <c r="D67" s="2" t="s">
@@ -1796,7 +1801,7 @@
       <c r="B68" s="2">
         <v>10067</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="4">
         <v>44828</v>
       </c>
       <c r="D68" s="2" t="s">
@@ -1816,7 +1821,7 @@
       <c r="B69" s="2">
         <v>10068</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69" s="4">
         <v>44828</v>
       </c>
       <c r="D69" s="2" t="s">
@@ -1836,7 +1841,7 @@
       <c r="B70" s="2">
         <v>10069</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70" s="4">
         <v>44828</v>
       </c>
       <c r="D70" s="2" t="s">
@@ -1856,7 +1861,7 @@
       <c r="B71" s="2">
         <v>10070</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71" s="4">
         <v>44828</v>
       </c>
       <c r="D71" s="2" t="s">
@@ -1876,7 +1881,7 @@
       <c r="B72" s="2">
         <v>10071</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72" s="4">
         <v>44828</v>
       </c>
       <c r="D72" s="2" t="s">
@@ -1896,7 +1901,7 @@
       <c r="B73" s="2">
         <v>10072</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73" s="4">
         <v>44828</v>
       </c>
       <c r="D73" s="2" t="s">
@@ -1916,7 +1921,7 @@
       <c r="B74" s="2">
         <v>10073</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74" s="4">
         <v>44828</v>
       </c>
       <c r="D74" s="2" t="s">
@@ -1936,7 +1941,7 @@
       <c r="B75" s="2">
         <v>10074</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="4">
         <v>44828</v>
       </c>
       <c r="D75" s="2" t="s">
@@ -1956,7 +1961,7 @@
       <c r="B76" s="2">
         <v>10075</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76" s="4">
         <v>44828</v>
       </c>
       <c r="D76" s="2" t="s">
@@ -1976,7 +1981,7 @@
       <c r="B77" s="2">
         <v>10076</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77" s="4">
         <v>44828</v>
       </c>
       <c r="D77" s="2" t="s">
@@ -1996,7 +2001,7 @@
       <c r="B78" s="2">
         <v>10077</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C78" s="4">
         <v>44828</v>
       </c>
       <c r="D78" s="2" t="s">
@@ -2016,7 +2021,7 @@
       <c r="B79" s="2">
         <v>10078</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C79" s="4">
         <v>44828</v>
       </c>
       <c r="D79" s="2" t="s">
@@ -2036,7 +2041,7 @@
       <c r="B80" s="2">
         <v>10079</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80" s="4">
         <v>44828</v>
       </c>
       <c r="D80" s="2" t="s">
@@ -2056,7 +2061,7 @@
       <c r="B81" s="2">
         <v>10080</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C81" s="4">
         <v>44828</v>
       </c>
       <c r="D81" s="2" t="s">
@@ -2076,7 +2081,7 @@
       <c r="B82" s="2">
         <v>10081</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82" s="4">
         <v>44828</v>
       </c>
       <c r="D82" s="2" t="s">
@@ -2096,7 +2101,7 @@
       <c r="B83" s="2">
         <v>10082</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83" s="4">
         <v>44828</v>
       </c>
       <c r="D83" s="2" t="s">
@@ -2116,7 +2121,7 @@
       <c r="B84" s="2">
         <v>10083</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C84" s="4">
         <v>44828</v>
       </c>
       <c r="D84" s="2" t="s">
@@ -2136,7 +2141,7 @@
       <c r="B85" s="2">
         <v>10084</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C85" s="4">
         <v>44828</v>
       </c>
       <c r="D85" s="2" t="s">
@@ -2156,7 +2161,7 @@
       <c r="B86" s="2">
         <v>10085</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C86" s="4">
         <v>44828</v>
       </c>
       <c r="D86" s="2" t="s">
@@ -2176,7 +2181,7 @@
       <c r="B87" s="2">
         <v>10086</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C87" s="4">
         <v>44828</v>
       </c>
       <c r="D87" s="2" t="s">
@@ -2196,7 +2201,7 @@
       <c r="B88" s="2">
         <v>10087</v>
       </c>
-      <c r="C88" s="2">
+      <c r="C88" s="4">
         <v>44828</v>
       </c>
       <c r="D88" s="2" t="s">
@@ -2216,7 +2221,7 @@
       <c r="B89" s="2">
         <v>10088</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C89" s="4">
         <v>44828</v>
       </c>
       <c r="D89" s="2" t="s">
@@ -2236,7 +2241,7 @@
       <c r="B90" s="2">
         <v>10089</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C90" s="4">
         <v>44828</v>
       </c>
       <c r="D90" s="2" t="s">
@@ -2256,7 +2261,7 @@
       <c r="B91" s="2">
         <v>10090</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C91" s="4">
         <v>44828</v>
       </c>
       <c r="D91" s="2" t="s">
@@ -2276,7 +2281,7 @@
       <c r="B92" s="2">
         <v>10091</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C92" s="4">
         <v>44828</v>
       </c>
       <c r="D92" s="2" t="s">
@@ -2296,7 +2301,7 @@
       <c r="B93" s="2">
         <v>10092</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C93" s="4">
         <v>44828</v>
       </c>
       <c r="D93" s="2" t="s">
@@ -2316,7 +2321,7 @@
       <c r="B94" s="2">
         <v>10093</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C94" s="4">
         <v>44828</v>
       </c>
       <c r="D94" s="2" t="s">
@@ -2336,7 +2341,7 @@
       <c r="B95" s="2">
         <v>10094</v>
       </c>
-      <c r="C95" s="2">
+      <c r="C95" s="4">
         <v>44828</v>
       </c>
       <c r="D95" s="2" t="s">
@@ -2356,7 +2361,7 @@
       <c r="B96" s="2">
         <v>10095</v>
       </c>
-      <c r="C96" s="2">
+      <c r="C96" s="4">
         <v>44828</v>
       </c>
       <c r="D96" s="2" t="s">
@@ -2376,7 +2381,7 @@
       <c r="B97" s="2">
         <v>10096</v>
       </c>
-      <c r="C97" s="2">
+      <c r="C97" s="4">
         <v>44828</v>
       </c>
       <c r="D97" s="2" t="s">
@@ -2396,7 +2401,7 @@
       <c r="B98" s="2">
         <v>10097</v>
       </c>
-      <c r="C98" s="2">
+      <c r="C98" s="4">
         <v>44828</v>
       </c>
       <c r="D98" s="2" t="s">
@@ -2416,7 +2421,7 @@
       <c r="B99" s="2">
         <v>10098</v>
       </c>
-      <c r="C99" s="2">
+      <c r="C99" s="4">
         <v>44828</v>
       </c>
       <c r="D99" s="2" t="s">
@@ -2436,7 +2441,7 @@
       <c r="B100" s="2">
         <v>10099</v>
       </c>
-      <c r="C100" s="2">
+      <c r="C100" s="4">
         <v>44828</v>
       </c>
       <c r="D100" s="2" t="s">
@@ -2456,7 +2461,7 @@
       <c r="B101" s="2">
         <v>10100</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C101" s="4">
         <v>44828</v>
       </c>
       <c r="D101" s="2" t="s">
@@ -2476,7 +2481,7 @@
       <c r="B102" s="2">
         <v>10101</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C102" s="4">
         <v>44828</v>
       </c>
       <c r="D102" s="2" t="s">
@@ -2496,7 +2501,7 @@
       <c r="B103" s="2">
         <v>10102</v>
       </c>
-      <c r="C103" s="2">
+      <c r="C103" s="4">
         <v>44828</v>
       </c>
       <c r="D103" s="2" t="s">
@@ -2516,7 +2521,7 @@
       <c r="B104" s="2">
         <v>10103</v>
       </c>
-      <c r="C104" s="2">
+      <c r="C104" s="4">
         <v>44828</v>
       </c>
       <c r="D104" s="2" t="s">
@@ -2536,7 +2541,7 @@
       <c r="B105" s="2">
         <v>10104</v>
       </c>
-      <c r="C105" s="2">
+      <c r="C105" s="4">
         <v>44828</v>
       </c>
       <c r="D105" s="2" t="s">
@@ -2556,7 +2561,7 @@
       <c r="B106" s="2">
         <v>10105</v>
       </c>
-      <c r="C106" s="2">
+      <c r="C106" s="4">
         <v>44828</v>
       </c>
       <c r="D106" s="2" t="s">
@@ -2576,7 +2581,7 @@
       <c r="B107" s="2">
         <v>10106</v>
       </c>
-      <c r="C107" s="2">
+      <c r="C107" s="4">
         <v>44828</v>
       </c>
       <c r="D107" s="2" t="s">
@@ -2596,7 +2601,7 @@
       <c r="B108" s="2">
         <v>10107</v>
       </c>
-      <c r="C108" s="2">
+      <c r="C108" s="4">
         <v>44828</v>
       </c>
       <c r="D108" s="2" t="s">
@@ -2616,7 +2621,7 @@
       <c r="B109" s="2">
         <v>10108</v>
       </c>
-      <c r="C109" s="2">
+      <c r="C109" s="4">
         <v>44828</v>
       </c>
       <c r="D109" s="2" t="s">
@@ -2636,7 +2641,7 @@
       <c r="B110" s="2">
         <v>10109</v>
       </c>
-      <c r="C110" s="2">
+      <c r="C110" s="4">
         <v>44828</v>
       </c>
       <c r="D110" s="2" t="s">
@@ -2656,7 +2661,7 @@
       <c r="B111" s="2">
         <v>10110</v>
       </c>
-      <c r="C111" s="2">
+      <c r="C111" s="4">
         <v>44828</v>
       </c>
       <c r="D111" s="2" t="s">
@@ -2676,7 +2681,7 @@
       <c r="B112" s="2">
         <v>10111</v>
       </c>
-      <c r="C112" s="2">
+      <c r="C112" s="4">
         <v>44828</v>
       </c>
       <c r="D112" s="2" t="s">
@@ -2696,7 +2701,7 @@
       <c r="B113" s="2">
         <v>10112</v>
       </c>
-      <c r="C113" s="2">
+      <c r="C113" s="4">
         <v>44828</v>
       </c>
       <c r="D113" s="2" t="s">
@@ -2716,7 +2721,7 @@
       <c r="B114" s="2">
         <v>10113</v>
       </c>
-      <c r="C114" s="2">
+      <c r="C114" s="4">
         <v>44828</v>
       </c>
       <c r="D114" s="2" t="s">
@@ -2736,7 +2741,7 @@
       <c r="B115" s="2">
         <v>10114</v>
       </c>
-      <c r="C115" s="2">
+      <c r="C115" s="4">
         <v>44828</v>
       </c>
       <c r="D115" s="2" t="s">
@@ -2756,7 +2761,7 @@
       <c r="B116" s="2">
         <v>10115</v>
       </c>
-      <c r="C116" s="2">
+      <c r="C116" s="4">
         <v>44828</v>
       </c>
       <c r="D116" s="2" t="s">
@@ -2776,7 +2781,7 @@
       <c r="B117" s="2">
         <v>10116</v>
       </c>
-      <c r="C117" s="2">
+      <c r="C117" s="4">
         <v>44828</v>
       </c>
       <c r="D117" s="2" t="s">
@@ -2796,7 +2801,7 @@
       <c r="B118" s="2">
         <v>10117</v>
       </c>
-      <c r="C118" s="2">
+      <c r="C118" s="4">
         <v>44828</v>
       </c>
       <c r="D118" s="2" t="s">
@@ -2816,7 +2821,7 @@
       <c r="B119" s="2">
         <v>10118</v>
       </c>
-      <c r="C119" s="2">
+      <c r="C119" s="4">
         <v>44828</v>
       </c>
       <c r="D119" s="2" t="s">
@@ -2836,7 +2841,7 @@
       <c r="B120" s="2">
         <v>10119</v>
       </c>
-      <c r="C120" s="2">
+      <c r="C120" s="4">
         <v>44828</v>
       </c>
       <c r="D120" s="2" t="s">
@@ -2856,7 +2861,7 @@
       <c r="B121" s="2">
         <v>10120</v>
       </c>
-      <c r="C121" s="2">
+      <c r="C121" s="4">
         <v>44828</v>
       </c>
       <c r="D121" s="2" t="s">
@@ -2876,7 +2881,7 @@
       <c r="B122" s="2">
         <v>10121</v>
       </c>
-      <c r="C122" s="2">
+      <c r="C122" s="4">
         <v>44828</v>
       </c>
       <c r="D122" s="2" t="s">
@@ -2896,7 +2901,7 @@
       <c r="B123" s="2">
         <v>10122</v>
       </c>
-      <c r="C123" s="2">
+      <c r="C123" s="4">
         <v>44828</v>
       </c>
       <c r="D123" s="2" t="s">
@@ -2916,7 +2921,7 @@
       <c r="B124" s="2">
         <v>10123</v>
       </c>
-      <c r="C124" s="2">
+      <c r="C124" s="4">
         <v>44828</v>
       </c>
       <c r="D124" s="2" t="s">
@@ -2936,7 +2941,7 @@
       <c r="B125" s="2">
         <v>10124</v>
       </c>
-      <c r="C125" s="2">
+      <c r="C125" s="4">
         <v>44828</v>
       </c>
       <c r="D125" s="2" t="s">
@@ -2956,7 +2961,7 @@
       <c r="B126" s="2">
         <v>10125</v>
       </c>
-      <c r="C126" s="2">
+      <c r="C126" s="4">
         <v>44828</v>
       </c>
       <c r="D126" s="2" t="s">
@@ -2976,7 +2981,7 @@
       <c r="B127" s="2">
         <v>10126</v>
       </c>
-      <c r="C127" s="2">
+      <c r="C127" s="4">
         <v>44828</v>
       </c>
       <c r="D127" s="2" t="s">
@@ -2996,7 +3001,7 @@
       <c r="B128" s="2">
         <v>10127</v>
       </c>
-      <c r="C128" s="2">
+      <c r="C128" s="4">
         <v>44828</v>
       </c>
       <c r="D128" s="2" t="s">
@@ -3016,7 +3021,7 @@
       <c r="B129" s="2">
         <v>10128</v>
       </c>
-      <c r="C129" s="2">
+      <c r="C129" s="4">
         <v>44828</v>
       </c>
       <c r="D129" s="2" t="s">
@@ -3036,7 +3041,7 @@
       <c r="B130" s="2">
         <v>10129</v>
       </c>
-      <c r="C130" s="2">
+      <c r="C130" s="4">
         <v>44828</v>
       </c>
       <c r="D130" s="2" t="s">
@@ -3056,7 +3061,7 @@
       <c r="B131" s="2">
         <v>10130</v>
       </c>
-      <c r="C131" s="2">
+      <c r="C131" s="4">
         <v>44828</v>
       </c>
       <c r="D131" s="2" t="s">
@@ -3076,7 +3081,7 @@
       <c r="B132" s="2">
         <v>10131</v>
       </c>
-      <c r="C132" s="2">
+      <c r="C132" s="4">
         <v>44828</v>
       </c>
       <c r="D132" s="2" t="s">
@@ -3096,7 +3101,7 @@
       <c r="B133" s="2">
         <v>10132</v>
       </c>
-      <c r="C133" s="2">
+      <c r="C133" s="4">
         <v>44828</v>
       </c>
       <c r="D133" s="2" t="s">
@@ -3116,7 +3121,7 @@
       <c r="B134" s="2">
         <v>10133</v>
       </c>
-      <c r="C134" s="2">
+      <c r="C134" s="4">
         <v>44828</v>
       </c>
       <c r="D134" s="2" t="s">
@@ -3136,7 +3141,7 @@
       <c r="B135" s="2">
         <v>10134</v>
       </c>
-      <c r="C135" s="2">
+      <c r="C135" s="4">
         <v>44828</v>
       </c>
       <c r="D135" s="2" t="s">
@@ -3156,7 +3161,7 @@
       <c r="B136" s="2">
         <v>10135</v>
       </c>
-      <c r="C136" s="2">
+      <c r="C136" s="4">
         <v>44828</v>
       </c>
       <c r="D136" s="2" t="s">
@@ -3176,7 +3181,7 @@
       <c r="B137" s="2">
         <v>10136</v>
       </c>
-      <c r="C137" s="2">
+      <c r="C137" s="4">
         <v>44828</v>
       </c>
       <c r="D137" s="2" t="s">
@@ -3196,7 +3201,7 @@
       <c r="B138" s="2">
         <v>10137</v>
       </c>
-      <c r="C138" s="2">
+      <c r="C138" s="4">
         <v>44828</v>
       </c>
       <c r="D138" s="2" t="s">
@@ -3216,7 +3221,7 @@
       <c r="B139" s="2">
         <v>10138</v>
       </c>
-      <c r="C139" s="2">
+      <c r="C139" s="4">
         <v>44828</v>
       </c>
       <c r="D139" s="2" t="s">
@@ -3236,7 +3241,7 @@
       <c r="B140" s="2">
         <v>10139</v>
       </c>
-      <c r="C140" s="2">
+      <c r="C140" s="4">
         <v>44828</v>
       </c>
       <c r="D140" s="2" t="s">
@@ -3256,7 +3261,7 @@
       <c r="B141" s="2">
         <v>10140</v>
       </c>
-      <c r="C141" s="2">
+      <c r="C141" s="4">
         <v>44828</v>
       </c>
       <c r="D141" s="2" t="s">
@@ -3276,7 +3281,7 @@
       <c r="B142" s="2">
         <v>10141</v>
       </c>
-      <c r="C142" s="2">
+      <c r="C142" s="4">
         <v>44828</v>
       </c>
       <c r="D142" s="2" t="s">
@@ -3296,7 +3301,7 @@
       <c r="B143" s="2">
         <v>10142</v>
       </c>
-      <c r="C143" s="2">
+      <c r="C143" s="4">
         <v>44828</v>
       </c>
       <c r="D143" s="2" t="s">
@@ -3316,7 +3321,7 @@
       <c r="B144" s="2">
         <v>10143</v>
       </c>
-      <c r="C144" s="2">
+      <c r="C144" s="4">
         <v>44828</v>
       </c>
       <c r="D144" s="2" t="s">
@@ -3336,7 +3341,7 @@
       <c r="B145" s="2">
         <v>10144</v>
       </c>
-      <c r="C145" s="2">
+      <c r="C145" s="4">
         <v>44828</v>
       </c>
       <c r="D145" s="2" t="s">
@@ -3356,7 +3361,7 @@
       <c r="B146" s="2">
         <v>10145</v>
       </c>
-      <c r="C146" s="2">
+      <c r="C146" s="4">
         <v>44828</v>
       </c>
       <c r="D146" s="2" t="s">
@@ -3376,7 +3381,7 @@
       <c r="B147" s="2">
         <v>10146</v>
       </c>
-      <c r="C147" s="2">
+      <c r="C147" s="4">
         <v>44828</v>
       </c>
       <c r="D147" s="2" t="s">
@@ -3396,7 +3401,7 @@
       <c r="B148" s="2">
         <v>10147</v>
       </c>
-      <c r="C148" s="2">
+      <c r="C148" s="4">
         <v>44828</v>
       </c>
       <c r="D148" s="2" t="s">
@@ -3416,7 +3421,7 @@
       <c r="B149" s="2">
         <v>10148</v>
       </c>
-      <c r="C149" s="2">
+      <c r="C149" s="4">
         <v>44828</v>
       </c>
       <c r="D149" s="2" t="s">
@@ -3436,7 +3441,7 @@
       <c r="B150" s="2">
         <v>10149</v>
       </c>
-      <c r="C150" s="2">
+      <c r="C150" s="4">
         <v>44828</v>
       </c>
       <c r="D150" s="2" t="s">
@@ -3456,7 +3461,7 @@
       <c r="B151" s="2">
         <v>10150</v>
       </c>
-      <c r="C151" s="2">
+      <c r="C151" s="4">
         <v>44828</v>
       </c>
       <c r="D151" s="2" t="s">
@@ -3476,7 +3481,7 @@
       <c r="B152" s="2">
         <v>10151</v>
       </c>
-      <c r="C152" s="2">
+      <c r="C152" s="4">
         <v>44828</v>
       </c>
       <c r="D152" s="2" t="s">
@@ -3496,7 +3501,7 @@
       <c r="B153" s="2">
         <v>10152</v>
       </c>
-      <c r="C153" s="2">
+      <c r="C153" s="4">
         <v>44828</v>
       </c>
       <c r="D153" s="2" t="s">
@@ -3516,7 +3521,7 @@
       <c r="B154" s="2">
         <v>10153</v>
       </c>
-      <c r="C154" s="2">
+      <c r="C154" s="4">
         <v>44828</v>
       </c>
       <c r="D154" s="2" t="s">
@@ -3536,7 +3541,7 @@
       <c r="B155" s="2">
         <v>10154</v>
       </c>
-      <c r="C155" s="2">
+      <c r="C155" s="4">
         <v>44828</v>
       </c>
       <c r="D155" s="2" t="s">
@@ -3556,7 +3561,7 @@
       <c r="B156" s="2">
         <v>10155</v>
       </c>
-      <c r="C156" s="2">
+      <c r="C156" s="4">
         <v>44828</v>
       </c>
       <c r="D156" s="2" t="s">
@@ -3576,7 +3581,7 @@
       <c r="B157" s="2">
         <v>10156</v>
       </c>
-      <c r="C157" s="2">
+      <c r="C157" s="4">
         <v>44828</v>
       </c>
       <c r="D157" s="2" t="s">
@@ -3596,7 +3601,7 @@
       <c r="B158" s="2">
         <v>10157</v>
       </c>
-      <c r="C158" s="2">
+      <c r="C158" s="4">
         <v>44828</v>
       </c>
       <c r="D158" s="2" t="s">
@@ -3616,7 +3621,7 @@
       <c r="B159" s="2">
         <v>10158</v>
       </c>
-      <c r="C159" s="2">
+      <c r="C159" s="4">
         <v>44828</v>
       </c>
       <c r="D159" s="2" t="s">
@@ -3636,7 +3641,7 @@
       <c r="B160" s="2">
         <v>10159</v>
       </c>
-      <c r="C160" s="2">
+      <c r="C160" s="4">
         <v>44828</v>
       </c>
       <c r="D160" s="2" t="s">
@@ -3656,7 +3661,7 @@
       <c r="B161" s="2">
         <v>10160</v>
       </c>
-      <c r="C161" s="2">
+      <c r="C161" s="4">
         <v>44828</v>
       </c>
       <c r="D161" s="2" t="s">
@@ -3676,7 +3681,7 @@
       <c r="B162" s="2">
         <v>10161</v>
       </c>
-      <c r="C162" s="2">
+      <c r="C162" s="4">
         <v>44828</v>
       </c>
       <c r="D162" s="2" t="s">
@@ -3696,7 +3701,7 @@
       <c r="B163" s="2">
         <v>10162</v>
       </c>
-      <c r="C163" s="2">
+      <c r="C163" s="4">
         <v>44828</v>
       </c>
       <c r="D163" s="2" t="s">
@@ -3716,7 +3721,7 @@
       <c r="B164" s="2">
         <v>10163</v>
       </c>
-      <c r="C164" s="2">
+      <c r="C164" s="4">
         <v>44828</v>
       </c>
       <c r="D164" s="2" t="s">
@@ -3736,7 +3741,7 @@
       <c r="B165" s="2">
         <v>10164</v>
       </c>
-      <c r="C165" s="2">
+      <c r="C165" s="4">
         <v>44828</v>
       </c>
       <c r="D165" s="2" t="s">
@@ -3756,7 +3761,7 @@
       <c r="B166" s="2">
         <v>10165</v>
       </c>
-      <c r="C166" s="2">
+      <c r="C166" s="4">
         <v>44828</v>
       </c>
       <c r="D166" s="2" t="s">
@@ -3776,7 +3781,7 @@
       <c r="B167" s="2">
         <v>10166</v>
       </c>
-      <c r="C167" s="2">
+      <c r="C167" s="4">
         <v>44828</v>
       </c>
       <c r="D167" s="2" t="s">
@@ -3796,7 +3801,7 @@
       <c r="B168" s="2">
         <v>10167</v>
       </c>
-      <c r="C168" s="2">
+      <c r="C168" s="4">
         <v>44828</v>
       </c>
       <c r="D168" s="2" t="s">
@@ -3816,7 +3821,7 @@
       <c r="B169" s="2">
         <v>10168</v>
       </c>
-      <c r="C169" s="2">
+      <c r="C169" s="4">
         <v>44828</v>
       </c>
       <c r="D169" s="2" t="s">
@@ -3836,7 +3841,7 @@
       <c r="B170" s="2">
         <v>10169</v>
       </c>
-      <c r="C170" s="2">
+      <c r="C170" s="4">
         <v>44828</v>
       </c>
       <c r="D170" s="2" t="s">
@@ -3856,7 +3861,7 @@
       <c r="B171" s="2">
         <v>10170</v>
       </c>
-      <c r="C171" s="2">
+      <c r="C171" s="4">
         <v>44828</v>
       </c>
       <c r="D171" s="2" t="s">
@@ -3876,7 +3881,7 @@
       <c r="B172" s="2">
         <v>10171</v>
       </c>
-      <c r="C172" s="2">
+      <c r="C172" s="4">
         <v>44828</v>
       </c>
       <c r="D172" s="2" t="s">
@@ -3896,7 +3901,7 @@
       <c r="B173" s="2">
         <v>10172</v>
       </c>
-      <c r="C173" s="2">
+      <c r="C173" s="4">
         <v>44828</v>
       </c>
       <c r="D173" s="2" t="s">
@@ -3916,7 +3921,7 @@
       <c r="B174" s="2">
         <v>10173</v>
       </c>
-      <c r="C174" s="2">
+      <c r="C174" s="4">
         <v>44828</v>
       </c>
       <c r="D174" s="2" t="s">
@@ -3936,7 +3941,7 @@
       <c r="B175" s="2">
         <v>10174</v>
       </c>
-      <c r="C175" s="2">
+      <c r="C175" s="4">
         <v>44828</v>
       </c>
       <c r="D175" s="2" t="s">
@@ -3956,7 +3961,7 @@
       <c r="B176" s="2">
         <v>10175</v>
       </c>
-      <c r="C176" s="2">
+      <c r="C176" s="4">
         <v>44828</v>
       </c>
       <c r="D176" s="2" t="s">
@@ -3976,7 +3981,7 @@
       <c r="B177" s="2">
         <v>10176</v>
       </c>
-      <c r="C177" s="2">
+      <c r="C177" s="4">
         <v>44828</v>
       </c>
       <c r="D177" s="2" t="s">
@@ -3996,7 +4001,7 @@
       <c r="B178" s="2">
         <v>10177</v>
       </c>
-      <c r="C178" s="2">
+      <c r="C178" s="4">
         <v>44828</v>
       </c>
       <c r="D178" s="2" t="s">
@@ -4016,7 +4021,7 @@
       <c r="B179" s="2">
         <v>10178</v>
       </c>
-      <c r="C179" s="2">
+      <c r="C179" s="4">
         <v>44828</v>
       </c>
       <c r="D179" s="2" t="s">
@@ -4036,7 +4041,7 @@
       <c r="B180" s="2">
         <v>10179</v>
       </c>
-      <c r="C180" s="2">
+      <c r="C180" s="4">
         <v>44828</v>
       </c>
       <c r="D180" s="2" t="s">
@@ -4056,7 +4061,7 @@
       <c r="B181" s="2">
         <v>10180</v>
       </c>
-      <c r="C181" s="2">
+      <c r="C181" s="4">
         <v>44828</v>
       </c>
       <c r="D181" s="2" t="s">
@@ -4076,7 +4081,7 @@
       <c r="B182" s="2">
         <v>10181</v>
       </c>
-      <c r="C182" s="2">
+      <c r="C182" s="4">
         <v>44828</v>
       </c>
       <c r="D182" s="2" t="s">
@@ -4096,7 +4101,7 @@
       <c r="B183" s="2">
         <v>10182</v>
       </c>
-      <c r="C183" s="2">
+      <c r="C183" s="4">
         <v>44828</v>
       </c>
       <c r="D183" s="2" t="s">
@@ -4116,7 +4121,7 @@
       <c r="B184" s="2">
         <v>10183</v>
       </c>
-      <c r="C184" s="2">
+      <c r="C184" s="4">
         <v>44828</v>
       </c>
       <c r="D184" s="2" t="s">
@@ -4136,7 +4141,7 @@
       <c r="B185" s="2">
         <v>10184</v>
       </c>
-      <c r="C185" s="2">
+      <c r="C185" s="4">
         <v>44828</v>
       </c>
       <c r="D185" s="2" t="s">
@@ -4156,7 +4161,7 @@
       <c r="B186" s="2">
         <v>10185</v>
       </c>
-      <c r="C186" s="2">
+      <c r="C186" s="4">
         <v>44828</v>
       </c>
       <c r="D186" s="2" t="s">
@@ -4176,7 +4181,7 @@
       <c r="B187" s="2">
         <v>10186</v>
       </c>
-      <c r="C187" s="2">
+      <c r="C187" s="4">
         <v>44828</v>
       </c>
       <c r="D187" s="2" t="s">
@@ -4196,7 +4201,7 @@
       <c r="B188" s="2">
         <v>10187</v>
       </c>
-      <c r="C188" s="2">
+      <c r="C188" s="4">
         <v>44828</v>
       </c>
       <c r="D188" s="2" t="s">
@@ -4216,7 +4221,7 @@
       <c r="B189" s="2">
         <v>10188</v>
       </c>
-      <c r="C189" s="2">
+      <c r="C189" s="4">
         <v>44828</v>
       </c>
       <c r="D189" s="2" t="s">
@@ -4236,7 +4241,7 @@
       <c r="B190" s="2">
         <v>10189</v>
       </c>
-      <c r="C190" s="2">
+      <c r="C190" s="4">
         <v>44828</v>
       </c>
       <c r="D190" s="2" t="s">
@@ -4256,7 +4261,7 @@
       <c r="B191" s="2">
         <v>10190</v>
       </c>
-      <c r="C191" s="2">
+      <c r="C191" s="4">
         <v>44828</v>
       </c>
       <c r="D191" s="2" t="s">
@@ -4276,7 +4281,7 @@
       <c r="B192" s="2">
         <v>10191</v>
       </c>
-      <c r="C192" s="2">
+      <c r="C192" s="4">
         <v>44828</v>
       </c>
       <c r="D192" s="2" t="s">
@@ -4296,7 +4301,7 @@
       <c r="B193" s="2">
         <v>10192</v>
       </c>
-      <c r="C193" s="2">
+      <c r="C193" s="4">
         <v>44828</v>
       </c>
       <c r="D193" s="2" t="s">
@@ -4316,7 +4321,7 @@
       <c r="B194" s="2">
         <v>10193</v>
       </c>
-      <c r="C194" s="2">
+      <c r="C194" s="4">
         <v>44828</v>
       </c>
       <c r="D194" s="2" t="s">
@@ -4336,7 +4341,7 @@
       <c r="B195" s="2">
         <v>10194</v>
       </c>
-      <c r="C195" s="2">
+      <c r="C195" s="4">
         <v>44828</v>
       </c>
       <c r="D195" s="2" t="s">
@@ -4356,7 +4361,7 @@
       <c r="B196" s="2">
         <v>10195</v>
       </c>
-      <c r="C196" s="2">
+      <c r="C196" s="4">
         <v>44828</v>
       </c>
       <c r="D196" s="2" t="s">
@@ -4376,7 +4381,7 @@
       <c r="B197" s="2">
         <v>10196</v>
       </c>
-      <c r="C197" s="2">
+      <c r="C197" s="4">
         <v>44828</v>
       </c>
       <c r="D197" s="2" t="s">
@@ -4396,7 +4401,7 @@
       <c r="B198" s="2">
         <v>10197</v>
       </c>
-      <c r="C198" s="2">
+      <c r="C198" s="4">
         <v>44828</v>
       </c>
       <c r="D198" s="2" t="s">
@@ -4416,7 +4421,7 @@
       <c r="B199" s="2">
         <v>10198</v>
       </c>
-      <c r="C199" s="2">
+      <c r="C199" s="4">
         <v>44828</v>
       </c>
       <c r="D199" s="2" t="s">
@@ -4436,7 +4441,7 @@
       <c r="B200" s="2">
         <v>10199</v>
       </c>
-      <c r="C200" s="2">
+      <c r="C200" s="4">
         <v>44828</v>
       </c>
       <c r="D200" s="2" t="s">
@@ -4456,7 +4461,7 @@
       <c r="B201" s="2">
         <v>10200</v>
       </c>
-      <c r="C201" s="2">
+      <c r="C201" s="4">
         <v>44828</v>
       </c>
       <c r="D201" s="2" t="s">
@@ -4476,7 +4481,7 @@
       <c r="B202" s="2">
         <v>10201</v>
       </c>
-      <c r="C202" s="2">
+      <c r="C202" s="4">
         <v>44828</v>
       </c>
       <c r="D202" s="2" t="s">
@@ -4496,7 +4501,7 @@
       <c r="B203" s="2">
         <v>10202</v>
       </c>
-      <c r="C203" s="2">
+      <c r="C203" s="4">
         <v>44828</v>
       </c>
       <c r="D203" s="2" t="s">
@@ -4516,7 +4521,7 @@
       <c r="B204" s="2">
         <v>10203</v>
       </c>
-      <c r="C204" s="2">
+      <c r="C204" s="4">
         <v>44828</v>
       </c>
       <c r="D204" s="2" t="s">
@@ -4536,7 +4541,7 @@
       <c r="B205" s="2">
         <v>10204</v>
       </c>
-      <c r="C205" s="2">
+      <c r="C205" s="4">
         <v>44828</v>
       </c>
       <c r="D205" s="2" t="s">
@@ -4556,7 +4561,7 @@
       <c r="B206" s="2">
         <v>10205</v>
       </c>
-      <c r="C206" s="2">
+      <c r="C206" s="4">
         <v>44828</v>
       </c>
       <c r="D206" s="2" t="s">
@@ -4576,7 +4581,7 @@
       <c r="B207" s="2">
         <v>10206</v>
       </c>
-      <c r="C207" s="2">
+      <c r="C207" s="4">
         <v>44828</v>
       </c>
       <c r="D207" s="2" t="s">
@@ -4596,7 +4601,7 @@
       <c r="B208" s="2">
         <v>10207</v>
       </c>
-      <c r="C208" s="2">
+      <c r="C208" s="4">
         <v>44828</v>
       </c>
       <c r="D208" s="2" t="s">
@@ -4616,7 +4621,7 @@
       <c r="B209" s="2">
         <v>10208</v>
       </c>
-      <c r="C209" s="2">
+      <c r="C209" s="4">
         <v>44828</v>
       </c>
       <c r="D209" s="2" t="s">
@@ -4636,7 +4641,7 @@
       <c r="B210" s="2">
         <v>10209</v>
       </c>
-      <c r="C210" s="2">
+      <c r="C210" s="4">
         <v>44828</v>
       </c>
       <c r="D210" s="2" t="s">
@@ -4656,7 +4661,7 @@
       <c r="B211" s="2">
         <v>10210</v>
       </c>
-      <c r="C211" s="2">
+      <c r="C211" s="4">
         <v>44828</v>
       </c>
       <c r="D211" s="2" t="s">
@@ -4676,7 +4681,7 @@
       <c r="B212" s="2">
         <v>10211</v>
       </c>
-      <c r="C212" s="2">
+      <c r="C212" s="4">
         <v>44828</v>
       </c>
       <c r="D212" s="2" t="s">
@@ -4696,7 +4701,7 @@
       <c r="B213" s="2">
         <v>10212</v>
       </c>
-      <c r="C213" s="2">
+      <c r="C213" s="4">
         <v>44828</v>
       </c>
       <c r="D213" s="2" t="s">
@@ -4716,7 +4721,7 @@
       <c r="B214" s="2">
         <v>10213</v>
       </c>
-      <c r="C214" s="2">
+      <c r="C214" s="4">
         <v>44828</v>
       </c>
       <c r="D214" s="2" t="s">
@@ -4736,7 +4741,7 @@
       <c r="B215" s="2">
         <v>10214</v>
       </c>
-      <c r="C215" s="2">
+      <c r="C215" s="4">
         <v>44828</v>
       </c>
       <c r="D215" s="2" t="s">
@@ -4756,7 +4761,7 @@
       <c r="B216" s="2">
         <v>10215</v>
       </c>
-      <c r="C216" s="2">
+      <c r="C216" s="4">
         <v>44828</v>
       </c>
       <c r="D216" s="2" t="s">
@@ -4776,7 +4781,7 @@
       <c r="B217" s="2">
         <v>10216</v>
       </c>
-      <c r="C217" s="2">
+      <c r="C217" s="4">
         <v>44828</v>
       </c>
       <c r="D217" s="2" t="s">
@@ -4796,7 +4801,7 @@
       <c r="B218" s="2">
         <v>10217</v>
       </c>
-      <c r="C218" s="2">
+      <c r="C218" s="4">
         <v>44828</v>
       </c>
       <c r="D218" s="2" t="s">
@@ -4816,7 +4821,7 @@
       <c r="B219" s="2">
         <v>10218</v>
       </c>
-      <c r="C219" s="2">
+      <c r="C219" s="4">
         <v>44828</v>
       </c>
       <c r="D219" s="2" t="s">
@@ -4836,7 +4841,7 @@
       <c r="B220" s="2">
         <v>10219</v>
       </c>
-      <c r="C220" s="2">
+      <c r="C220" s="4">
         <v>44828</v>
       </c>
       <c r="D220" s="2" t="s">
@@ -4856,7 +4861,7 @@
       <c r="B221" s="2">
         <v>10220</v>
       </c>
-      <c r="C221" s="2">
+      <c r="C221" s="4">
         <v>44828</v>
       </c>
       <c r="D221" s="2" t="s">
@@ -4876,7 +4881,7 @@
       <c r="B222" s="2">
         <v>10221</v>
       </c>
-      <c r="C222" s="2">
+      <c r="C222" s="4">
         <v>44828</v>
       </c>
       <c r="D222" s="2" t="s">
@@ -4896,7 +4901,7 @@
       <c r="B223" s="2">
         <v>10222</v>
       </c>
-      <c r="C223" s="2">
+      <c r="C223" s="4">
         <v>44828</v>
       </c>
       <c r="D223" s="2" t="s">
@@ -4916,7 +4921,7 @@
       <c r="B224" s="2">
         <v>10223</v>
       </c>
-      <c r="C224" s="2">
+      <c r="C224" s="4">
         <v>44828</v>
       </c>
       <c r="D224" s="2" t="s">
@@ -4936,7 +4941,7 @@
       <c r="B225" s="2">
         <v>10224</v>
       </c>
-      <c r="C225" s="2">
+      <c r="C225" s="4">
         <v>44828</v>
       </c>
       <c r="D225" s="2" t="s">
@@ -4956,7 +4961,7 @@
       <c r="B226" s="2">
         <v>10225</v>
       </c>
-      <c r="C226" s="2">
+      <c r="C226" s="4">
         <v>44828</v>
       </c>
       <c r="D226" s="2" t="s">
@@ -4976,7 +4981,7 @@
       <c r="B227" s="2">
         <v>10226</v>
       </c>
-      <c r="C227" s="2">
+      <c r="C227" s="4">
         <v>44828</v>
       </c>
       <c r="D227" s="2" t="s">
@@ -4996,7 +5001,7 @@
       <c r="B228" s="2">
         <v>10227</v>
       </c>
-      <c r="C228" s="2">
+      <c r="C228" s="4">
         <v>44828</v>
       </c>
       <c r="D228" s="2" t="s">
@@ -5016,7 +5021,7 @@
       <c r="B229" s="2">
         <v>10228</v>
       </c>
-      <c r="C229" s="2">
+      <c r="C229" s="4">
         <v>44828</v>
       </c>
       <c r="D229" s="2" t="s">
@@ -5036,7 +5041,7 @@
       <c r="B230" s="2">
         <v>10229</v>
       </c>
-      <c r="C230" s="2">
+      <c r="C230" s="4">
         <v>44828</v>
       </c>
       <c r="D230" s="2" t="s">
@@ -5056,7 +5061,7 @@
       <c r="B231" s="2">
         <v>10230</v>
       </c>
-      <c r="C231" s="2">
+      <c r="C231" s="4">
         <v>44828</v>
       </c>
       <c r="D231" s="2" t="s">
@@ -5076,7 +5081,7 @@
       <c r="B232" s="2">
         <v>10231</v>
       </c>
-      <c r="C232" s="2">
+      <c r="C232" s="4">
         <v>44828</v>
       </c>
       <c r="D232" s="2" t="s">
@@ -5096,7 +5101,7 @@
       <c r="B233" s="2">
         <v>10232</v>
       </c>
-      <c r="C233" s="2">
+      <c r="C233" s="4">
         <v>44828</v>
       </c>
       <c r="D233" s="2" t="s">
@@ -5116,7 +5121,7 @@
       <c r="B234" s="2">
         <v>10233</v>
       </c>
-      <c r="C234" s="2">
+      <c r="C234" s="4">
         <v>44828</v>
       </c>
       <c r="D234" s="2" t="s">
@@ -5136,7 +5141,7 @@
       <c r="B235" s="2">
         <v>10234</v>
       </c>
-      <c r="C235" s="2">
+      <c r="C235" s="4">
         <v>44828</v>
       </c>
       <c r="D235" s="2" t="s">
@@ -5156,7 +5161,7 @@
       <c r="B236" s="2">
         <v>10235</v>
       </c>
-      <c r="C236" s="2">
+      <c r="C236" s="4">
         <v>44828</v>
       </c>
       <c r="D236" s="2" t="s">
@@ -5176,7 +5181,7 @@
       <c r="B237" s="2">
         <v>10236</v>
       </c>
-      <c r="C237" s="2">
+      <c r="C237" s="4">
         <v>44828</v>
       </c>
       <c r="D237" s="2" t="s">
@@ -5196,7 +5201,7 @@
       <c r="B238" s="2">
         <v>10237</v>
       </c>
-      <c r="C238" s="2">
+      <c r="C238" s="4">
         <v>44828</v>
       </c>
       <c r="D238" s="2" t="s">
@@ -5216,7 +5221,7 @@
       <c r="B239" s="2">
         <v>10238</v>
       </c>
-      <c r="C239" s="2">
+      <c r="C239" s="4">
         <v>44828</v>
       </c>
       <c r="D239" s="2" t="s">
@@ -5236,7 +5241,7 @@
       <c r="B240" s="2">
         <v>10239</v>
       </c>
-      <c r="C240" s="2">
+      <c r="C240" s="4">
         <v>44828</v>
       </c>
       <c r="D240" s="2" t="s">
@@ -5256,7 +5261,7 @@
       <c r="B241" s="2">
         <v>10240</v>
       </c>
-      <c r="C241" s="2">
+      <c r="C241" s="4">
         <v>44828</v>
       </c>
       <c r="D241" s="2" t="s">
@@ -5276,7 +5281,7 @@
       <c r="B242" s="2">
         <v>10241</v>
       </c>
-      <c r="C242" s="2">
+      <c r="C242" s="4">
         <v>44828</v>
       </c>
       <c r="D242" s="2" t="s">
@@ -5296,7 +5301,7 @@
       <c r="B243" s="2">
         <v>10242</v>
       </c>
-      <c r="C243" s="2">
+      <c r="C243" s="4">
         <v>44828</v>
       </c>
       <c r="D243" s="2" t="s">
@@ -5316,7 +5321,7 @@
       <c r="B244" s="2">
         <v>10243</v>
       </c>
-      <c r="C244" s="2">
+      <c r="C244" s="4">
         <v>44828</v>
       </c>
       <c r="D244" s="2" t="s">
@@ -5336,7 +5341,7 @@
       <c r="B245" s="2">
         <v>10244</v>
       </c>
-      <c r="C245" s="2">
+      <c r="C245" s="4">
         <v>44828</v>
       </c>
       <c r="D245" s="2" t="s">
@@ -5356,7 +5361,7 @@
       <c r="B246" s="2">
         <v>10245</v>
       </c>
-      <c r="C246" s="2">
+      <c r="C246" s="4">
         <v>44828</v>
       </c>
       <c r="D246" s="2" t="s">
@@ -5376,7 +5381,7 @@
       <c r="B247" s="2">
         <v>10246</v>
       </c>
-      <c r="C247" s="2">
+      <c r="C247" s="4">
         <v>44828</v>
       </c>
       <c r="D247" s="2" t="s">
@@ -5396,7 +5401,7 @@
       <c r="B248" s="2">
         <v>10247</v>
       </c>
-      <c r="C248" s="2">
+      <c r="C248" s="4">
         <v>44828</v>
       </c>
       <c r="D248" s="2" t="s">
@@ -5416,7 +5421,7 @@
       <c r="B249" s="2">
         <v>10248</v>
       </c>
-      <c r="C249" s="2">
+      <c r="C249" s="4">
         <v>44828</v>
       </c>
       <c r="D249" s="2" t="s">
@@ -5436,7 +5441,7 @@
       <c r="B250" s="2">
         <v>10249</v>
       </c>
-      <c r="C250" s="2">
+      <c r="C250" s="4">
         <v>44828</v>
       </c>
       <c r="D250" s="2" t="s">
@@ -5456,7 +5461,7 @@
       <c r="B251" s="2">
         <v>10250</v>
       </c>
-      <c r="C251" s="2">
+      <c r="C251" s="4">
         <v>44828</v>
       </c>
       <c r="D251" s="2" t="s">
@@ -5476,7 +5481,7 @@
       <c r="B252" s="2">
         <v>10251</v>
       </c>
-      <c r="C252" s="2">
+      <c r="C252" s="4">
         <v>44828</v>
       </c>
       <c r="D252" s="2" t="s">
@@ -5496,7 +5501,7 @@
       <c r="B253" s="2">
         <v>10252</v>
       </c>
-      <c r="C253" s="2">
+      <c r="C253" s="4">
         <v>44828</v>
       </c>
       <c r="D253" s="2" t="s">
@@ -5516,7 +5521,7 @@
       <c r="B254" s="2">
         <v>10253</v>
       </c>
-      <c r="C254" s="2">
+      <c r="C254" s="4">
         <v>44828</v>
       </c>
       <c r="D254" s="2" t="s">
@@ -5536,7 +5541,7 @@
       <c r="B255" s="2">
         <v>10254</v>
       </c>
-      <c r="C255" s="2">
+      <c r="C255" s="4">
         <v>44828</v>
       </c>
       <c r="D255" s="2" t="s">
@@ -5556,7 +5561,7 @@
       <c r="B256" s="2">
         <v>10255</v>
       </c>
-      <c r="C256" s="2">
+      <c r="C256" s="4">
         <v>44828</v>
       </c>
       <c r="D256" s="2" t="s">
@@ -5576,7 +5581,7 @@
       <c r="B257" s="2">
         <v>10256</v>
       </c>
-      <c r="C257" s="2">
+      <c r="C257" s="4">
         <v>44828</v>
       </c>
       <c r="D257" s="2" t="s">
@@ -5596,7 +5601,7 @@
       <c r="B258" s="2">
         <v>10257</v>
       </c>
-      <c r="C258" s="2">
+      <c r="C258" s="4">
         <v>44828</v>
       </c>
       <c r="D258" s="2" t="s">
@@ -5616,7 +5621,7 @@
       <c r="B259" s="2">
         <v>10258</v>
       </c>
-      <c r="C259" s="2">
+      <c r="C259" s="4">
         <v>44828</v>
       </c>
       <c r="D259" s="2" t="s">
@@ -5636,7 +5641,7 @@
       <c r="B260" s="2">
         <v>10259</v>
       </c>
-      <c r="C260" s="2">
+      <c r="C260" s="4">
         <v>44828</v>
       </c>
       <c r="D260" s="2" t="s">
@@ -5656,7 +5661,7 @@
       <c r="B261" s="2">
         <v>10260</v>
       </c>
-      <c r="C261" s="2">
+      <c r="C261" s="4">
         <v>44828</v>
       </c>
       <c r="D261" s="2" t="s">
@@ -5676,7 +5681,7 @@
       <c r="B262" s="2">
         <v>10261</v>
       </c>
-      <c r="C262" s="2">
+      <c r="C262" s="4">
         <v>44828</v>
       </c>
       <c r="D262" s="2" t="s">
@@ -5696,7 +5701,7 @@
       <c r="B263" s="2">
         <v>10262</v>
       </c>
-      <c r="C263" s="2">
+      <c r="C263" s="4">
         <v>44828</v>
       </c>
       <c r="D263" s="2" t="s">
@@ -5716,7 +5721,7 @@
       <c r="B264" s="2">
         <v>10263</v>
       </c>
-      <c r="C264" s="2">
+      <c r="C264" s="4">
         <v>44828</v>
       </c>
       <c r="D264" s="2" t="s">
@@ -5736,7 +5741,7 @@
       <c r="B265" s="2">
         <v>10264</v>
       </c>
-      <c r="C265" s="2">
+      <c r="C265" s="4">
         <v>44828</v>
       </c>
       <c r="D265" s="2" t="s">
@@ -5756,7 +5761,7 @@
       <c r="B266" s="2">
         <v>10265</v>
       </c>
-      <c r="C266" s="2">
+      <c r="C266" s="4">
         <v>44828</v>
       </c>
       <c r="D266" s="2" t="s">
@@ -5776,7 +5781,7 @@
       <c r="B267" s="2">
         <v>10266</v>
       </c>
-      <c r="C267" s="2">
+      <c r="C267" s="4">
         <v>44828</v>
       </c>
       <c r="D267" s="2" t="s">
@@ -5796,7 +5801,7 @@
       <c r="B268" s="2">
         <v>10267</v>
       </c>
-      <c r="C268" s="2">
+      <c r="C268" s="4">
         <v>44828</v>
       </c>
       <c r="D268" s="2" t="s">
@@ -5816,7 +5821,7 @@
       <c r="B269" s="2">
         <v>10268</v>
       </c>
-      <c r="C269" s="2">
+      <c r="C269" s="4">
         <v>44828</v>
       </c>
       <c r="D269" s="2" t="s">
@@ -5836,7 +5841,7 @@
       <c r="B270" s="2">
         <v>10269</v>
       </c>
-      <c r="C270" s="2">
+      <c r="C270" s="4">
         <v>44828</v>
       </c>
       <c r="D270" s="2" t="s">
@@ -5856,7 +5861,7 @@
       <c r="B271" s="2">
         <v>10270</v>
       </c>
-      <c r="C271" s="2">
+      <c r="C271" s="4">
         <v>44828</v>
       </c>
       <c r="D271" s="2" t="s">
@@ -5876,7 +5881,7 @@
       <c r="B272" s="2">
         <v>10271</v>
       </c>
-      <c r="C272" s="2">
+      <c r="C272" s="4">
         <v>44828</v>
       </c>
       <c r="D272" s="2" t="s">
@@ -5896,7 +5901,7 @@
       <c r="B273" s="2">
         <v>10272</v>
       </c>
-      <c r="C273" s="2">
+      <c r="C273" s="4">
         <v>44828</v>
       </c>
       <c r="D273" s="2" t="s">
@@ -5916,7 +5921,7 @@
       <c r="B274" s="2">
         <v>10273</v>
       </c>
-      <c r="C274" s="2">
+      <c r="C274" s="4">
         <v>44828</v>
       </c>
       <c r="D274" s="2" t="s">
@@ -5936,7 +5941,7 @@
       <c r="B275" s="2">
         <v>10274</v>
       </c>
-      <c r="C275" s="2">
+      <c r="C275" s="4">
         <v>44828</v>
       </c>
       <c r="D275" s="2" t="s">
@@ -5956,7 +5961,7 @@
       <c r="B276" s="2">
         <v>10275</v>
       </c>
-      <c r="C276" s="2">
+      <c r="C276" s="4">
         <v>44828</v>
       </c>
       <c r="D276" s="2" t="s">
@@ -5976,7 +5981,7 @@
       <c r="B277" s="2">
         <v>10276</v>
       </c>
-      <c r="C277" s="2">
+      <c r="C277" s="4">
         <v>44828</v>
       </c>
       <c r="D277" s="2" t="s">
@@ -5996,7 +6001,7 @@
       <c r="B278" s="2">
         <v>10277</v>
       </c>
-      <c r="C278" s="2">
+      <c r="C278" s="4">
         <v>44828</v>
       </c>
       <c r="D278" s="2" t="s">
@@ -6016,7 +6021,7 @@
       <c r="B279" s="2">
         <v>10278</v>
       </c>
-      <c r="C279" s="2">
+      <c r="C279" s="4">
         <v>44828</v>
       </c>
       <c r="D279" s="2" t="s">
@@ -6036,7 +6041,7 @@
       <c r="B280" s="2">
         <v>10279</v>
       </c>
-      <c r="C280" s="2">
+      <c r="C280" s="4">
         <v>44828</v>
       </c>
       <c r="D280" s="2" t="s">
@@ -6056,7 +6061,7 @@
       <c r="B281" s="2">
         <v>10280</v>
       </c>
-      <c r="C281" s="2">
+      <c r="C281" s="4">
         <v>44828</v>
       </c>
       <c r="D281" s="2" t="s">
@@ -6076,7 +6081,7 @@
       <c r="B282" s="2">
         <v>10281</v>
       </c>
-      <c r="C282" s="2">
+      <c r="C282" s="4">
         <v>44828</v>
       </c>
       <c r="D282" s="2" t="s">
@@ -6096,7 +6101,7 @@
       <c r="B283" s="2">
         <v>10282</v>
       </c>
-      <c r="C283" s="2">
+      <c r="C283" s="4">
         <v>44828</v>
       </c>
       <c r="D283" s="2" t="s">
@@ -6116,7 +6121,7 @@
       <c r="B284" s="2">
         <v>10283</v>
       </c>
-      <c r="C284" s="2">
+      <c r="C284" s="4">
         <v>44828</v>
       </c>
       <c r="D284" s="2" t="s">
@@ -6136,7 +6141,7 @@
       <c r="B285" s="2">
         <v>10284</v>
       </c>
-      <c r="C285" s="2">
+      <c r="C285" s="4">
         <v>44828</v>
       </c>
       <c r="D285" s="2" t="s">
@@ -6156,7 +6161,7 @@
       <c r="B286" s="2">
         <v>10285</v>
       </c>
-      <c r="C286" s="2">
+      <c r="C286" s="4">
         <v>44828</v>
       </c>
       <c r="D286" s="2" t="s">
@@ -6176,7 +6181,7 @@
       <c r="B287" s="2">
         <v>10286</v>
       </c>
-      <c r="C287" s="2">
+      <c r="C287" s="4">
         <v>44828</v>
       </c>
       <c r="D287" s="2" t="s">
@@ -6196,7 +6201,7 @@
       <c r="B288" s="2">
         <v>10287</v>
       </c>
-      <c r="C288" s="2">
+      <c r="C288" s="4">
         <v>44828</v>
       </c>
       <c r="D288" s="2" t="s">
@@ -6216,7 +6221,7 @@
       <c r="B289" s="2">
         <v>10288</v>
       </c>
-      <c r="C289" s="2">
+      <c r="C289" s="4">
         <v>44828</v>
       </c>
       <c r="D289" s="2" t="s">
@@ -6236,7 +6241,7 @@
       <c r="B290" s="2">
         <v>10289</v>
       </c>
-      <c r="C290" s="2">
+      <c r="C290" s="4">
         <v>44828</v>
       </c>
       <c r="D290" s="2" t="s">
@@ -6256,7 +6261,7 @@
       <c r="B291" s="2">
         <v>10290</v>
       </c>
-      <c r="C291" s="2">
+      <c r="C291" s="4">
         <v>44828</v>
       </c>
       <c r="D291" s="2" t="s">
@@ -6276,7 +6281,7 @@
       <c r="B292" s="2">
         <v>10291</v>
       </c>
-      <c r="C292" s="2">
+      <c r="C292" s="4">
         <v>44828</v>
       </c>
       <c r="D292" s="2" t="s">
@@ -6296,7 +6301,7 @@
       <c r="B293" s="2">
         <v>10292</v>
       </c>
-      <c r="C293" s="2">
+      <c r="C293" s="4">
         <v>44828</v>
       </c>
       <c r="D293" s="2" t="s">
@@ -6316,7 +6321,7 @@
       <c r="B294" s="2">
         <v>10293</v>
       </c>
-      <c r="C294" s="2">
+      <c r="C294" s="4">
         <v>44828</v>
       </c>
       <c r="D294" s="2" t="s">
@@ -6336,7 +6341,7 @@
       <c r="B295" s="2">
         <v>10294</v>
       </c>
-      <c r="C295" s="2">
+      <c r="C295" s="4">
         <v>44828</v>
       </c>
       <c r="D295" s="2" t="s">
@@ -6356,7 +6361,7 @@
       <c r="B296" s="2">
         <v>10295</v>
       </c>
-      <c r="C296" s="2">
+      <c r="C296" s="4">
         <v>44828</v>
       </c>
       <c r="D296" s="2" t="s">
@@ -6376,7 +6381,7 @@
       <c r="B297" s="2">
         <v>10296</v>
       </c>
-      <c r="C297" s="2">
+      <c r="C297" s="4">
         <v>44828</v>
       </c>
       <c r="D297" s="2" t="s">
@@ -6396,7 +6401,7 @@
       <c r="B298" s="2">
         <v>10297</v>
       </c>
-      <c r="C298" s="2">
+      <c r="C298" s="4">
         <v>44828</v>
       </c>
       <c r="D298" s="2" t="s">
@@ -6416,7 +6421,7 @@
       <c r="B299" s="2">
         <v>10298</v>
       </c>
-      <c r="C299" s="2">
+      <c r="C299" s="4">
         <v>44828</v>
       </c>
       <c r="D299" s="2" t="s">
@@ -6436,7 +6441,7 @@
       <c r="B300" s="2">
         <v>10299</v>
       </c>
-      <c r="C300" s="2">
+      <c r="C300" s="4">
         <v>44828</v>
       </c>
       <c r="D300" s="2" t="s">
@@ -6456,7 +6461,7 @@
       <c r="B301" s="2">
         <v>10300</v>
       </c>
-      <c r="C301" s="2">
+      <c r="C301" s="4">
         <v>44828</v>
       </c>
       <c r="D301" s="2" t="s">
@@ -6476,7 +6481,7 @@
       <c r="B302" s="2">
         <v>10301</v>
       </c>
-      <c r="C302" s="2">
+      <c r="C302" s="4">
         <v>44828</v>
       </c>
       <c r="D302" s="2" t="s">
@@ -6496,7 +6501,7 @@
       <c r="B303" s="2">
         <v>10302</v>
       </c>
-      <c r="C303" s="2">
+      <c r="C303" s="4">
         <v>44828</v>
       </c>
       <c r="D303" s="2" t="s">
@@ -6516,7 +6521,7 @@
       <c r="B304" s="2">
         <v>10303</v>
       </c>
-      <c r="C304" s="2">
+      <c r="C304" s="4">
         <v>44828</v>
       </c>
       <c r="D304" s="2" t="s">
@@ -6536,7 +6541,7 @@
       <c r="B305" s="2">
         <v>10304</v>
       </c>
-      <c r="C305" s="2">
+      <c r="C305" s="4">
         <v>44828</v>
       </c>
       <c r="D305" s="2" t="s">
@@ -6556,7 +6561,7 @@
       <c r="B306" s="2">
         <v>10305</v>
       </c>
-      <c r="C306" s="2">
+      <c r="C306" s="4">
         <v>44828</v>
       </c>
       <c r="D306" s="2" t="s">
@@ -6576,7 +6581,7 @@
       <c r="B307" s="2">
         <v>10306</v>
       </c>
-      <c r="C307" s="2">
+      <c r="C307" s="4">
         <v>44828</v>
       </c>
       <c r="D307" s="2" t="s">
@@ -6596,7 +6601,7 @@
       <c r="B308" s="2">
         <v>10307</v>
       </c>
-      <c r="C308" s="2">
+      <c r="C308" s="4">
         <v>44828</v>
       </c>
       <c r="D308" s="2" t="s">
@@ -6616,7 +6621,7 @@
       <c r="B309" s="2">
         <v>10308</v>
       </c>
-      <c r="C309" s="2">
+      <c r="C309" s="4">
         <v>44828</v>
       </c>
       <c r="D309" s="2" t="s">
@@ -6636,7 +6641,7 @@
       <c r="B310" s="2">
         <v>10309</v>
       </c>
-      <c r="C310" s="2">
+      <c r="C310" s="4">
         <v>44828</v>
       </c>
       <c r="D310" s="2" t="s">
@@ -6656,7 +6661,7 @@
       <c r="B311" s="2">
         <v>10310</v>
       </c>
-      <c r="C311" s="2">
+      <c r="C311" s="4">
         <v>44828</v>
       </c>
       <c r="D311" s="2" t="s">
@@ -6676,7 +6681,7 @@
       <c r="B312" s="2">
         <v>10311</v>
       </c>
-      <c r="C312" s="2">
+      <c r="C312" s="4">
         <v>44828</v>
       </c>
       <c r="D312" s="2" t="s">
@@ -6696,7 +6701,7 @@
       <c r="B313" s="2">
         <v>10312</v>
       </c>
-      <c r="C313" s="2">
+      <c r="C313" s="4">
         <v>44828</v>
       </c>
       <c r="D313" s="2" t="s">
@@ -6716,7 +6721,7 @@
       <c r="B314" s="2">
         <v>10313</v>
       </c>
-      <c r="C314" s="2">
+      <c r="C314" s="4">
         <v>44828</v>
       </c>
       <c r="D314" s="2" t="s">
@@ -6736,7 +6741,7 @@
       <c r="B315" s="2">
         <v>10314</v>
       </c>
-      <c r="C315" s="2">
+      <c r="C315" s="4">
         <v>44828</v>
       </c>
       <c r="D315" s="2" t="s">
@@ -6756,7 +6761,7 @@
       <c r="B316" s="2">
         <v>10315</v>
       </c>
-      <c r="C316" s="2">
+      <c r="C316" s="4">
         <v>44828</v>
       </c>
       <c r="D316" s="2" t="s">
@@ -6776,7 +6781,7 @@
       <c r="B317" s="2">
         <v>10316</v>
       </c>
-      <c r="C317" s="2">
+      <c r="C317" s="4">
         <v>44828</v>
       </c>
       <c r="D317" s="2" t="s">
@@ -6796,7 +6801,7 @@
       <c r="B318" s="2">
         <v>10317</v>
       </c>
-      <c r="C318" s="2">
+      <c r="C318" s="4">
         <v>44828</v>
       </c>
       <c r="D318" s="2" t="s">
@@ -6816,7 +6821,7 @@
       <c r="B319" s="2">
         <v>10318</v>
       </c>
-      <c r="C319" s="2">
+      <c r="C319" s="4">
         <v>44828</v>
       </c>
       <c r="D319" s="2" t="s">
@@ -6836,7 +6841,7 @@
       <c r="B320" s="2">
         <v>10319</v>
       </c>
-      <c r="C320" s="2">
+      <c r="C320" s="4">
         <v>44828</v>
       </c>
       <c r="D320" s="2" t="s">
@@ -6856,7 +6861,7 @@
       <c r="B321" s="2">
         <v>10320</v>
       </c>
-      <c r="C321" s="2">
+      <c r="C321" s="4">
         <v>44828</v>
       </c>
       <c r="D321" s="2" t="s">
@@ -6876,7 +6881,7 @@
       <c r="B322" s="2">
         <v>10321</v>
       </c>
-      <c r="C322" s="2">
+      <c r="C322" s="4">
         <v>44828</v>
       </c>
       <c r="D322" s="2" t="s">
@@ -6896,7 +6901,7 @@
       <c r="B323" s="2">
         <v>10322</v>
       </c>
-      <c r="C323" s="2">
+      <c r="C323" s="4">
         <v>44828</v>
       </c>
       <c r="D323" s="2" t="s">
@@ -6916,7 +6921,7 @@
       <c r="B324" s="2">
         <v>10323</v>
       </c>
-      <c r="C324" s="2">
+      <c r="C324" s="4">
         <v>44828</v>
       </c>
       <c r="D324" s="2" t="s">
@@ -6936,7 +6941,7 @@
       <c r="B325" s="2">
         <v>10324</v>
       </c>
-      <c r="C325" s="2">
+      <c r="C325" s="4">
         <v>44828</v>
       </c>
       <c r="D325" s="2" t="s">
@@ -6956,7 +6961,7 @@
       <c r="B326" s="2">
         <v>10325</v>
       </c>
-      <c r="C326" s="2">
+      <c r="C326" s="4">
         <v>44828</v>
       </c>
       <c r="D326" s="2" t="s">
@@ -6976,7 +6981,7 @@
       <c r="B327" s="2">
         <v>10326</v>
       </c>
-      <c r="C327" s="2">
+      <c r="C327" s="4">
         <v>44828</v>
       </c>
       <c r="D327" s="2" t="s">
@@ -6996,7 +7001,7 @@
       <c r="B328" s="2">
         <v>10327</v>
       </c>
-      <c r="C328" s="2">
+      <c r="C328" s="4">
         <v>44828</v>
       </c>
       <c r="D328" s="2" t="s">
@@ -7016,7 +7021,7 @@
       <c r="B329" s="2">
         <v>10328</v>
       </c>
-      <c r="C329" s="2">
+      <c r="C329" s="4">
         <v>44828</v>
       </c>
       <c r="D329" s="2" t="s">
@@ -7036,7 +7041,7 @@
       <c r="B330" s="2">
         <v>10329</v>
       </c>
-      <c r="C330" s="2">
+      <c r="C330" s="4">
         <v>44828</v>
       </c>
       <c r="D330" s="2" t="s">
@@ -7056,7 +7061,7 @@
       <c r="B331" s="2">
         <v>10330</v>
       </c>
-      <c r="C331" s="2">
+      <c r="C331" s="4">
         <v>44828</v>
       </c>
       <c r="D331" s="2" t="s">
@@ -7076,7 +7081,7 @@
       <c r="B332" s="2">
         <v>10331</v>
       </c>
-      <c r="C332" s="2">
+      <c r="C332" s="4">
         <v>44828</v>
       </c>
       <c r="D332" s="2" t="s">
@@ -7096,7 +7101,7 @@
       <c r="B333" s="2">
         <v>10332</v>
       </c>
-      <c r="C333" s="2">
+      <c r="C333" s="4">
         <v>44828</v>
       </c>
       <c r="D333" s="2" t="s">
@@ -7116,7 +7121,7 @@
       <c r="B334" s="2">
         <v>10333</v>
       </c>
-      <c r="C334" s="2">
+      <c r="C334" s="4">
         <v>44828</v>
       </c>
       <c r="D334" s="2" t="s">
@@ -7136,7 +7141,7 @@
       <c r="B335" s="2">
         <v>10334</v>
       </c>
-      <c r="C335" s="2">
+      <c r="C335" s="4">
         <v>44828</v>
       </c>
       <c r="D335" s="2" t="s">
@@ -7156,7 +7161,7 @@
       <c r="B336" s="2">
         <v>10335</v>
       </c>
-      <c r="C336" s="2">
+      <c r="C336" s="4">
         <v>44828</v>
       </c>
       <c r="D336" s="2" t="s">
@@ -7176,7 +7181,7 @@
       <c r="B337" s="2">
         <v>10336</v>
       </c>
-      <c r="C337" s="2">
+      <c r="C337" s="4">
         <v>44828</v>
       </c>
       <c r="D337" s="2" t="s">
@@ -7196,7 +7201,7 @@
       <c r="B338" s="2">
         <v>10337</v>
       </c>
-      <c r="C338" s="2">
+      <c r="C338" s="4">
         <v>44828</v>
       </c>
       <c r="D338" s="2" t="s">
@@ -7216,7 +7221,7 @@
       <c r="B339" s="2">
         <v>10338</v>
       </c>
-      <c r="C339" s="2">
+      <c r="C339" s="4">
         <v>44828</v>
       </c>
       <c r="D339" s="2" t="s">
@@ -7236,7 +7241,7 @@
       <c r="B340" s="2">
         <v>10339</v>
       </c>
-      <c r="C340" s="2">
+      <c r="C340" s="4">
         <v>44828</v>
       </c>
       <c r="D340" s="2" t="s">
@@ -7256,7 +7261,7 @@
       <c r="B341" s="2">
         <v>10340</v>
       </c>
-      <c r="C341" s="2">
+      <c r="C341" s="4">
         <v>44828</v>
       </c>
       <c r="D341" s="2" t="s">
@@ -7276,7 +7281,7 @@
       <c r="B342" s="2">
         <v>10341</v>
       </c>
-      <c r="C342" s="2">
+      <c r="C342" s="4">
         <v>44828</v>
       </c>
       <c r="D342" s="2" t="s">
@@ -7296,7 +7301,7 @@
       <c r="B343" s="2">
         <v>10342</v>
       </c>
-      <c r="C343" s="2">
+      <c r="C343" s="4">
         <v>44828</v>
       </c>
       <c r="D343" s="2" t="s">
@@ -7316,7 +7321,7 @@
       <c r="B344" s="2">
         <v>10343</v>
       </c>
-      <c r="C344" s="2">
+      <c r="C344" s="4">
         <v>44828</v>
       </c>
       <c r="D344" s="2" t="s">
@@ -7336,7 +7341,7 @@
       <c r="B345" s="2">
         <v>10344</v>
       </c>
-      <c r="C345" s="2">
+      <c r="C345" s="4">
         <v>44828</v>
       </c>
       <c r="D345" s="2" t="s">
@@ -7356,7 +7361,7 @@
       <c r="B346" s="2">
         <v>10345</v>
       </c>
-      <c r="C346" s="2">
+      <c r="C346" s="4">
         <v>44828</v>
       </c>
       <c r="D346" s="2" t="s">
@@ -7376,7 +7381,7 @@
       <c r="B347" s="2">
         <v>10346</v>
       </c>
-      <c r="C347" s="2">
+      <c r="C347" s="4">
         <v>44828</v>
       </c>
       <c r="D347" s="2" t="s">
@@ -7396,7 +7401,7 @@
       <c r="B348" s="2">
         <v>10347</v>
       </c>
-      <c r="C348" s="2">
+      <c r="C348" s="4">
         <v>44828</v>
       </c>
       <c r="D348" s="2" t="s">
@@ -7416,7 +7421,7 @@
       <c r="B349" s="2">
         <v>10348</v>
       </c>
-      <c r="C349" s="2">
+      <c r="C349" s="4">
         <v>44828</v>
       </c>
       <c r="D349" s="2" t="s">
@@ -7436,7 +7441,7 @@
       <c r="B350" s="2">
         <v>10349</v>
       </c>
-      <c r="C350" s="2">
+      <c r="C350" s="4">
         <v>44828</v>
       </c>
       <c r="D350" s="2" t="s">
@@ -7456,7 +7461,7 @@
       <c r="B351" s="2">
         <v>10350</v>
       </c>
-      <c r="C351" s="2">
+      <c r="C351" s="4">
         <v>44828</v>
       </c>
       <c r="D351" s="2" t="s">
@@ -7476,7 +7481,7 @@
       <c r="B352" s="2">
         <v>10351</v>
       </c>
-      <c r="C352" s="2">
+      <c r="C352" s="4">
         <v>44828</v>
       </c>
       <c r="D352" s="2" t="s">
@@ -7496,7 +7501,7 @@
       <c r="B353" s="2">
         <v>10352</v>
       </c>
-      <c r="C353" s="2">
+      <c r="C353" s="4">
         <v>44828</v>
       </c>
       <c r="D353" s="2" t="s">
@@ -7516,7 +7521,7 @@
       <c r="B354" s="2">
         <v>10353</v>
       </c>
-      <c r="C354" s="2">
+      <c r="C354" s="4">
         <v>44828</v>
       </c>
       <c r="D354" s="2" t="s">
@@ -7536,7 +7541,7 @@
       <c r="B355" s="2">
         <v>10354</v>
       </c>
-      <c r="C355" s="2">
+      <c r="C355" s="4">
         <v>44828</v>
       </c>
       <c r="D355" s="2" t="s">
@@ -7556,7 +7561,7 @@
       <c r="B356" s="2">
         <v>10355</v>
       </c>
-      <c r="C356" s="2">
+      <c r="C356" s="4">
         <v>44828</v>
       </c>
       <c r="D356" s="2" t="s">
@@ -7576,7 +7581,7 @@
       <c r="B357" s="2">
         <v>10356</v>
       </c>
-      <c r="C357" s="2">
+      <c r="C357" s="4">
         <v>44828</v>
       </c>
       <c r="D357" s="2" t="s">
@@ -7596,7 +7601,7 @@
       <c r="B358" s="2">
         <v>10357</v>
       </c>
-      <c r="C358" s="2">
+      <c r="C358" s="4">
         <v>44828</v>
       </c>
       <c r="D358" s="2" t="s">
@@ -7616,7 +7621,7 @@
       <c r="B359" s="2">
         <v>10358</v>
       </c>
-      <c r="C359" s="2">
+      <c r="C359" s="4">
         <v>44828</v>
       </c>
       <c r="D359" s="2" t="s">
@@ -7636,7 +7641,7 @@
       <c r="B360" s="2">
         <v>10359</v>
       </c>
-      <c r="C360" s="2">
+      <c r="C360" s="4">
         <v>44828</v>
       </c>
       <c r="D360" s="2" t="s">
@@ -7656,7 +7661,7 @@
       <c r="B361" s="2">
         <v>10360</v>
       </c>
-      <c r="C361" s="2">
+      <c r="C361" s="4">
         <v>44828</v>
       </c>
       <c r="D361" s="2" t="s">
@@ -7676,7 +7681,7 @@
       <c r="B362" s="2">
         <v>10361</v>
       </c>
-      <c r="C362" s="2">
+      <c r="C362" s="4">
         <v>44828</v>
       </c>
       <c r="D362" s="2" t="s">
@@ -7696,7 +7701,7 @@
       <c r="B363" s="2">
         <v>10362</v>
       </c>
-      <c r="C363" s="2">
+      <c r="C363" s="4">
         <v>44828</v>
       </c>
       <c r="D363" s="2" t="s">
@@ -7716,7 +7721,7 @@
       <c r="B364" s="2">
         <v>10363</v>
       </c>
-      <c r="C364" s="2">
+      <c r="C364" s="4">
         <v>44828</v>
       </c>
       <c r="D364" s="2" t="s">
@@ -7736,7 +7741,7 @@
       <c r="B365" s="2">
         <v>10364</v>
       </c>
-      <c r="C365" s="2">
+      <c r="C365" s="4">
         <v>44828</v>
       </c>
       <c r="D365" s="2" t="s">
@@ -7756,7 +7761,7 @@
       <c r="B366" s="2">
         <v>10365</v>
       </c>
-      <c r="C366" s="2">
+      <c r="C366" s="4">
         <v>44828</v>
       </c>
       <c r="D366" s="2" t="s">
@@ -7776,7 +7781,7 @@
       <c r="B367" s="2">
         <v>10366</v>
       </c>
-      <c r="C367" s="2">
+      <c r="C367" s="4">
         <v>44828</v>
       </c>
       <c r="D367" s="2" t="s">
@@ -7796,7 +7801,7 @@
       <c r="B368" s="2">
         <v>10367</v>
       </c>
-      <c r="C368" s="2">
+      <c r="C368" s="4">
         <v>44828</v>
       </c>
       <c r="D368" s="2" t="s">
@@ -7816,7 +7821,7 @@
       <c r="B369" s="2">
         <v>10368</v>
       </c>
-      <c r="C369" s="2">
+      <c r="C369" s="4">
         <v>44828</v>
       </c>
       <c r="D369" s="2" t="s">
@@ -7836,7 +7841,7 @@
       <c r="B370" s="2">
         <v>10369</v>
       </c>
-      <c r="C370" s="2">
+      <c r="C370" s="4">
         <v>44828</v>
       </c>
       <c r="D370" s="2" t="s">
@@ -7856,7 +7861,7 @@
       <c r="B371" s="2">
         <v>10370</v>
       </c>
-      <c r="C371" s="2">
+      <c r="C371" s="4">
         <v>44828</v>
       </c>
       <c r="D371" s="2" t="s">
@@ -7876,7 +7881,7 @@
       <c r="B372" s="2">
         <v>10371</v>
       </c>
-      <c r="C372" s="2">
+      <c r="C372" s="4">
         <v>44828</v>
       </c>
       <c r="D372" s="2" t="s">
@@ -7896,7 +7901,7 @@
       <c r="B373" s="2">
         <v>10372</v>
       </c>
-      <c r="C373" s="2">
+      <c r="C373" s="4">
         <v>44828</v>
       </c>
       <c r="D373" s="2" t="s">
@@ -7916,7 +7921,7 @@
       <c r="B374" s="2">
         <v>10373</v>
       </c>
-      <c r="C374" s="2">
+      <c r="C374" s="4">
         <v>44828</v>
       </c>
       <c r="D374" s="2" t="s">
@@ -7936,7 +7941,7 @@
       <c r="B375" s="2">
         <v>10374</v>
       </c>
-      <c r="C375" s="2">
+      <c r="C375" s="4">
         <v>44828</v>
       </c>
       <c r="D375" s="2" t="s">
@@ -7956,7 +7961,7 @@
       <c r="B376" s="2">
         <v>10375</v>
       </c>
-      <c r="C376" s="2">
+      <c r="C376" s="4">
         <v>44828</v>
       </c>
       <c r="D376" s="2" t="s">
@@ -7976,7 +7981,7 @@
       <c r="B377" s="2">
         <v>10376</v>
       </c>
-      <c r="C377" s="2">
+      <c r="C377" s="4">
         <v>44828</v>
       </c>
       <c r="D377" s="2" t="s">
@@ -7996,7 +8001,7 @@
       <c r="B378" s="2">
         <v>10377</v>
       </c>
-      <c r="C378" s="2">
+      <c r="C378" s="4">
         <v>44828</v>
       </c>
       <c r="D378" s="2" t="s">
@@ -8016,7 +8021,7 @@
       <c r="B379" s="2">
         <v>10378</v>
       </c>
-      <c r="C379" s="2">
+      <c r="C379" s="4">
         <v>44828</v>
       </c>
       <c r="D379" s="2" t="s">
@@ -8036,7 +8041,7 @@
       <c r="B380" s="2">
         <v>10379</v>
       </c>
-      <c r="C380" s="2">
+      <c r="C380" s="4">
         <v>44828</v>
       </c>
       <c r="D380" s="2" t="s">
@@ -8056,7 +8061,7 @@
       <c r="B381" s="2">
         <v>10380</v>
       </c>
-      <c r="C381" s="2">
+      <c r="C381" s="4">
         <v>44828</v>
       </c>
       <c r="D381" s="2" t="s">
@@ -8076,7 +8081,7 @@
       <c r="B382" s="2">
         <v>10381</v>
       </c>
-      <c r="C382" s="2">
+      <c r="C382" s="4">
         <v>44828</v>
       </c>
       <c r="D382" s="2" t="s">
@@ -8096,7 +8101,7 @@
       <c r="B383" s="2">
         <v>10382</v>
       </c>
-      <c r="C383" s="2">
+      <c r="C383" s="4">
         <v>44828</v>
       </c>
       <c r="D383" s="2" t="s">
@@ -8116,7 +8121,7 @@
       <c r="B384" s="2">
         <v>10383</v>
       </c>
-      <c r="C384" s="2">
+      <c r="C384" s="4">
         <v>44828</v>
       </c>
       <c r="D384" s="2" t="s">
@@ -8136,7 +8141,7 @@
       <c r="B385" s="2">
         <v>10384</v>
       </c>
-      <c r="C385" s="2">
+      <c r="C385" s="4">
         <v>44828</v>
       </c>
       <c r="D385" s="2" t="s">
@@ -8156,7 +8161,7 @@
       <c r="B386" s="2">
         <v>10385</v>
       </c>
-      <c r="C386" s="2">
+      <c r="C386" s="4">
         <v>44828</v>
       </c>
       <c r="D386" s="2" t="s">
@@ -8176,7 +8181,7 @@
       <c r="B387" s="2">
         <v>10386</v>
       </c>
-      <c r="C387" s="2">
+      <c r="C387" s="4">
         <v>44828</v>
       </c>
       <c r="D387" s="2" t="s">
@@ -8196,7 +8201,7 @@
       <c r="B388" s="2">
         <v>10387</v>
       </c>
-      <c r="C388" s="2">
+      <c r="C388" s="4">
         <v>44828</v>
       </c>
       <c r="D388" s="2" t="s">
@@ -8216,7 +8221,7 @@
       <c r="B389" s="2">
         <v>10388</v>
       </c>
-      <c r="C389" s="2">
+      <c r="C389" s="4">
         <v>44828</v>
       </c>
       <c r="D389" s="2" t="s">
@@ -8236,7 +8241,7 @@
       <c r="B390" s="2">
         <v>10389</v>
       </c>
-      <c r="C390" s="2">
+      <c r="C390" s="4">
         <v>44828</v>
       </c>
       <c r="D390" s="2" t="s">
@@ -8256,7 +8261,7 @@
       <c r="B391" s="2">
         <v>10390</v>
       </c>
-      <c r="C391" s="2">
+      <c r="C391" s="4">
         <v>44828</v>
       </c>
       <c r="D391" s="2" t="s">
@@ -8276,7 +8281,7 @@
       <c r="B392" s="2">
         <v>10391</v>
       </c>
-      <c r="C392" s="2">
+      <c r="C392" s="4">
         <v>44828</v>
       </c>
       <c r="D392" s="2" t="s">
@@ -8296,7 +8301,7 @@
       <c r="B393" s="2">
         <v>10392</v>
       </c>
-      <c r="C393" s="2">
+      <c r="C393" s="4">
         <v>44828</v>
       </c>
       <c r="D393" s="2" t="s">
@@ -8316,7 +8321,7 @@
       <c r="B394" s="2">
         <v>10393</v>
       </c>
-      <c r="C394" s="2">
+      <c r="C394" s="4">
         <v>44828</v>
       </c>
       <c r="D394" s="2" t="s">
@@ -8336,7 +8341,7 @@
       <c r="B395" s="2">
         <v>10394</v>
       </c>
-      <c r="C395" s="2">
+      <c r="C395" s="4">
         <v>44828</v>
       </c>
       <c r="D395" s="2" t="s">
@@ -8356,7 +8361,7 @@
       <c r="B396" s="2">
         <v>10395</v>
       </c>
-      <c r="C396" s="2">
+      <c r="C396" s="4">
         <v>44828</v>
       </c>
       <c r="D396" s="2" t="s">
@@ -8376,7 +8381,7 @@
       <c r="B397" s="2">
         <v>10396</v>
       </c>
-      <c r="C397" s="2">
+      <c r="C397" s="4">
         <v>44828</v>
       </c>
       <c r="D397" s="2" t="s">
@@ -8396,7 +8401,7 @@
       <c r="B398" s="2">
         <v>10397</v>
       </c>
-      <c r="C398" s="2">
+      <c r="C398" s="4">
         <v>44828</v>
       </c>
       <c r="D398" s="2" t="s">
@@ -8416,7 +8421,7 @@
       <c r="B399" s="2">
         <v>10398</v>
       </c>
-      <c r="C399" s="2">
+      <c r="C399" s="4">
         <v>44828</v>
       </c>
       <c r="D399" s="2" t="s">
@@ -8436,7 +8441,7 @@
       <c r="B400" s="2">
         <v>10399</v>
       </c>
-      <c r="C400" s="2">
+      <c r="C400" s="4">
         <v>44828</v>
       </c>
       <c r="D400" s="2" t="s">
@@ -8456,7 +8461,7 @@
       <c r="B401" s="2">
         <v>10400</v>
       </c>
-      <c r="C401" s="2">
+      <c r="C401" s="4">
         <v>44828</v>
       </c>
       <c r="D401" s="2" t="s">
@@ -8476,7 +8481,7 @@
       <c r="B402" s="2">
         <v>10401</v>
       </c>
-      <c r="C402" s="2">
+      <c r="C402" s="4">
         <v>44828</v>
       </c>
       <c r="D402" s="2" t="s">
@@ -8496,7 +8501,7 @@
       <c r="B403" s="2">
         <v>10402</v>
       </c>
-      <c r="C403" s="2">
+      <c r="C403" s="4">
         <v>44828</v>
       </c>
       <c r="D403" s="2" t="s">
@@ -8516,7 +8521,7 @@
       <c r="B404" s="2">
         <v>10403</v>
       </c>
-      <c r="C404" s="2">
+      <c r="C404" s="4">
         <v>44828</v>
       </c>
       <c r="D404" s="2" t="s">
@@ -8536,7 +8541,7 @@
       <c r="B405" s="2">
         <v>10404</v>
       </c>
-      <c r="C405" s="2">
+      <c r="C405" s="4">
         <v>44828</v>
       </c>
       <c r="D405" s="2" t="s">
@@ -8556,7 +8561,7 @@
       <c r="B406" s="2">
         <v>10405</v>
       </c>
-      <c r="C406" s="2">
+      <c r="C406" s="4">
         <v>44828</v>
       </c>
       <c r="D406" s="2" t="s">
@@ -8576,7 +8581,7 @@
       <c r="B407" s="2">
         <v>10406</v>
       </c>
-      <c r="C407" s="2">
+      <c r="C407" s="4">
         <v>44828</v>
       </c>
       <c r="D407" s="2" t="s">
@@ -8596,7 +8601,7 @@
       <c r="B408" s="2">
         <v>10407</v>
       </c>
-      <c r="C408" s="2">
+      <c r="C408" s="4">
         <v>44828</v>
       </c>
       <c r="D408" s="2" t="s">
@@ -8616,7 +8621,7 @@
       <c r="B409" s="2">
         <v>10408</v>
       </c>
-      <c r="C409" s="2">
+      <c r="C409" s="4">
         <v>44828</v>
       </c>
       <c r="D409" s="2" t="s">
@@ -8636,7 +8641,7 @@
       <c r="B410" s="2">
         <v>10409</v>
       </c>
-      <c r="C410" s="2">
+      <c r="C410" s="4">
         <v>44828</v>
       </c>
       <c r="D410" s="2" t="s">
@@ -8656,7 +8661,7 @@
       <c r="B411" s="2">
         <v>10410</v>
       </c>
-      <c r="C411" s="2">
+      <c r="C411" s="4">
         <v>44828</v>
       </c>
       <c r="D411" s="2" t="s">
@@ -8676,7 +8681,7 @@
       <c r="B412" s="2">
         <v>10411</v>
       </c>
-      <c r="C412" s="2">
+      <c r="C412" s="4">
         <v>44828</v>
       </c>
       <c r="D412" s="2" t="s">
@@ -8696,7 +8701,7 @@
       <c r="B413" s="2">
         <v>10412</v>
       </c>
-      <c r="C413" s="2">
+      <c r="C413" s="4">
         <v>44828</v>
       </c>
       <c r="D413" s="2" t="s">
@@ -8716,7 +8721,7 @@
       <c r="B414" s="2">
         <v>10413</v>
       </c>
-      <c r="C414" s="2">
+      <c r="C414" s="4">
         <v>44828</v>
       </c>
       <c r="D414" s="2" t="s">
@@ -8736,7 +8741,7 @@
       <c r="B415" s="2">
         <v>10414</v>
       </c>
-      <c r="C415" s="2">
+      <c r="C415" s="4">
         <v>44828</v>
       </c>
       <c r="D415" s="2" t="s">
@@ -8756,7 +8761,7 @@
       <c r="B416" s="2">
         <v>10415</v>
       </c>
-      <c r="C416" s="2">
+      <c r="C416" s="4">
         <v>44828</v>
       </c>
       <c r="D416" s="2" t="s">
@@ -8776,7 +8781,7 @@
       <c r="B417" s="2">
         <v>10416</v>
       </c>
-      <c r="C417" s="2">
+      <c r="C417" s="4">
         <v>44828</v>
       </c>
       <c r="D417" s="2" t="s">
@@ -8796,7 +8801,7 @@
       <c r="B418" s="2">
         <v>10417</v>
       </c>
-      <c r="C418" s="2">
+      <c r="C418" s="4">
         <v>44828</v>
       </c>
       <c r="D418" s="2" t="s">
@@ -8816,7 +8821,7 @@
       <c r="B419" s="2">
         <v>10418</v>
       </c>
-      <c r="C419" s="2">
+      <c r="C419" s="4">
         <v>44828</v>
       </c>
       <c r="D419" s="2" t="s">
@@ -8836,7 +8841,7 @@
       <c r="B420" s="2">
         <v>10419</v>
       </c>
-      <c r="C420" s="2">
+      <c r="C420" s="4">
         <v>44828</v>
       </c>
       <c r="D420" s="2" t="s">
@@ -8856,7 +8861,7 @@
       <c r="B421" s="2">
         <v>10420</v>
       </c>
-      <c r="C421" s="2">
+      <c r="C421" s="4">
         <v>44828</v>
       </c>
       <c r="D421" s="2" t="s">
@@ -8876,7 +8881,7 @@
       <c r="B422" s="2">
         <v>10421</v>
       </c>
-      <c r="C422" s="2">
+      <c r="C422" s="4">
         <v>44828</v>
       </c>
       <c r="D422" s="2" t="s">
@@ -8896,7 +8901,7 @@
       <c r="B423" s="2">
         <v>10422</v>
       </c>
-      <c r="C423" s="2">
+      <c r="C423" s="4">
         <v>44828</v>
       </c>
       <c r="D423" s="2" t="s">
@@ -8916,7 +8921,7 @@
       <c r="B424" s="2">
         <v>10423</v>
       </c>
-      <c r="C424" s="2">
+      <c r="C424" s="4">
         <v>44828</v>
       </c>
       <c r="D424" s="2" t="s">
@@ -8936,7 +8941,7 @@
       <c r="B425" s="2">
         <v>10424</v>
       </c>
-      <c r="C425" s="2">
+      <c r="C425" s="4">
         <v>44828</v>
       </c>
       <c r="D425" s="2" t="s">
@@ -8956,7 +8961,7 @@
       <c r="B426" s="2">
         <v>10425</v>
       </c>
-      <c r="C426" s="2">
+      <c r="C426" s="4">
         <v>44828</v>
       </c>
       <c r="D426" s="2" t="s">
@@ -8976,7 +8981,7 @@
       <c r="B427" s="2">
         <v>10426</v>
       </c>
-      <c r="C427" s="2">
+      <c r="C427" s="4">
         <v>44828</v>
       </c>
       <c r="D427" s="2" t="s">
@@ -8996,7 +9001,7 @@
       <c r="B428" s="2">
         <v>10427</v>
       </c>
-      <c r="C428" s="2">
+      <c r="C428" s="4">
         <v>44828</v>
       </c>
       <c r="D428" s="2" t="s">
@@ -9016,7 +9021,7 @@
       <c r="B429" s="2">
         <v>10428</v>
       </c>
-      <c r="C429" s="2">
+      <c r="C429" s="4">
         <v>44828</v>
       </c>
       <c r="D429" s="2" t="s">
@@ -9036,7 +9041,7 @@
       <c r="B430" s="2">
         <v>10429</v>
       </c>
-      <c r="C430" s="2">
+      <c r="C430" s="4">
         <v>44828</v>
       </c>
       <c r="D430" s="2" t="s">
@@ -9056,7 +9061,7 @@
       <c r="B431" s="2">
         <v>10430</v>
       </c>
-      <c r="C431" s="2">
+      <c r="C431" s="4">
         <v>44828</v>
       </c>
       <c r="D431" s="2" t="s">
@@ -9076,7 +9081,7 @@
       <c r="B432" s="2">
         <v>10431</v>
       </c>
-      <c r="C432" s="2">
+      <c r="C432" s="4">
         <v>44828</v>
       </c>
       <c r="D432" s="2" t="s">
@@ -9096,7 +9101,7 @@
       <c r="B433" s="2">
         <v>10432</v>
       </c>
-      <c r="C433" s="2">
+      <c r="C433" s="4">
         <v>44828</v>
       </c>
       <c r="D433" s="2" t="s">
@@ -9116,7 +9121,7 @@
       <c r="B434" s="2">
         <v>10433</v>
       </c>
-      <c r="C434" s="2">
+      <c r="C434" s="4">
         <v>44828</v>
       </c>
       <c r="D434" s="2" t="s">
@@ -9136,7 +9141,7 @@
       <c r="B435" s="2">
         <v>10434</v>
       </c>
-      <c r="C435" s="2">
+      <c r="C435" s="4">
         <v>44828</v>
       </c>
       <c r="D435" s="2" t="s">
@@ -9156,7 +9161,7 @@
       <c r="B436" s="2">
         <v>10435</v>
       </c>
-      <c r="C436" s="2">
+      <c r="C436" s="4">
         <v>44828</v>
       </c>
       <c r="D436" s="2" t="s">
@@ -9176,7 +9181,7 @@
       <c r="B437" s="2">
         <v>10436</v>
       </c>
-      <c r="C437" s="2">
+      <c r="C437" s="4">
         <v>44828</v>
       </c>
       <c r="D437" s="2" t="s">
@@ -9196,7 +9201,7 @@
       <c r="B438" s="2">
         <v>10437</v>
       </c>
-      <c r="C438" s="2">
+      <c r="C438" s="4">
         <v>44828</v>
       </c>
       <c r="D438" s="2" t="s">
@@ -9216,7 +9221,7 @@
       <c r="B439" s="2">
         <v>10438</v>
       </c>
-      <c r="C439" s="2">
+      <c r="C439" s="4">
         <v>44828</v>
       </c>
       <c r="D439" s="2" t="s">
@@ -9236,7 +9241,7 @@
       <c r="B440" s="2">
         <v>10439</v>
       </c>
-      <c r="C440" s="2">
+      <c r="C440" s="4">
         <v>44828</v>
       </c>
       <c r="D440" s="2" t="s">
@@ -9256,7 +9261,7 @@
       <c r="B441" s="2">
         <v>10440</v>
       </c>
-      <c r="C441" s="2">
+      <c r="C441" s="4">
         <v>44828</v>
       </c>
       <c r="D441" s="2" t="s">
@@ -9276,7 +9281,7 @@
       <c r="B442" s="2">
         <v>10441</v>
       </c>
-      <c r="C442" s="2">
+      <c r="C442" s="4">
         <v>44828</v>
       </c>
       <c r="D442" s="2" t="s">
@@ -9296,7 +9301,7 @@
       <c r="B443" s="2">
         <v>10442</v>
       </c>
-      <c r="C443" s="2">
+      <c r="C443" s="4">
         <v>44828</v>
       </c>
       <c r="D443" s="2" t="s">
@@ -9316,7 +9321,7 @@
       <c r="B444" s="2">
         <v>10443</v>
       </c>
-      <c r="C444" s="2">
+      <c r="C444" s="4">
         <v>44828</v>
       </c>
       <c r="D444" s="2" t="s">
@@ -9336,7 +9341,7 @@
       <c r="B445" s="2">
         <v>10444</v>
       </c>
-      <c r="C445" s="2">
+      <c r="C445" s="4">
         <v>44828</v>
       </c>
       <c r="D445" s="2" t="s">
@@ -9356,7 +9361,7 @@
       <c r="B446" s="2">
         <v>10445</v>
       </c>
-      <c r="C446" s="2">
+      <c r="C446" s="4">
         <v>44828</v>
       </c>
       <c r="D446" s="2" t="s">
@@ -9376,7 +9381,7 @@
       <c r="B447" s="2">
         <v>10446</v>
       </c>
-      <c r="C447" s="2">
+      <c r="C447" s="4">
         <v>44828</v>
       </c>
       <c r="D447" s="2" t="s">
@@ -9396,7 +9401,7 @@
       <c r="B448" s="2">
         <v>10447</v>
       </c>
-      <c r="C448" s="2">
+      <c r="C448" s="4">
         <v>44828</v>
       </c>
       <c r="D448" s="2" t="s">
@@ -9416,7 +9421,7 @@
       <c r="B449" s="2">
         <v>10448</v>
       </c>
-      <c r="C449" s="2">
+      <c r="C449" s="4">
         <v>44828</v>
       </c>
       <c r="D449" s="2" t="s">
@@ -9436,7 +9441,7 @@
       <c r="B450" s="2">
         <v>10449</v>
       </c>
-      <c r="C450" s="2">
+      <c r="C450" s="4">
         <v>44828</v>
       </c>
       <c r="D450" s="2" t="s">
@@ -9456,7 +9461,7 @@
       <c r="B451" s="2">
         <v>10450</v>
       </c>
-      <c r="C451" s="2">
+      <c r="C451" s="4">
         <v>44828</v>
       </c>
       <c r="D451" s="2" t="s">
@@ -9476,7 +9481,7 @@
       <c r="B452" s="2">
         <v>10451</v>
       </c>
-      <c r="C452" s="2">
+      <c r="C452" s="4">
         <v>44828</v>
       </c>
       <c r="D452" s="2" t="s">
@@ -9496,7 +9501,7 @@
       <c r="B453" s="2">
         <v>10452</v>
       </c>
-      <c r="C453" s="2">
+      <c r="C453" s="4">
         <v>44828</v>
       </c>
       <c r="D453" s="2" t="s">
@@ -9516,7 +9521,7 @@
       <c r="B454" s="2">
         <v>10453</v>
       </c>
-      <c r="C454" s="2">
+      <c r="C454" s="4">
         <v>44828</v>
       </c>
       <c r="D454" s="2" t="s">
@@ -9536,7 +9541,7 @@
       <c r="B455" s="2">
         <v>10454</v>
       </c>
-      <c r="C455" s="2">
+      <c r="C455" s="4">
         <v>44828</v>
       </c>
       <c r="D455" s="2" t="s">
@@ -9556,7 +9561,7 @@
       <c r="B456" s="2">
         <v>10455</v>
       </c>
-      <c r="C456" s="2">
+      <c r="C456" s="4">
         <v>44828</v>
       </c>
       <c r="D456" s="2" t="s">
@@ -9576,7 +9581,7 @@
       <c r="B457" s="2">
         <v>10456</v>
       </c>
-      <c r="C457" s="2">
+      <c r="C457" s="4">
         <v>44828</v>
       </c>
       <c r="D457" s="2" t="s">
@@ -9596,7 +9601,7 @@
       <c r="B458" s="2">
         <v>10457</v>
       </c>
-      <c r="C458" s="2">
+      <c r="C458" s="4">
         <v>44828</v>
       </c>
       <c r="D458" s="2" t="s">
@@ -9616,7 +9621,7 @@
       <c r="B459" s="2">
         <v>10458</v>
       </c>
-      <c r="C459" s="2">
+      <c r="C459" s="4">
         <v>44828</v>
       </c>
       <c r="D459" s="2" t="s">
@@ -9636,7 +9641,7 @@
       <c r="B460" s="2">
         <v>10459</v>
       </c>
-      <c r="C460" s="2">
+      <c r="C460" s="4">
         <v>44828</v>
       </c>
       <c r="D460" s="2" t="s">
@@ -9656,7 +9661,7 @@
       <c r="B461" s="2">
         <v>10460</v>
       </c>
-      <c r="C461" s="2">
+      <c r="C461" s="4">
         <v>44828</v>
       </c>
       <c r="D461" s="2" t="s">
@@ -9676,7 +9681,7 @@
       <c r="B462" s="2">
         <v>10461</v>
       </c>
-      <c r="C462" s="2">
+      <c r="C462" s="4">
         <v>44828</v>
       </c>
       <c r="D462" s="2" t="s">
@@ -9696,7 +9701,7 @@
       <c r="B463" s="2">
         <v>10462</v>
       </c>
-      <c r="C463" s="2">
+      <c r="C463" s="4">
         <v>44828</v>
       </c>
       <c r="D463" s="2" t="s">
@@ -9716,7 +9721,7 @@
       <c r="B464" s="2">
         <v>10463</v>
       </c>
-      <c r="C464" s="2">
+      <c r="C464" s="4">
         <v>44828</v>
       </c>
       <c r="D464" s="2" t="s">
@@ -9736,7 +9741,7 @@
       <c r="B465" s="2">
         <v>10464</v>
       </c>
-      <c r="C465" s="2">
+      <c r="C465" s="4">
         <v>44828</v>
       </c>
       <c r="D465" s="2" t="s">
@@ -9756,7 +9761,7 @@
       <c r="B466" s="2">
         <v>10465</v>
       </c>
-      <c r="C466" s="2">
+      <c r="C466" s="4">
         <v>44828</v>
       </c>
       <c r="D466" s="2" t="s">
@@ -9776,7 +9781,7 @@
       <c r="B467" s="2">
         <v>10466</v>
       </c>
-      <c r="C467" s="2">
+      <c r="C467" s="4">
         <v>44828</v>
       </c>
       <c r="D467" s="2" t="s">
@@ -9796,7 +9801,7 @@
       <c r="B468" s="2">
         <v>10467</v>
       </c>
-      <c r="C468" s="2">
+      <c r="C468" s="4">
         <v>44828</v>
       </c>
       <c r="D468" s="2" t="s">
@@ -9816,7 +9821,7 @@
       <c r="B469" s="2">
         <v>10468</v>
       </c>
-      <c r="C469" s="2">
+      <c r="C469" s="4">
         <v>44828</v>
       </c>
       <c r="D469" s="2" t="s">
@@ -9836,7 +9841,7 @@
       <c r="B470" s="2">
         <v>10469</v>
       </c>
-      <c r="C470" s="2">
+      <c r="C470" s="4">
         <v>44828</v>
       </c>
       <c r="D470" s="2" t="s">
@@ -9856,7 +9861,7 @@
       <c r="B471" s="2">
         <v>10470</v>
       </c>
-      <c r="C471" s="2">
+      <c r="C471" s="4">
         <v>44828</v>
       </c>
       <c r="D471" s="2" t="s">
@@ -9876,7 +9881,7 @@
       <c r="B472" s="2">
         <v>10471</v>
       </c>
-      <c r="C472" s="2">
+      <c r="C472" s="4">
         <v>44828</v>
       </c>
       <c r="D472" s="2" t="s">
@@ -9896,7 +9901,7 @@
       <c r="B473" s="2">
         <v>10472</v>
       </c>
-      <c r="C473" s="2">
+      <c r="C473" s="4">
         <v>44828</v>
       </c>
       <c r="D473" s="2" t="s">
@@ -9916,7 +9921,7 @@
       <c r="B474" s="2">
         <v>10473</v>
       </c>
-      <c r="C474" s="2">
+      <c r="C474" s="4">
         <v>44828</v>
       </c>
       <c r="D474" s="2" t="s">
@@ -9936,7 +9941,7 @@
       <c r="B475" s="2">
         <v>10474</v>
       </c>
-      <c r="C475" s="2">
+      <c r="C475" s="4">
         <v>44828</v>
       </c>
       <c r="D475" s="2" t="s">
@@ -9956,7 +9961,7 @@
       <c r="B476" s="2">
         <v>10475</v>
       </c>
-      <c r="C476" s="2">
+      <c r="C476" s="4">
         <v>44828</v>
       </c>
       <c r="D476" s="2" t="s">
@@ -9976,7 +9981,7 @@
       <c r="B477" s="2">
         <v>10476</v>
       </c>
-      <c r="C477" s="2">
+      <c r="C477" s="4">
         <v>44828</v>
       </c>
       <c r="D477" s="2" t="s">
@@ -9996,7 +10001,7 @@
       <c r="B478" s="2">
         <v>10477</v>
       </c>
-      <c r="C478" s="2">
+      <c r="C478" s="4">
         <v>44828</v>
       </c>
       <c r="D478" s="2" t="s">
@@ -10016,7 +10021,7 @@
       <c r="B479" s="2">
         <v>10478</v>
       </c>
-      <c r="C479" s="2">
+      <c r="C479" s="4">
         <v>44828</v>
       </c>
       <c r="D479" s="2" t="s">
@@ -10036,7 +10041,7 @@
       <c r="B480" s="2">
         <v>10479</v>
       </c>
-      <c r="C480" s="2">
+      <c r="C480" s="4">
         <v>44828</v>
       </c>
       <c r="D480" s="2" t="s">
@@ -10056,7 +10061,7 @@
       <c r="B481" s="2">
         <v>10480</v>
       </c>
-      <c r="C481" s="2">
+      <c r="C481" s="4">
         <v>44828</v>
       </c>
       <c r="D481" s="2" t="s">
@@ -10076,7 +10081,7 @@
       <c r="B482" s="2">
         <v>10481</v>
       </c>
-      <c r="C482" s="2">
+      <c r="C482" s="4">
         <v>44828</v>
       </c>
       <c r="D482" s="2" t="s">
@@ -10096,7 +10101,7 @@
       <c r="B483" s="2">
         <v>10482</v>
       </c>
-      <c r="C483" s="2">
+      <c r="C483" s="4">
         <v>44828</v>
       </c>
       <c r="D483" s="2" t="s">
@@ -10116,7 +10121,7 @@
       <c r="B484" s="2">
         <v>10483</v>
       </c>
-      <c r="C484" s="2">
+      <c r="C484" s="4">
         <v>44828</v>
       </c>
       <c r="D484" s="2" t="s">
@@ -10136,7 +10141,7 @@
       <c r="B485" s="2">
         <v>10484</v>
       </c>
-      <c r="C485" s="2">
+      <c r="C485" s="4">
         <v>44828</v>
       </c>
       <c r="D485" s="2" t="s">
@@ -10156,7 +10161,7 @@
       <c r="B486" s="2">
         <v>10485</v>
       </c>
-      <c r="C486" s="2">
+      <c r="C486" s="4">
         <v>44828</v>
       </c>
       <c r="D486" s="2" t="s">
@@ -10176,7 +10181,7 @@
       <c r="B487" s="2">
         <v>10486</v>
       </c>
-      <c r="C487" s="2">
+      <c r="C487" s="4">
         <v>44828</v>
       </c>
       <c r="D487" s="2" t="s">
@@ -10196,7 +10201,7 @@
       <c r="B488" s="2">
         <v>10487</v>
       </c>
-      <c r="C488" s="2">
+      <c r="C488" s="4">
         <v>44828</v>
       </c>
       <c r="D488" s="2" t="s">
@@ -10216,7 +10221,7 @@
       <c r="B489" s="2">
         <v>10488</v>
       </c>
-      <c r="C489" s="2">
+      <c r="C489" s="4">
         <v>44828</v>
       </c>
       <c r="D489" s="2" t="s">
@@ -10236,7 +10241,7 @@
       <c r="B490" s="2">
         <v>10489</v>
       </c>
-      <c r="C490" s="2">
+      <c r="C490" s="4">
         <v>44828</v>
       </c>
       <c r="D490" s="2" t="s">
@@ -10256,7 +10261,7 @@
       <c r="B491" s="2">
         <v>10490</v>
       </c>
-      <c r="C491" s="2">
+      <c r="C491" s="4">
         <v>44828</v>
       </c>
       <c r="D491" s="2" t="s">
@@ -10276,7 +10281,7 @@
       <c r="B492" s="2">
         <v>10491</v>
       </c>
-      <c r="C492" s="2">
+      <c r="C492" s="4">
         <v>44828</v>
       </c>
       <c r="D492" s="2" t="s">
@@ -10296,7 +10301,7 @@
       <c r="B493" s="2">
         <v>10492</v>
       </c>
-      <c r="C493" s="2">
+      <c r="C493" s="4">
         <v>44828</v>
       </c>
       <c r="D493" s="2" t="s">
@@ -10316,7 +10321,7 @@
       <c r="B494" s="2">
         <v>10493</v>
       </c>
-      <c r="C494" s="2">
+      <c r="C494" s="4">
         <v>44828</v>
       </c>
       <c r="D494" s="2" t="s">
@@ -10336,7 +10341,7 @@
       <c r="B495" s="2">
         <v>10494</v>
       </c>
-      <c r="C495" s="2">
+      <c r="C495" s="4">
         <v>44828</v>
       </c>
       <c r="D495" s="2" t="s">
@@ -10356,7 +10361,7 @@
       <c r="B496" s="2">
         <v>10495</v>
       </c>
-      <c r="C496" s="2">
+      <c r="C496" s="4">
         <v>44828</v>
       </c>
       <c r="D496" s="2" t="s">
@@ -10376,7 +10381,7 @@
       <c r="B497" s="2">
         <v>10496</v>
       </c>
-      <c r="C497" s="2">
+      <c r="C497" s="4">
         <v>44828</v>
       </c>
       <c r="D497" s="2" t="s">
@@ -10396,7 +10401,7 @@
       <c r="B498" s="2">
         <v>10497</v>
       </c>
-      <c r="C498" s="2">
+      <c r="C498" s="4">
         <v>44828</v>
       </c>
       <c r="D498" s="2" t="s">
@@ -10416,7 +10421,7 @@
       <c r="B499" s="2">
         <v>10498</v>
       </c>
-      <c r="C499" s="2">
+      <c r="C499" s="4">
         <v>44828</v>
       </c>
       <c r="D499" s="2" t="s">
@@ -10436,7 +10441,7 @@
       <c r="B500" s="2">
         <v>10499</v>
       </c>
-      <c r="C500" s="2">
+      <c r="C500" s="4">
         <v>44828</v>
       </c>
       <c r="D500" s="2" t="s">
@@ -10456,7 +10461,7 @@
       <c r="B501" s="2">
         <v>10500</v>
       </c>
-      <c r="C501" s="2">
+      <c r="C501" s="4">
         <v>44828</v>
       </c>
       <c r="D501" s="2" t="s">
@@ -10476,7 +10481,7 @@
       <c r="B502" s="2">
         <v>10501</v>
       </c>
-      <c r="C502" s="2">
+      <c r="C502" s="4">
         <v>44828</v>
       </c>
       <c r="D502" s="2" t="s">
@@ -10496,7 +10501,7 @@
       <c r="B503" s="2">
         <v>10502</v>
       </c>
-      <c r="C503" s="2">
+      <c r="C503" s="4">
         <v>44828</v>
       </c>
       <c r="D503" s="2" t="s">
@@ -10516,7 +10521,7 @@
       <c r="B504" s="2">
         <v>10503</v>
       </c>
-      <c r="C504" s="2">
+      <c r="C504" s="4">
         <v>44828</v>
       </c>
       <c r="D504" s="2" t="s">
@@ -10536,7 +10541,7 @@
       <c r="B505" s="2">
         <v>10504</v>
       </c>
-      <c r="C505" s="2">
+      <c r="C505" s="4">
         <v>44828</v>
       </c>
       <c r="D505" s="2" t="s">
@@ -10556,7 +10561,7 @@
       <c r="B506" s="2">
         <v>10505</v>
       </c>
-      <c r="C506" s="2">
+      <c r="C506" s="4">
         <v>44828</v>
       </c>
       <c r="D506" s="2" t="s">
@@ -10576,7 +10581,7 @@
       <c r="B507" s="2">
         <v>10506</v>
       </c>
-      <c r="C507" s="2">
+      <c r="C507" s="4">
         <v>44828</v>
       </c>
       <c r="D507" s="2" t="s">
@@ -10596,7 +10601,7 @@
       <c r="B508" s="2">
         <v>10507</v>
       </c>
-      <c r="C508" s="2">
+      <c r="C508" s="4">
         <v>44828</v>
       </c>
       <c r="D508" s="2" t="s">
@@ -10616,7 +10621,7 @@
       <c r="B509" s="2">
         <v>10508</v>
       </c>
-      <c r="C509" s="2">
+      <c r="C509" s="4">
         <v>44828</v>
       </c>
       <c r="D509" s="2" t="s">
@@ -10636,7 +10641,7 @@
       <c r="B510" s="2">
         <v>10509</v>
       </c>
-      <c r="C510" s="2">
+      <c r="C510" s="4">
         <v>44828</v>
       </c>
       <c r="D510" s="2" t="s">
@@ -10656,7 +10661,7 @@
       <c r="B511" s="2">
         <v>10510</v>
       </c>
-      <c r="C511" s="2">
+      <c r="C511" s="4">
         <v>44828</v>
       </c>
       <c r="D511" s="2" t="s">
@@ -10676,7 +10681,7 @@
       <c r="B512" s="2">
         <v>10511</v>
       </c>
-      <c r="C512" s="2">
+      <c r="C512" s="4">
         <v>44828</v>
       </c>
       <c r="D512" s="2" t="s">
@@ -10696,7 +10701,7 @@
       <c r="B513" s="2">
         <v>10512</v>
       </c>
-      <c r="C513" s="2">
+      <c r="C513" s="4">
         <v>44828</v>
       </c>
       <c r="D513" s="2" t="s">
@@ -10716,7 +10721,7 @@
       <c r="B514" s="2">
         <v>10513</v>
       </c>
-      <c r="C514" s="2">
+      <c r="C514" s="4">
         <v>44828</v>
       </c>
       <c r="D514" s="2" t="s">
@@ -10736,7 +10741,7 @@
       <c r="B515" s="2">
         <v>10514</v>
       </c>
-      <c r="C515" s="2">
+      <c r="C515" s="4">
         <v>44828</v>
       </c>
       <c r="D515" s="2" t="s">
@@ -10756,7 +10761,7 @@
       <c r="B516" s="2">
         <v>10515</v>
       </c>
-      <c r="C516" s="2">
+      <c r="C516" s="4">
         <v>44828</v>
       </c>
       <c r="D516" s="2" t="s">
@@ -10776,7 +10781,7 @@
       <c r="B517" s="2">
         <v>10516</v>
       </c>
-      <c r="C517" s="2">
+      <c r="C517" s="4">
         <v>44828</v>
       </c>
       <c r="D517" s="2" t="s">
@@ -10796,7 +10801,7 @@
       <c r="B518" s="2">
         <v>10517</v>
       </c>
-      <c r="C518" s="2">
+      <c r="C518" s="4">
         <v>44828</v>
       </c>
       <c r="D518" s="2" t="s">
@@ -10816,7 +10821,7 @@
       <c r="B519" s="2">
         <v>10518</v>
       </c>
-      <c r="C519" s="2">
+      <c r="C519" s="4">
         <v>44828</v>
       </c>
       <c r="D519" s="2" t="s">
@@ -10836,7 +10841,7 @@
       <c r="B520" s="2">
         <v>10519</v>
       </c>
-      <c r="C520" s="2">
+      <c r="C520" s="4">
         <v>44828</v>
       </c>
       <c r="D520" s="2" t="s">
@@ -10856,7 +10861,7 @@
       <c r="B521" s="2">
         <v>10520</v>
       </c>
-      <c r="C521" s="2">
+      <c r="C521" s="4">
         <v>44828</v>
       </c>
       <c r="D521" s="2" t="s">
@@ -10876,7 +10881,7 @@
       <c r="B522" s="2">
         <v>10521</v>
       </c>
-      <c r="C522" s="2">
+      <c r="C522" s="4">
         <v>44828</v>
       </c>
       <c r="D522" s="2" t="s">
@@ -10896,7 +10901,7 @@
       <c r="B523" s="2">
         <v>10522</v>
       </c>
-      <c r="C523" s="2">
+      <c r="C523" s="4">
         <v>44828</v>
       </c>
       <c r="D523" s="2" t="s">
@@ -10916,7 +10921,7 @@
       <c r="B524" s="2">
         <v>10523</v>
       </c>
-      <c r="C524" s="2">
+      <c r="C524" s="4">
         <v>44828</v>
       </c>
       <c r="D524" s="2" t="s">
@@ -10936,7 +10941,7 @@
       <c r="B525" s="2">
         <v>10524</v>
       </c>
-      <c r="C525" s="2">
+      <c r="C525" s="4">
         <v>44828</v>
       </c>
       <c r="D525" s="2" t="s">
@@ -10956,7 +10961,7 @@
       <c r="B526" s="2">
         <v>10525</v>
       </c>
-      <c r="C526" s="2">
+      <c r="C526" s="4">
         <v>44828</v>
       </c>
       <c r="D526" s="2" t="s">
@@ -10976,7 +10981,7 @@
       <c r="B527" s="2">
         <v>10526</v>
       </c>
-      <c r="C527" s="2">
+      <c r="C527" s="4">
         <v>44828</v>
       </c>
       <c r="D527" s="2" t="s">
@@ -10996,7 +11001,7 @@
       <c r="B528" s="2">
         <v>10527</v>
       </c>
-      <c r="C528" s="2">
+      <c r="C528" s="4">
         <v>44828</v>
       </c>
       <c r="D528" s="2" t="s">
@@ -11016,7 +11021,7 @@
       <c r="B529" s="2">
         <v>10528</v>
       </c>
-      <c r="C529" s="2">
+      <c r="C529" s="4">
         <v>44828</v>
       </c>
       <c r="D529" s="2" t="s">
@@ -11036,7 +11041,7 @@
       <c r="B530" s="2">
         <v>10529</v>
       </c>
-      <c r="C530" s="2">
+      <c r="C530" s="4">
         <v>44828</v>
       </c>
       <c r="D530" s="2" t="s">
@@ -11056,7 +11061,7 @@
       <c r="B531" s="2">
         <v>10530</v>
       </c>
-      <c r="C531" s="2">
+      <c r="C531" s="4">
         <v>44828</v>
       </c>
       <c r="D531" s="2" t="s">
@@ -11076,7 +11081,7 @@
       <c r="B532" s="2">
         <v>10531</v>
       </c>
-      <c r="C532" s="2">
+      <c r="C532" s="4">
         <v>44828</v>
       </c>
       <c r="D532" s="2" t="s">
@@ -11096,7 +11101,7 @@
       <c r="B533" s="2">
         <v>10532</v>
       </c>
-      <c r="C533" s="2">
+      <c r="C533" s="4">
         <v>44828</v>
       </c>
       <c r="D533" s="2" t="s">
@@ -11116,7 +11121,7 @@
       <c r="B534" s="2">
         <v>10533</v>
       </c>
-      <c r="C534" s="2">
+      <c r="C534" s="4">
         <v>44828</v>
       </c>
       <c r="D534" s="2" t="s">
@@ -11136,7 +11141,7 @@
       <c r="B535" s="2">
         <v>10534</v>
       </c>
-      <c r="C535" s="2">
+      <c r="C535" s="4">
         <v>44828</v>
       </c>
       <c r="D535" s="2" t="s">
@@ -11156,7 +11161,7 @@
       <c r="B536" s="2">
         <v>10535</v>
       </c>
-      <c r="C536" s="2">
+      <c r="C536" s="4">
         <v>44828</v>
       </c>
       <c r="D536" s="2" t="s">
@@ -11176,7 +11181,7 @@
       <c r="B537" s="2">
         <v>10536</v>
       </c>
-      <c r="C537" s="2">
+      <c r="C537" s="4">
         <v>44828</v>
       </c>
       <c r="D537" s="2" t="s">
@@ -11196,7 +11201,7 @@
       <c r="B538" s="2">
         <v>10537</v>
       </c>
-      <c r="C538" s="2">
+      <c r="C538" s="4">
         <v>44828</v>
       </c>
       <c r="D538" s="2" t="s">
@@ -11216,7 +11221,7 @@
       <c r="B539" s="2">
         <v>10538</v>
       </c>
-      <c r="C539" s="2">
+      <c r="C539" s="4">
         <v>44828</v>
       </c>
       <c r="D539" s="2" t="s">
@@ -11236,7 +11241,7 @@
       <c r="B540" s="2">
         <v>10539</v>
       </c>
-      <c r="C540" s="2">
+      <c r="C540" s="4">
         <v>44828</v>
       </c>
       <c r="D540" s="2" t="s">
@@ -11256,7 +11261,7 @@
       <c r="B541" s="2">
         <v>10540</v>
       </c>
-      <c r="C541" s="2">
+      <c r="C541" s="4">
         <v>44828</v>
       </c>
       <c r="D541" s="2" t="s">
@@ -11276,7 +11281,7 @@
       <c r="B542" s="2">
         <v>10541</v>
       </c>
-      <c r="C542" s="2">
+      <c r="C542" s="4">
         <v>44828</v>
       </c>
       <c r="D542" s="2" t="s">
@@ -11296,7 +11301,7 @@
       <c r="B543" s="2">
         <v>10542</v>
       </c>
-      <c r="C543" s="2">
+      <c r="C543" s="4">
         <v>44828</v>
       </c>
       <c r="D543" s="2" t="s">
@@ -11316,7 +11321,7 @@
       <c r="B544" s="2">
         <v>10543</v>
       </c>
-      <c r="C544" s="2">
+      <c r="C544" s="4">
         <v>44828</v>
       </c>
       <c r="D544" s="2" t="s">
@@ -11336,7 +11341,7 @@
       <c r="B545" s="2">
         <v>10544</v>
       </c>
-      <c r="C545" s="2">
+      <c r="C545" s="4">
         <v>44828</v>
       </c>
       <c r="D545" s="2" t="s">
@@ -11356,7 +11361,7 @@
       <c r="B546" s="2">
         <v>10545</v>
       </c>
-      <c r="C546" s="2">
+      <c r="C546" s="4">
         <v>44828</v>
       </c>
       <c r="D546" s="2" t="s">
@@ -11376,7 +11381,7 @@
       <c r="B547" s="2">
         <v>10546</v>
       </c>
-      <c r="C547" s="2">
+      <c r="C547" s="4">
         <v>44828</v>
       </c>
       <c r="D547" s="2" t="s">
@@ -11396,7 +11401,7 @@
       <c r="B548" s="2">
         <v>10547</v>
       </c>
-      <c r="C548" s="2">
+      <c r="C548" s="4">
         <v>44828</v>
       </c>
       <c r="D548" s="2" t="s">
@@ -11416,7 +11421,7 @@
       <c r="B549" s="2">
         <v>10548</v>
       </c>
-      <c r="C549" s="2">
+      <c r="C549" s="4">
         <v>44828</v>
       </c>
       <c r="D549" s="2" t="s">
@@ -11436,7 +11441,7 @@
       <c r="B550" s="2">
         <v>10549</v>
       </c>
-      <c r="C550" s="2">
+      <c r="C550" s="4">
         <v>44828</v>
       </c>
       <c r="D550" s="2" t="s">
@@ -11456,7 +11461,7 @@
       <c r="B551" s="2">
         <v>10550</v>
       </c>
-      <c r="C551" s="2">
+      <c r="C551" s="4">
         <v>44828</v>
       </c>
       <c r="D551" s="2" t="s">
@@ -11476,7 +11481,7 @@
       <c r="B552" s="2">
         <v>10551</v>
       </c>
-      <c r="C552" s="2">
+      <c r="C552" s="4">
         <v>44828</v>
       </c>
       <c r="D552" s="2" t="s">
@@ -11496,7 +11501,7 @@
       <c r="B553" s="2">
         <v>10552</v>
       </c>
-      <c r="C553" s="2">
+      <c r="C553" s="4">
         <v>44828</v>
       </c>
       <c r="D553" s="2" t="s">
@@ -11516,7 +11521,7 @@
       <c r="B554" s="2">
         <v>10553</v>
       </c>
-      <c r="C554" s="2">
+      <c r="C554" s="4">
         <v>44828</v>
       </c>
       <c r="D554" s="2" t="s">
@@ -11536,7 +11541,7 @@
       <c r="B555" s="2">
         <v>10554</v>
       </c>
-      <c r="C555" s="2">
+      <c r="C555" s="4">
         <v>44828</v>
       </c>
       <c r="D555" s="2" t="s">
@@ -11556,7 +11561,7 @@
       <c r="B556" s="2">
         <v>10555</v>
       </c>
-      <c r="C556" s="2">
+      <c r="C556" s="4">
         <v>44828</v>
       </c>
       <c r="D556" s="2" t="s">
@@ -11576,7 +11581,7 @@
       <c r="B557" s="2">
         <v>10556</v>
       </c>
-      <c r="C557" s="2">
+      <c r="C557" s="4">
         <v>44828</v>
       </c>
       <c r="D557" s="2" t="s">
@@ -11596,7 +11601,7 @@
       <c r="B558" s="2">
         <v>10557</v>
       </c>
-      <c r="C558" s="2">
+      <c r="C558" s="4">
         <v>44828</v>
       </c>
       <c r="D558" s="2" t="s">
@@ -11616,7 +11621,7 @@
       <c r="B559" s="2">
         <v>10558</v>
       </c>
-      <c r="C559" s="2">
+      <c r="C559" s="4">
         <v>44828</v>
       </c>
       <c r="D559" s="2" t="s">
@@ -11636,7 +11641,7 @@
       <c r="B560" s="2">
         <v>10559</v>
       </c>
-      <c r="C560" s="2">
+      <c r="C560" s="4">
         <v>44828</v>
       </c>
       <c r="D560" s="2" t="s">
@@ -11656,7 +11661,7 @@
       <c r="B561" s="2">
         <v>10560</v>
       </c>
-      <c r="C561" s="2">
+      <c r="C561" s="4">
         <v>44828</v>
       </c>
       <c r="D561" s="2" t="s">
@@ -11676,7 +11681,7 @@
       <c r="B562" s="2">
         <v>10561</v>
       </c>
-      <c r="C562" s="2">
+      <c r="C562" s="4">
         <v>44828</v>
       </c>
       <c r="D562" s="2" t="s">
@@ -11696,7 +11701,7 @@
       <c r="B563" s="2">
         <v>10562</v>
       </c>
-      <c r="C563" s="2">
+      <c r="C563" s="4">
         <v>44828</v>
       </c>
       <c r="D563" s="2" t="s">
@@ -11716,7 +11721,7 @@
       <c r="B564" s="2">
         <v>10563</v>
       </c>
-      <c r="C564" s="2">
+      <c r="C564" s="4">
         <v>44828</v>
       </c>
       <c r="D564" s="2" t="s">
@@ -11736,7 +11741,7 @@
       <c r="B565" s="2">
         <v>10564</v>
       </c>
-      <c r="C565" s="2">
+      <c r="C565" s="4">
         <v>44828</v>
       </c>
       <c r="D565" s="2" t="s">
@@ -11756,7 +11761,7 @@
       <c r="B566" s="2">
         <v>10565</v>
       </c>
-      <c r="C566" s="2">
+      <c r="C566" s="4">
         <v>44828</v>
       </c>
       <c r="D566" s="2" t="s">
@@ -11776,7 +11781,7 @@
       <c r="B567" s="2">
         <v>10566</v>
       </c>
-      <c r="C567" s="2">
+      <c r="C567" s="4">
         <v>44828</v>
       </c>
       <c r="D567" s="2" t="s">
@@ -11796,7 +11801,7 @@
       <c r="B568" s="2">
         <v>10567</v>
       </c>
-      <c r="C568" s="2">
+      <c r="C568" s="4">
         <v>44828</v>
       </c>
       <c r="D568" s="2" t="s">
@@ -11816,7 +11821,7 @@
       <c r="B569" s="2">
         <v>10568</v>
       </c>
-      <c r="C569" s="2">
+      <c r="C569" s="4">
         <v>44828</v>
       </c>
       <c r="D569" s="2" t="s">
@@ -11836,7 +11841,7 @@
       <c r="B570" s="2">
         <v>10569</v>
       </c>
-      <c r="C570" s="2">
+      <c r="C570" s="4">
         <v>44828</v>
       </c>
       <c r="D570" s="2" t="s">
@@ -11856,7 +11861,7 @@
       <c r="B571" s="2">
         <v>10570</v>
       </c>
-      <c r="C571" s="2">
+      <c r="C571" s="4">
         <v>44828</v>
       </c>
       <c r="D571" s="2" t="s">
@@ -11876,7 +11881,7 @@
       <c r="B572" s="2">
         <v>10571</v>
       </c>
-      <c r="C572" s="2">
+      <c r="C572" s="4">
         <v>44828</v>
       </c>
       <c r="D572" s="2" t="s">
@@ -11896,7 +11901,7 @@
       <c r="B573" s="2">
         <v>10572</v>
       </c>
-      <c r="C573" s="2">
+      <c r="C573" s="4">
         <v>44828</v>
       </c>
       <c r="D573" s="2" t="s">
@@ -11916,7 +11921,7 @@
       <c r="B574" s="2">
         <v>10573</v>
       </c>
-      <c r="C574" s="2">
+      <c r="C574" s="4">
         <v>44828</v>
       </c>
       <c r="D574" s="2" t="s">
@@ -11936,7 +11941,7 @@
       <c r="B575" s="2">
         <v>10574</v>
       </c>
-      <c r="C575" s="2">
+      <c r="C575" s="4">
         <v>44828</v>
       </c>
       <c r="D575" s="2" t="s">
@@ -11956,7 +11961,7 @@
       <c r="B576" s="2">
         <v>10575</v>
       </c>
-      <c r="C576" s="2">
+      <c r="C576" s="4">
         <v>44828</v>
       </c>
       <c r="D576" s="2" t="s">
@@ -11976,7 +11981,7 @@
       <c r="B577" s="2">
         <v>10576</v>
       </c>
-      <c r="C577" s="2">
+      <c r="C577" s="4">
         <v>44828</v>
       </c>
       <c r="D577" s="2" t="s">
@@ -11996,7 +12001,7 @@
       <c r="B578" s="2">
         <v>10577</v>
       </c>
-      <c r="C578" s="2">
+      <c r="C578" s="4">
         <v>44828</v>
       </c>
       <c r="D578" s="2" t="s">
@@ -12016,7 +12021,7 @@
       <c r="B579" s="2">
         <v>10578</v>
       </c>
-      <c r="C579" s="2">
+      <c r="C579" s="4">
         <v>44828</v>
       </c>
       <c r="D579" s="2" t="s">
@@ -12036,7 +12041,7 @@
       <c r="B580" s="2">
         <v>10579</v>
       </c>
-      <c r="C580" s="2">
+      <c r="C580" s="4">
         <v>44828</v>
       </c>
       <c r="D580" s="2" t="s">
@@ -12056,7 +12061,7 @@
       <c r="B581" s="2">
         <v>10580</v>
       </c>
-      <c r="C581" s="2">
+      <c r="C581" s="4">
         <v>44828</v>
       </c>
       <c r="D581" s="2" t="s">
@@ -12076,7 +12081,7 @@
       <c r="B582" s="2">
         <v>10581</v>
       </c>
-      <c r="C582" s="2">
+      <c r="C582" s="4">
         <v>44828</v>
       </c>
       <c r="D582" s="2" t="s">
@@ -12096,7 +12101,7 @@
       <c r="B583" s="2">
         <v>10582</v>
       </c>
-      <c r="C583" s="2">
+      <c r="C583" s="4">
         <v>44828</v>
       </c>
       <c r="D583" s="2" t="s">
@@ -12116,7 +12121,7 @@
       <c r="B584" s="2">
         <v>10583</v>
       </c>
-      <c r="C584" s="2">
+      <c r="C584" s="4">
         <v>44828</v>
       </c>
       <c r="D584" s="2" t="s">
@@ -12136,7 +12141,7 @@
       <c r="B585" s="2">
         <v>10584</v>
       </c>
-      <c r="C585" s="2">
+      <c r="C585" s="4">
         <v>44828</v>
       </c>
       <c r="D585" s="2" t="s">
@@ -12156,7 +12161,7 @@
       <c r="B586" s="2">
         <v>10585</v>
       </c>
-      <c r="C586" s="2">
+      <c r="C586" s="4">
         <v>44828</v>
       </c>
       <c r="D586" s="2" t="s">
@@ -12176,7 +12181,7 @@
       <c r="B587" s="2">
         <v>10586</v>
       </c>
-      <c r="C587" s="2">
+      <c r="C587" s="4">
         <v>44828</v>
       </c>
       <c r="D587" s="2" t="s">
@@ -12196,7 +12201,7 @@
       <c r="B588" s="2">
         <v>10587</v>
       </c>
-      <c r="C588" s="2">
+      <c r="C588" s="4">
         <v>44828</v>
       </c>
       <c r="D588" s="2" t="s">
@@ -12216,7 +12221,7 @@
       <c r="B589" s="2">
         <v>10588</v>
       </c>
-      <c r="C589" s="2">
+      <c r="C589" s="4">
         <v>44828</v>
       </c>
       <c r="D589" s="2" t="s">
@@ -12236,7 +12241,7 @@
       <c r="B590" s="2">
         <v>10589</v>
       </c>
-      <c r="C590" s="2">
+      <c r="C590" s="4">
         <v>44828</v>
       </c>
       <c r="D590" s="2" t="s">
@@ -12256,7 +12261,7 @@
       <c r="B591" s="2">
         <v>10590</v>
       </c>
-      <c r="C591" s="2">
+      <c r="C591" s="4">
         <v>44828</v>
       </c>
       <c r="D591" s="2" t="s">
@@ -12276,7 +12281,7 @@
       <c r="B592" s="2">
         <v>10591</v>
       </c>
-      <c r="C592" s="2">
+      <c r="C592" s="4">
         <v>44828</v>
       </c>
       <c r="D592" s="2" t="s">
@@ -12296,7 +12301,7 @@
       <c r="B593" s="2">
         <v>10592</v>
       </c>
-      <c r="C593" s="2">
+      <c r="C593" s="4">
         <v>44828</v>
       </c>
       <c r="D593" s="2" t="s">
@@ -12316,7 +12321,7 @@
       <c r="B594" s="2">
         <v>10593</v>
       </c>
-      <c r="C594" s="2">
+      <c r="C594" s="4">
         <v>44828</v>
       </c>
       <c r="D594" s="2" t="s">
@@ -12336,7 +12341,7 @@
       <c r="B595" s="2">
         <v>10594</v>
       </c>
-      <c r="C595" s="2">
+      <c r="C595" s="4">
         <v>44828</v>
       </c>
       <c r="D595" s="2" t="s">
@@ -12356,7 +12361,7 @@
       <c r="B596" s="2">
         <v>10595</v>
       </c>
-      <c r="C596" s="2">
+      <c r="C596" s="4">
         <v>44828</v>
       </c>
       <c r="D596" s="2" t="s">
@@ -12376,7 +12381,7 @@
       <c r="B597" s="2">
         <v>10596</v>
       </c>
-      <c r="C597" s="2">
+      <c r="C597" s="4">
         <v>44828</v>
       </c>
       <c r="D597" s="2" t="s">
@@ -12396,7 +12401,7 @@
       <c r="B598" s="2">
         <v>10597</v>
       </c>
-      <c r="C598" s="2">
+      <c r="C598" s="4">
         <v>44828</v>
       </c>
       <c r="D598" s="2" t="s">
@@ -12416,7 +12421,7 @@
       <c r="B599" s="2">
         <v>10598</v>
       </c>
-      <c r="C599" s="2">
+      <c r="C599" s="4">
         <v>44828</v>
       </c>
       <c r="D599" s="2" t="s">
@@ -12436,7 +12441,7 @@
       <c r="B600" s="2">
         <v>10599</v>
       </c>
-      <c r="C600" s="2">
+      <c r="C600" s="4">
         <v>44828</v>
       </c>
       <c r="D600" s="2" t="s">
@@ -12456,7 +12461,7 @@
       <c r="B601" s="2">
         <v>10600</v>
       </c>
-      <c r="C601" s="2">
+      <c r="C601" s="4">
         <v>44828</v>
       </c>
       <c r="D601" s="2" t="s">
@@ -12476,7 +12481,7 @@
       <c r="B602" s="2">
         <v>10601</v>
       </c>
-      <c r="C602" s="2">
+      <c r="C602" s="4">
         <v>44828</v>
       </c>
       <c r="D602" s="2" t="s">
@@ -12496,7 +12501,7 @@
       <c r="B603" s="2">
         <v>10602</v>
       </c>
-      <c r="C603" s="2">
+      <c r="C603" s="4">
         <v>44828</v>
       </c>
       <c r="D603" s="2" t="s">
@@ -12516,7 +12521,7 @@
       <c r="B604" s="2">
         <v>10603</v>
       </c>
-      <c r="C604" s="2">
+      <c r="C604" s="4">
         <v>44828</v>
       </c>
       <c r="D604" s="2" t="s">
@@ -12536,7 +12541,7 @@
       <c r="B605" s="2">
         <v>10604</v>
       </c>
-      <c r="C605" s="2">
+      <c r="C605" s="4">
         <v>44828</v>
       </c>
       <c r="D605" s="2" t="s">
@@ -12556,7 +12561,7 @@
       <c r="B606" s="2">
         <v>10605</v>
       </c>
-      <c r="C606" s="2">
+      <c r="C606" s="4">
         <v>44828</v>
       </c>
       <c r="D606" s="2" t="s">
@@ -12576,7 +12581,7 @@
       <c r="B607" s="2">
         <v>10606</v>
       </c>
-      <c r="C607" s="2">
+      <c r="C607" s="4">
         <v>44828</v>
       </c>
       <c r="D607" s="2" t="s">
@@ -12596,7 +12601,7 @@
       <c r="B608" s="2">
         <v>10607</v>
       </c>
-      <c r="C608" s="2">
+      <c r="C608" s="4">
         <v>44828</v>
       </c>
       <c r="D608" s="2" t="s">
@@ -12616,7 +12621,7 @@
       <c r="B609" s="2">
         <v>10608</v>
       </c>
-      <c r="C609" s="2">
+      <c r="C609" s="4">
         <v>44828</v>
       </c>
       <c r="D609" s="2" t="s">
@@ -12636,7 +12641,7 @@
       <c r="B610" s="2">
         <v>10609</v>
       </c>
-      <c r="C610" s="2">
+      <c r="C610" s="4">
         <v>44828</v>
       </c>
       <c r="D610" s="2" t="s">
@@ -12656,7 +12661,7 @@
       <c r="B611" s="2">
         <v>10610</v>
       </c>
-      <c r="C611" s="2">
+      <c r="C611" s="4">
         <v>44828</v>
       </c>
       <c r="D611" s="2" t="s">
@@ -12676,7 +12681,7 @@
       <c r="B612" s="2">
         <v>10611</v>
       </c>
-      <c r="C612" s="2">
+      <c r="C612" s="4">
         <v>44828</v>
       </c>
       <c r="D612" s="2" t="s">
@@ -12696,7 +12701,7 @@
       <c r="B613" s="2">
         <v>10612</v>
       </c>
-      <c r="C613" s="2">
+      <c r="C613" s="4">
         <v>44828</v>
       </c>
       <c r="D613" s="2" t="s">
@@ -12716,7 +12721,7 @@
       <c r="B614" s="2">
         <v>10613</v>
       </c>
-      <c r="C614" s="2">
+      <c r="C614" s="4">
         <v>44828</v>
       </c>
       <c r="D614" s="2" t="s">
@@ -12736,7 +12741,7 @@
       <c r="B615" s="2">
         <v>10614</v>
       </c>
-      <c r="C615" s="2">
+      <c r="C615" s="4">
         <v>44828</v>
       </c>
       <c r="D615" s="2" t="s">
@@ -12756,7 +12761,7 @@
       <c r="B616" s="2">
         <v>10615</v>
       </c>
-      <c r="C616" s="2">
+      <c r="C616" s="4">
         <v>44828</v>
       </c>
       <c r="D616" s="2" t="s">
@@ -12776,7 +12781,7 @@
       <c r="B617" s="2">
         <v>10616</v>
       </c>
-      <c r="C617" s="2">
+      <c r="C617" s="4">
         <v>44828</v>
       </c>
       <c r="D617" s="2" t="s">
@@ -12796,7 +12801,7 @@
       <c r="B618" s="2">
         <v>10617</v>
       </c>
-      <c r="C618" s="2">
+      <c r="C618" s="4">
         <v>44828</v>
       </c>
       <c r="D618" s="2" t="s">
@@ -12816,7 +12821,7 @@
       <c r="B619" s="2">
         <v>10618</v>
       </c>
-      <c r="C619" s="2">
+      <c r="C619" s="4">
         <v>44828</v>
       </c>
       <c r="D619" s="2" t="s">
@@ -12836,7 +12841,7 @@
       <c r="B620" s="2">
         <v>10619</v>
       </c>
-      <c r="C620" s="2">
+      <c r="C620" s="4">
         <v>44828</v>
       </c>
       <c r="D620" s="2" t="s">
@@ -12856,7 +12861,7 @@
       <c r="B621" s="2">
         <v>10620</v>
       </c>
-      <c r="C621" s="2">
+      <c r="C621" s="4">
         <v>44828</v>
       </c>
       <c r="D621" s="2" t="s">
@@ -12876,7 +12881,7 @@
       <c r="B622" s="2">
         <v>10621</v>
       </c>
-      <c r="C622" s="2">
+      <c r="C622" s="4">
         <v>44828</v>
       </c>
       <c r="D622" s="2" t="s">
@@ -12896,7 +12901,7 @@
       <c r="B623" s="2">
         <v>10622</v>
       </c>
-      <c r="C623" s="2">
+      <c r="C623" s="4">
         <v>44828</v>
       </c>
       <c r="D623" s="2" t="s">
@@ -12916,7 +12921,7 @@
       <c r="B624" s="2">
         <v>10623</v>
       </c>
-      <c r="C624" s="2">
+      <c r="C624" s="4">
         <v>44828</v>
       </c>
       <c r="D624" s="2" t="s">
@@ -12936,7 +12941,7 @@
       <c r="B625" s="2">
         <v>10624</v>
       </c>
-      <c r="C625" s="2">
+      <c r="C625" s="4">
         <v>44828</v>
       </c>
       <c r="D625" s="2" t="s">
@@ -12956,7 +12961,7 @@
       <c r="B626" s="2">
         <v>10625</v>
       </c>
-      <c r="C626" s="2">
+      <c r="C626" s="4">
         <v>44828</v>
       </c>
       <c r="D626" s="2" t="s">
@@ -12976,7 +12981,7 @@
       <c r="B627" s="2">
         <v>10626</v>
       </c>
-      <c r="C627" s="2">
+      <c r="C627" s="4">
         <v>44828</v>
       </c>
       <c r="D627" s="2" t="s">
@@ -12996,7 +13001,7 @@
       <c r="B628" s="2">
         <v>10627</v>
       </c>
-      <c r="C628" s="2">
+      <c r="C628" s="4">
         <v>44828</v>
       </c>
       <c r="D628" s="2" t="s">
@@ -13016,7 +13021,7 @@
       <c r="B629" s="2">
         <v>10628</v>
       </c>
-      <c r="C629" s="2">
+      <c r="C629" s="4">
         <v>44828</v>
       </c>
       <c r="D629" s="2" t="s">
@@ -13036,7 +13041,7 @@
       <c r="B630" s="2">
         <v>10629</v>
       </c>
-      <c r="C630" s="2">
+      <c r="C630" s="4">
         <v>44828</v>
       </c>
       <c r="D630" s="2" t="s">
@@ -13056,7 +13061,7 @@
       <c r="B631" s="2">
         <v>10630</v>
       </c>
-      <c r="C631" s="2">
+      <c r="C631" s="4">
         <v>44828</v>
       </c>
       <c r="D631" s="2" t="s">
@@ -13076,7 +13081,7 @@
       <c r="B632" s="2">
         <v>10631</v>
       </c>
-      <c r="C632" s="2">
+      <c r="C632" s="4">
         <v>44828</v>
       </c>
       <c r="D632" s="2" t="s">
@@ -13096,7 +13101,7 @@
       <c r="B633" s="2">
         <v>10632</v>
       </c>
-      <c r="C633" s="2">
+      <c r="C633" s="4">
         <v>44828</v>
       </c>
       <c r="D633" s="2" t="s">
@@ -13116,7 +13121,7 @@
       <c r="B634" s="2">
         <v>10633</v>
       </c>
-      <c r="C634" s="2">
+      <c r="C634" s="4">
         <v>44828</v>
       </c>
       <c r="D634" s="2" t="s">
@@ -13136,7 +13141,7 @@
       <c r="B635" s="2">
         <v>10634</v>
       </c>
-      <c r="C635" s="2">
+      <c r="C635" s="4">
         <v>44828</v>
       </c>
       <c r="D635" s="2" t="s">
@@ -13156,7 +13161,7 @@
       <c r="B636" s="2">
         <v>10635</v>
       </c>
-      <c r="C636" s="2">
+      <c r="C636" s="4">
         <v>44828</v>
       </c>
       <c r="D636" s="2" t="s">
@@ -13176,7 +13181,7 @@
       <c r="B637" s="2">
         <v>10636</v>
       </c>
-      <c r="C637" s="2">
+      <c r="C637" s="4">
         <v>44828</v>
       </c>
       <c r="D637" s="2" t="s">
@@ -13196,7 +13201,7 @@
       <c r="B638" s="2">
         <v>10637</v>
       </c>
-      <c r="C638" s="2">
+      <c r="C638" s="4">
         <v>44828</v>
       </c>
       <c r="D638" s="2" t="s">
@@ -13216,7 +13221,7 @@
       <c r="B639" s="2">
         <v>10638</v>
       </c>
-      <c r="C639" s="2">
+      <c r="C639" s="4">
         <v>44828</v>
       </c>
       <c r="D639" s="2" t="s">
@@ -13236,7 +13241,7 @@
       <c r="B640" s="2">
         <v>10639</v>
       </c>
-      <c r="C640" s="2">
+      <c r="C640" s="4">
         <v>44828</v>
       </c>
       <c r="D640" s="2" t="s">
@@ -13256,7 +13261,7 @@
       <c r="B641" s="2">
         <v>10640</v>
       </c>
-      <c r="C641" s="2">
+      <c r="C641" s="4">
         <v>44828</v>
       </c>
       <c r="D641" s="2" t="s">
@@ -13276,7 +13281,7 @@
       <c r="B642" s="2">
         <v>10641</v>
       </c>
-      <c r="C642" s="2">
+      <c r="C642" s="4">
         <v>44828</v>
       </c>
       <c r="D642" s="2" t="s">
@@ -13296,7 +13301,7 @@
       <c r="B643" s="2">
         <v>10642</v>
       </c>
-      <c r="C643" s="2">
+      <c r="C643" s="4">
         <v>44828</v>
       </c>
       <c r="D643" s="2" t="s">
@@ -13316,7 +13321,7 @@
       <c r="B644" s="2">
         <v>10643</v>
       </c>
-      <c r="C644" s="2">
+      <c r="C644" s="4">
         <v>44828</v>
       </c>
       <c r="D644" s="2" t="s">
@@ -13336,7 +13341,7 @@
       <c r="B645" s="2">
         <v>10644</v>
       </c>
-      <c r="C645" s="2">
+      <c r="C645" s="4">
         <v>44828</v>
       </c>
       <c r="D645" s="2" t="s">
@@ -13356,7 +13361,7 @@
       <c r="B646" s="2">
         <v>10645</v>
       </c>
-      <c r="C646" s="2">
+      <c r="C646" s="4">
         <v>44828</v>
       </c>
       <c r="D646" s="2" t="s">
@@ -13376,7 +13381,7 @@
       <c r="B647" s="2">
         <v>10646</v>
       </c>
-      <c r="C647" s="2">
+      <c r="C647" s="4">
         <v>44828</v>
       </c>
       <c r="D647" s="2" t="s">
@@ -13396,7 +13401,7 @@
       <c r="B648" s="2">
         <v>10647</v>
       </c>
-      <c r="C648" s="2">
+      <c r="C648" s="4">
         <v>44828</v>
       </c>
       <c r="D648" s="2" t="s">
@@ -13416,7 +13421,7 @@
       <c r="B649" s="2">
         <v>10648</v>
       </c>
-      <c r="C649" s="2">
+      <c r="C649" s="4">
         <v>44828</v>
       </c>
       <c r="D649" s="2" t="s">
@@ -13436,7 +13441,7 @@
       <c r="B650" s="2">
         <v>10649</v>
       </c>
-      <c r="C650" s="2">
+      <c r="C650" s="4">
         <v>44828</v>
       </c>
       <c r="D650" s="2" t="s">
@@ -13456,7 +13461,7 @@
       <c r="B651" s="2">
         <v>10650</v>
       </c>
-      <c r="C651" s="2">
+      <c r="C651" s="4">
         <v>44828</v>
       </c>
       <c r="D651" s="2" t="s">
@@ -13476,7 +13481,7 @@
       <c r="B652" s="2">
         <v>10651</v>
       </c>
-      <c r="C652" s="2">
+      <c r="C652" s="4">
         <v>44828</v>
       </c>
       <c r="D652" s="2" t="s">
@@ -13496,7 +13501,7 @@
       <c r="B653" s="2">
         <v>10652</v>
       </c>
-      <c r="C653" s="2">
+      <c r="C653" s="4">
         <v>44828</v>
       </c>
       <c r="D653" s="2" t="s">
@@ -13516,7 +13521,7 @@
       <c r="B654" s="2">
         <v>10653</v>
       </c>
-      <c r="C654" s="2">
+      <c r="C654" s="4">
         <v>44828</v>
       </c>
       <c r="D654" s="2" t="s">
@@ -13536,7 +13541,7 @@
       <c r="B655" s="2">
         <v>10654</v>
       </c>
-      <c r="C655" s="2">
+      <c r="C655" s="4">
         <v>44828</v>
       </c>
       <c r="D655" s="2" t="s">
@@ -13556,7 +13561,7 @@
       <c r="B656" s="2">
         <v>10655</v>
       </c>
-      <c r="C656" s="2">
+      <c r="C656" s="4">
         <v>44828</v>
       </c>
       <c r="D656" s="2" t="s">
@@ -13576,7 +13581,7 @@
       <c r="B657" s="2">
         <v>10656</v>
       </c>
-      <c r="C657" s="2">
+      <c r="C657" s="4">
         <v>44828</v>
       </c>
       <c r="D657" s="2" t="s">
@@ -13596,7 +13601,7 @@
       <c r="B658" s="2">
         <v>10657</v>
       </c>
-      <c r="C658" s="2">
+      <c r="C658" s="4">
         <v>44828</v>
       </c>
       <c r="D658" s="2" t="s">
@@ -13616,7 +13621,7 @@
       <c r="B659" s="2">
         <v>10658</v>
       </c>
-      <c r="C659" s="2">
+      <c r="C659" s="4">
         <v>44828</v>
       </c>
       <c r="D659" s="2" t="s">
@@ -13636,7 +13641,7 @@
       <c r="B660" s="2">
         <v>10659</v>
       </c>
-      <c r="C660" s="2">
+      <c r="C660" s="4">
         <v>44828</v>
       </c>
       <c r="D660" s="2" t="s">
@@ -13656,7 +13661,7 @@
       <c r="B661" s="2">
         <v>10660</v>
       </c>
-      <c r="C661" s="2">
+      <c r="C661" s="4">
         <v>44828</v>
       </c>
       <c r="D661" s="2" t="s">
@@ -13676,7 +13681,7 @@
       <c r="B662" s="2">
         <v>10661</v>
       </c>
-      <c r="C662" s="2">
+      <c r="C662" s="4">
         <v>44828</v>
       </c>
       <c r="D662" s="2" t="s">
@@ -13696,7 +13701,7 @@
       <c r="B663" s="2">
         <v>10662</v>
       </c>
-      <c r="C663" s="2">
+      <c r="C663" s="4">
         <v>44828</v>
       </c>
       <c r="D663" s="2" t="s">
@@ -13716,7 +13721,7 @@
       <c r="B664" s="2">
         <v>10663</v>
       </c>
-      <c r="C664" s="2">
+      <c r="C664" s="4">
         <v>44828</v>
       </c>
       <c r="D664" s="2" t="s">
@@ -13736,7 +13741,7 @@
       <c r="B665" s="2">
         <v>10664</v>
       </c>
-      <c r="C665" s="2">
+      <c r="C665" s="4">
         <v>44828</v>
       </c>
       <c r="D665" s="2" t="s">
@@ -13756,7 +13761,7 @@
       <c r="B666" s="2">
         <v>10665</v>
       </c>
-      <c r="C666" s="2">
+      <c r="C666" s="4">
         <v>44828</v>
       </c>
       <c r="D666" s="2" t="s">
@@ -13776,7 +13781,7 @@
       <c r="B667" s="2">
         <v>10666</v>
       </c>
-      <c r="C667" s="2">
+      <c r="C667" s="4">
         <v>44828</v>
       </c>
       <c r="D667" s="2" t="s">
@@ -13796,7 +13801,7 @@
       <c r="B668" s="2">
         <v>10667</v>
       </c>
-      <c r="C668" s="2">
+      <c r="C668" s="4">
         <v>44828</v>
       </c>
       <c r="D668" s="2" t="s">
@@ -13816,7 +13821,7 @@
       <c r="B669" s="2">
         <v>10668</v>
       </c>
-      <c r="C669" s="2">
+      <c r="C669" s="4">
         <v>44828</v>
       </c>
       <c r="D669" s="2" t="s">
@@ -13836,7 +13841,7 @@
       <c r="B670" s="2">
         <v>10669</v>
       </c>
-      <c r="C670" s="2">
+      <c r="C670" s="4">
         <v>44828</v>
       </c>
       <c r="D670" s="2" t="s">
@@ -13856,7 +13861,7 @@
       <c r="B671" s="2">
         <v>10670</v>
       </c>
-      <c r="C671" s="2">
+      <c r="C671" s="4">
         <v>44828</v>
       </c>
       <c r="D671" s="2" t="s">
@@ -13876,7 +13881,7 @@
       <c r="B672" s="2">
         <v>10671</v>
       </c>
-      <c r="C672" s="2">
+      <c r="C672" s="4">
         <v>44828</v>
       </c>
       <c r="D672" s="2" t="s">
@@ -13896,7 +13901,7 @@
       <c r="B673" s="2">
         <v>10672</v>
       </c>
-      <c r="C673" s="2">
+      <c r="C673" s="4">
         <v>44828</v>
       </c>
       <c r="D673" s="2" t="s">
@@ -13916,7 +13921,7 @@
       <c r="B674" s="2">
         <v>10673</v>
       </c>
-      <c r="C674" s="2">
+      <c r="C674" s="4">
         <v>44828</v>
       </c>
       <c r="D674" s="2" t="s">
@@ -13936,7 +13941,7 @@
       <c r="B675" s="2">
         <v>10674</v>
       </c>
-      <c r="C675" s="2">
+      <c r="C675" s="4">
         <v>44828</v>
       </c>
       <c r="D675" s="2" t="s">
@@ -13956,7 +13961,7 @@
       <c r="B676" s="2">
         <v>10675</v>
       </c>
-      <c r="C676" s="2">
+      <c r="C676" s="4">
         <v>44828</v>
       </c>
       <c r="D676" s="2" t="s">
@@ -13976,7 +13981,7 @@
       <c r="B677" s="2">
         <v>10676</v>
       </c>
-      <c r="C677" s="2">
+      <c r="C677" s="4">
         <v>44828</v>
       </c>
       <c r="D677" s="2" t="s">
@@ -13996,7 +14001,7 @@
       <c r="B678" s="2">
         <v>10677</v>
       </c>
-      <c r="C678" s="2">
+      <c r="C678" s="4">
         <v>44828</v>
       </c>
       <c r="D678" s="2" t="s">
@@ -14016,7 +14021,7 @@
       <c r="B679" s="2">
         <v>10678</v>
       </c>
-      <c r="C679" s="2">
+      <c r="C679" s="4">
         <v>44828</v>
       </c>
       <c r="D679" s="2" t="s">
@@ -14036,7 +14041,7 @@
       <c r="B680" s="2">
         <v>10679</v>
       </c>
-      <c r="C680" s="2">
+      <c r="C680" s="4">
         <v>44828</v>
       </c>
       <c r="D680" s="2" t="s">
@@ -14056,7 +14061,7 @@
       <c r="B681" s="2">
         <v>10680</v>
       </c>
-      <c r="C681" s="2">
+      <c r="C681" s="4">
         <v>44828</v>
       </c>
       <c r="D681" s="2" t="s">
@@ -14076,7 +14081,7 @@
       <c r="B682" s="2">
         <v>10681</v>
       </c>
-      <c r="C682" s="2">
+      <c r="C682" s="4">
         <v>44828</v>
       </c>
       <c r="D682" s="2" t="s">
@@ -14096,7 +14101,7 @@
       <c r="B683" s="2">
         <v>10682</v>
       </c>
-      <c r="C683" s="2">
+      <c r="C683" s="4">
         <v>44828</v>
       </c>
       <c r="D683" s="2" t="s">
@@ -14116,7 +14121,7 @@
       <c r="B684" s="2">
         <v>10683</v>
       </c>
-      <c r="C684" s="2">
+      <c r="C684" s="4">
         <v>44828</v>
       </c>
       <c r="D684" s="2" t="s">
@@ -14136,7 +14141,7 @@
       <c r="B685" s="2">
         <v>10684</v>
       </c>
-      <c r="C685" s="2">
+      <c r="C685" s="4">
         <v>44828</v>
       </c>
       <c r="D685" s="2" t="s">
@@ -14156,7 +14161,7 @@
       <c r="B686" s="2">
         <v>10685</v>
       </c>
-      <c r="C686" s="2">
+      <c r="C686" s="4">
         <v>44828</v>
       </c>
       <c r="D686" s="2" t="s">
@@ -14176,7 +14181,7 @@
       <c r="B687" s="2">
         <v>10686</v>
       </c>
-      <c r="C687" s="2">
+      <c r="C687" s="4">
         <v>44828</v>
       </c>
       <c r="D687" s="2" t="s">
@@ -14196,7 +14201,7 @@
       <c r="B688" s="2">
         <v>10687</v>
       </c>
-      <c r="C688" s="2">
+      <c r="C688" s="4">
         <v>44828</v>
       </c>
       <c r="D688" s="2" t="s">
@@ -14216,7 +14221,7 @@
       <c r="B689" s="2">
         <v>10688</v>
       </c>
-      <c r="C689" s="2">
+      <c r="C689" s="4">
         <v>44828</v>
       </c>
       <c r="D689" s="2" t="s">
@@ -14236,7 +14241,7 @@
       <c r="B690" s="2">
         <v>10689</v>
       </c>
-      <c r="C690" s="2">
+      <c r="C690" s="4">
         <v>44828</v>
       </c>
       <c r="D690" s="2" t="s">
@@ -14256,7 +14261,7 @@
       <c r="B691" s="2">
         <v>10690</v>
       </c>
-      <c r="C691" s="2">
+      <c r="C691" s="4">
         <v>44828</v>
       </c>
       <c r="D691" s="2" t="s">
@@ -14276,7 +14281,7 @@
       <c r="B692" s="2">
         <v>10691</v>
       </c>
-      <c r="C692" s="2">
+      <c r="C692" s="4">
         <v>44828</v>
       </c>
       <c r="D692" s="2" t="s">
@@ -14296,7 +14301,7 @@
       <c r="B693" s="2">
         <v>10692</v>
       </c>
-      <c r="C693" s="2">
+      <c r="C693" s="4">
         <v>44828</v>
       </c>
       <c r="D693" s="2" t="s">
@@ -14316,7 +14321,7 @@
       <c r="B694" s="2">
         <v>10693</v>
       </c>
-      <c r="C694" s="2">
+      <c r="C694" s="4">
         <v>44828</v>
       </c>
       <c r="D694" s="2" t="s">
@@ -14336,7 +14341,7 @@
       <c r="B695" s="2">
         <v>10694</v>
       </c>
-      <c r="C695" s="2">
+      <c r="C695" s="4">
         <v>44828</v>
       </c>
       <c r="D695" s="2" t="s">
@@ -14356,7 +14361,7 @@
       <c r="B696" s="2">
         <v>10695</v>
       </c>
-      <c r="C696" s="2">
+      <c r="C696" s="4">
         <v>44828</v>
       </c>
       <c r="D696" s="2" t="s">
@@ -14376,7 +14381,7 @@
       <c r="B697" s="2">
         <v>10696</v>
       </c>
-      <c r="C697" s="2">
+      <c r="C697" s="4">
         <v>44828</v>
       </c>
       <c r="D697" s="2" t="s">
@@ -14396,7 +14401,7 @@
       <c r="B698" s="2">
         <v>10697</v>
       </c>
-      <c r="C698" s="2">
+      <c r="C698" s="4">
         <v>44828</v>
       </c>
       <c r="D698" s="2" t="s">
@@ -14416,7 +14421,7 @@
       <c r="B699" s="2">
         <v>10698</v>
       </c>
-      <c r="C699" s="2">
+      <c r="C699" s="4">
         <v>44828</v>
       </c>
       <c r="D699" s="2" t="s">
@@ -14436,7 +14441,7 @@
       <c r="B700" s="2">
         <v>10699</v>
       </c>
-      <c r="C700" s="2">
+      <c r="C700" s="4">
         <v>44828</v>
       </c>
       <c r="D700" s="2" t="s">
@@ -14456,7 +14461,7 @@
       <c r="B701" s="2">
         <v>10700</v>
       </c>
-      <c r="C701" s="2">
+      <c r="C701" s="4">
         <v>44828</v>
       </c>
       <c r="D701" s="2" t="s">
@@ -14476,7 +14481,7 @@
       <c r="B702" s="2">
         <v>10701</v>
       </c>
-      <c r="C702" s="2">
+      <c r="C702" s="4">
         <v>44828</v>
       </c>
       <c r="D702" s="2" t="s">
@@ -14496,7 +14501,7 @@
       <c r="B703" s="2">
         <v>10702</v>
       </c>
-      <c r="C703" s="2">
+      <c r="C703" s="4">
         <v>44828</v>
       </c>
       <c r="D703" s="2" t="s">
@@ -14516,7 +14521,7 @@
       <c r="B704" s="2">
         <v>10703</v>
       </c>
-      <c r="C704" s="2">
+      <c r="C704" s="4">
         <v>44828</v>
       </c>
       <c r="D704" s="2" t="s">
@@ -14536,7 +14541,7 @@
       <c r="B705" s="2">
         <v>10704</v>
       </c>
-      <c r="C705" s="2">
+      <c r="C705" s="4">
         <v>44828</v>
       </c>
       <c r="D705" s="2" t="s">
@@ -14556,7 +14561,7 @@
       <c r="B706" s="2">
         <v>10705</v>
       </c>
-      <c r="C706" s="2">
+      <c r="C706" s="4">
         <v>44828</v>
       </c>
       <c r="D706" s="2" t="s">
@@ -14576,7 +14581,7 @@
       <c r="B707" s="2">
         <v>10706</v>
       </c>
-      <c r="C707" s="2">
+      <c r="C707" s="4">
         <v>44828</v>
       </c>
       <c r="D707" s="2" t="s">
@@ -14596,7 +14601,7 @@
       <c r="B708" s="2">
         <v>10707</v>
       </c>
-      <c r="C708" s="2">
+      <c r="C708" s="4">
         <v>44828</v>
       </c>
       <c r="D708" s="2" t="s">
@@ -14616,7 +14621,7 @@
       <c r="B709" s="2">
         <v>10708</v>
       </c>
-      <c r="C709" s="2">
+      <c r="C709" s="4">
         <v>44828</v>
       </c>
       <c r="D709" s="2" t="s">
@@ -14636,7 +14641,7 @@
       <c r="B710" s="2">
         <v>10709</v>
       </c>
-      <c r="C710" s="2">
+      <c r="C710" s="4">
         <v>44828</v>
       </c>
       <c r="D710" s="2" t="s">
@@ -14656,7 +14661,7 @@
       <c r="B711" s="2">
         <v>10710</v>
       </c>
-      <c r="C711" s="2">
+      <c r="C711" s="4">
         <v>44828</v>
       </c>
       <c r="D711" s="2" t="s">
@@ -14676,7 +14681,7 @@
       <c r="B712" s="2">
         <v>10711</v>
       </c>
-      <c r="C712" s="2">
+      <c r="C712" s="4">
         <v>44828</v>
       </c>
       <c r="D712" s="2" t="s">
@@ -14696,7 +14701,7 @@
       <c r="B713" s="2">
         <v>10712</v>
       </c>
-      <c r="C713" s="2">
+      <c r="C713" s="4">
         <v>44828</v>
       </c>
       <c r="D713" s="2" t="s">
@@ -14716,7 +14721,7 @@
       <c r="B714" s="2">
         <v>10713</v>
       </c>
-      <c r="C714" s="2">
+      <c r="C714" s="4">
         <v>44828</v>
       </c>
       <c r="D714" s="2" t="s">
@@ -14736,7 +14741,7 @@
       <c r="B715" s="2">
         <v>10714</v>
       </c>
-      <c r="C715" s="2">
+      <c r="C715" s="4">
         <v>44828</v>
       </c>
       <c r="D715" s="2" t="s">
@@ -14756,7 +14761,7 @@
       <c r="B716" s="2">
         <v>10715</v>
       </c>
-      <c r="C716" s="2">
+      <c r="C716" s="4">
         <v>44828</v>
       </c>
       <c r="D716" s="2" t="s">
@@ -14776,7 +14781,7 @@
       <c r="B717" s="2">
         <v>10716</v>
       </c>
-      <c r="C717" s="2">
+      <c r="C717" s="4">
         <v>44828</v>
       </c>
       <c r="D717" s="2" t="s">
@@ -14796,7 +14801,7 @@
       <c r="B718" s="2">
         <v>10717</v>
       </c>
-      <c r="C718" s="2">
+      <c r="C718" s="4">
         <v>44828</v>
       </c>
       <c r="D718" s="2" t="s">
@@ -14816,7 +14821,7 @@
       <c r="B719" s="2">
         <v>10718</v>
       </c>
-      <c r="C719" s="2">
+      <c r="C719" s="4">
         <v>44828</v>
       </c>
       <c r="D719" s="2" t="s">
@@ -14836,7 +14841,7 @@
       <c r="B720" s="2">
         <v>10719</v>
       </c>
-      <c r="C720" s="2">
+      <c r="C720" s="4">
         <v>44828</v>
       </c>
       <c r="D720" s="2" t="s">
@@ -14856,7 +14861,7 @@
       <c r="B721" s="2">
         <v>10720</v>
       </c>
-      <c r="C721" s="2">
+      <c r="C721" s="4">
         <v>44828</v>
       </c>
       <c r="D721" s="2" t="s">
@@ -14876,7 +14881,7 @@
       <c r="B722" s="2">
         <v>10721</v>
       </c>
-      <c r="C722" s="2">
+      <c r="C722" s="4">
         <v>44828</v>
       </c>
       <c r="D722" s="2" t="s">
@@ -14896,7 +14901,7 @@
       <c r="B723" s="2">
         <v>10722</v>
       </c>
-      <c r="C723" s="2">
+      <c r="C723" s="4">
         <v>44828</v>
       </c>
       <c r="D723" s="2" t="s">
@@ -14916,7 +14921,7 @@
       <c r="B724" s="2">
         <v>10723</v>
       </c>
-      <c r="C724" s="2">
+      <c r="C724" s="4">
         <v>44828</v>
       </c>
       <c r="D724" s="2" t="s">
@@ -14936,7 +14941,7 @@
       <c r="B725" s="2">
         <v>10724</v>
       </c>
-      <c r="C725" s="2">
+      <c r="C725" s="4">
         <v>44828</v>
       </c>
       <c r="D725" s="2" t="s">
@@ -14956,7 +14961,7 @@
       <c r="B726" s="2">
         <v>10725</v>
       </c>
-      <c r="C726" s="2">
+      <c r="C726" s="4">
         <v>44828</v>
       </c>
       <c r="D726" s="2" t="s">
@@ -14976,7 +14981,7 @@
       <c r="B727" s="2">
         <v>10726</v>
       </c>
-      <c r="C727" s="2">
+      <c r="C727" s="4">
         <v>44828</v>
       </c>
       <c r="D727" s="2" t="s">
@@ -14996,7 +15001,7 @@
       <c r="B728" s="2">
         <v>10727</v>
       </c>
-      <c r="C728" s="2">
+      <c r="C728" s="4">
         <v>44828</v>
       </c>
       <c r="D728" s="2" t="s">
@@ -15016,7 +15021,7 @@
       <c r="B729" s="2">
         <v>10728</v>
       </c>
-      <c r="C729" s="2">
+      <c r="C729" s="4">
         <v>44828</v>
       </c>
       <c r="D729" s="2" t="s">
@@ -15036,7 +15041,7 @@
       <c r="B730" s="2">
         <v>10729</v>
       </c>
-      <c r="C730" s="2">
+      <c r="C730" s="4">
         <v>44828</v>
       </c>
       <c r="D730" s="2" t="s">
@@ -15056,7 +15061,7 @@
       <c r="B731" s="2">
         <v>10730</v>
       </c>
-      <c r="C731" s="2">
+      <c r="C731" s="4">
         <v>44828</v>
       </c>
       <c r="D731" s="2" t="s">
@@ -15076,7 +15081,7 @@
       <c r="B732" s="2">
         <v>10731</v>
       </c>
-      <c r="C732" s="2">
+      <c r="C732" s="4">
         <v>44828</v>
       </c>
       <c r="D732" s="2" t="s">
@@ -15096,7 +15101,7 @@
       <c r="B733" s="2">
         <v>10732</v>
       </c>
-      <c r="C733" s="2">
+      <c r="C733" s="4">
         <v>44828</v>
       </c>
       <c r="D733" s="2" t="s">
@@ -15116,7 +15121,7 @@
       <c r="B734" s="2">
         <v>10733</v>
       </c>
-      <c r="C734" s="2">
+      <c r="C734" s="4">
         <v>44828</v>
       </c>
       <c r="D734" s="2" t="s">
@@ -15136,7 +15141,7 @@
       <c r="B735" s="2">
         <v>10734</v>
       </c>
-      <c r="C735" s="2">
+      <c r="C735" s="4">
         <v>44828</v>
       </c>
       <c r="D735" s="2" t="s">
@@ -15156,7 +15161,7 @@
       <c r="B736" s="2">
         <v>10735</v>
       </c>
-      <c r="C736" s="2">
+      <c r="C736" s="4">
         <v>44828</v>
       </c>
       <c r="D736" s="2" t="s">
@@ -15176,7 +15181,7 @@
       <c r="B737" s="2">
         <v>10736</v>
       </c>
-      <c r="C737" s="2">
+      <c r="C737" s="4">
         <v>44828</v>
       </c>
       <c r="D737" s="2" t="s">
@@ -15196,7 +15201,7 @@
       <c r="B738" s="2">
         <v>10737</v>
       </c>
-      <c r="C738" s="2">
+      <c r="C738" s="4">
         <v>44828</v>
       </c>
       <c r="D738" s="2" t="s">
@@ -15216,7 +15221,7 @@
       <c r="B739" s="2">
         <v>10738</v>
       </c>
-      <c r="C739" s="2">
+      <c r="C739" s="4">
         <v>44828</v>
       </c>
       <c r="D739" s="2" t="s">
@@ -15236,7 +15241,7 @@
       <c r="B740" s="2">
         <v>10739</v>
       </c>
-      <c r="C740" s="2">
+      <c r="C740" s="4">
         <v>44828</v>
       </c>
       <c r="D740" s="2" t="s">
@@ -15256,7 +15261,7 @@
       <c r="B741" s="2">
         <v>10740</v>
       </c>
-      <c r="C741" s="2">
+      <c r="C741" s="4">
         <v>44828</v>
       </c>
       <c r="D741" s="2" t="s">
@@ -15276,7 +15281,7 @@
       <c r="B742" s="2">
         <v>10741</v>
       </c>
-      <c r="C742" s="2">
+      <c r="C742" s="4">
         <v>44828</v>
       </c>
       <c r="D742" s="2" t="s">
@@ -15296,7 +15301,7 @@
       <c r="B743" s="2">
         <v>10742</v>
       </c>
-      <c r="C743" s="2">
+      <c r="C743" s="4">
         <v>44828</v>
       </c>
       <c r="D743" s="2" t="s">
@@ -15316,7 +15321,7 @@
       <c r="B744" s="2">
         <v>10743</v>
       </c>
-      <c r="C744" s="2">
+      <c r="C744" s="4">
         <v>44828</v>
       </c>
       <c r="D744" s="2" t="s">
@@ -15336,7 +15341,7 @@
       <c r="B745" s="2">
         <v>10744</v>
       </c>
-      <c r="C745" s="2">
+      <c r="C745" s="4">
         <v>44828</v>
       </c>
       <c r="D745" s="2" t="s">
@@ -15356,7 +15361,7 @@
       <c r="B746" s="2">
         <v>10745</v>
       </c>
-      <c r="C746" s="2">
+      <c r="C746" s="4">
         <v>44828</v>
       </c>
       <c r="D746" s="2" t="s">
@@ -15376,7 +15381,7 @@
       <c r="B747" s="2">
         <v>10746</v>
       </c>
-      <c r="C747" s="2">
+      <c r="C747" s="4">
         <v>44828</v>
       </c>
       <c r="D747" s="2" t="s">
@@ -15396,7 +15401,7 @@
       <c r="B748" s="2">
         <v>10747</v>
       </c>
-      <c r="C748" s="2">
+      <c r="C748" s="4">
         <v>44828</v>
       </c>
       <c r="D748" s="2" t="s">
@@ -15416,7 +15421,7 @@
       <c r="B749" s="2">
         <v>10748</v>
       </c>
-      <c r="C749" s="2">
+      <c r="C749" s="4">
         <v>44828</v>
       </c>
       <c r="D749" s="2" t="s">
@@ -15436,7 +15441,7 @@
       <c r="B750" s="2">
         <v>10749</v>
       </c>
-      <c r="C750" s="2">
+      <c r="C750" s="4">
         <v>44828</v>
       </c>
       <c r="D750" s="2" t="s">
@@ -15456,7 +15461,7 @@
       <c r="B751" s="2">
         <v>10750</v>
       </c>
-      <c r="C751" s="2">
+      <c r="C751" s="4">
         <v>44828</v>
       </c>
       <c r="D751" s="2" t="s">
@@ -15476,7 +15481,7 @@
       <c r="B752" s="2">
         <v>10751</v>
       </c>
-      <c r="C752" s="2">
+      <c r="C752" s="4">
         <v>44828</v>
       </c>
       <c r="D752" s="2" t="s">
@@ -15496,7 +15501,7 @@
       <c r="B753" s="2">
         <v>10752</v>
       </c>
-      <c r="C753" s="2">
+      <c r="C753" s="4">
         <v>44828</v>
       </c>
       <c r="D753" s="2" t="s">
@@ -15516,7 +15521,7 @@
       <c r="B754" s="2">
         <v>10753</v>
       </c>
-      <c r="C754" s="2">
+      <c r="C754" s="4">
         <v>44828</v>
       </c>
       <c r="D754" s="2" t="s">
@@ -15536,7 +15541,7 @@
       <c r="B755" s="2">
         <v>10754</v>
       </c>
-      <c r="C755" s="2">
+      <c r="C755" s="4">
         <v>44828</v>
       </c>
       <c r="D755" s="2" t="s">
@@ -15556,7 +15561,7 @@
       <c r="B756" s="2">
         <v>10755</v>
       </c>
-      <c r="C756" s="2">
+      <c r="C756" s="4">
         <v>44828</v>
       </c>
       <c r="D756" s="2" t="s">
@@ -15576,7 +15581,7 @@
       <c r="B757" s="2">
         <v>10756</v>
       </c>
-      <c r="C757" s="2">
+      <c r="C757" s="4">
         <v>44828</v>
       </c>
       <c r="D757" s="2" t="s">
@@ -15596,7 +15601,7 @@
       <c r="B758" s="2">
         <v>10757</v>
       </c>
-      <c r="C758" s="2">
+      <c r="C758" s="4">
         <v>44828</v>
       </c>
       <c r="D758" s="2" t="s">
@@ -15616,7 +15621,7 @@
       <c r="B759" s="2">
         <v>10758</v>
       </c>
-      <c r="C759" s="2">
+      <c r="C759" s="4">
         <v>44828</v>
       </c>
       <c r="D759" s="2" t="s">
@@ -15636,7 +15641,7 @@
       <c r="B760" s="2">
         <v>10759</v>
       </c>
-      <c r="C760" s="2">
+      <c r="C760" s="4">
         <v>44828</v>
       </c>
       <c r="D760" s="2" t="s">
@@ -15656,7 +15661,7 @@
       <c r="B761" s="2">
         <v>10760</v>
       </c>
-      <c r="C761" s="2">
+      <c r="C761" s="4">
         <v>44828</v>
       </c>
       <c r="D761" s="2" t="s">
@@ -15676,7 +15681,7 @@
       <c r="B762" s="2">
         <v>10761</v>
       </c>
-      <c r="C762" s="2">
+      <c r="C762" s="4">
         <v>44828</v>
       </c>
       <c r="D762" s="2" t="s">
@@ -15696,7 +15701,7 @@
       <c r="B763" s="2">
         <v>10762</v>
       </c>
-      <c r="C763" s="2">
+      <c r="C763" s="4">
         <v>44828</v>
       </c>
       <c r="D763" s="2" t="s">
@@ -15716,7 +15721,7 @@
       <c r="B764" s="2">
         <v>10763</v>
       </c>
-      <c r="C764" s="2">
+      <c r="C764" s="4">
         <v>44828</v>
       </c>
       <c r="D764" s="2" t="s">
@@ -15736,7 +15741,7 @@
       <c r="B765" s="2">
         <v>10764</v>
       </c>
-      <c r="C765" s="2">
+      <c r="C765" s="4">
         <v>44828</v>
       </c>
       <c r="D765" s="2" t="s">
@@ -15756,7 +15761,7 @@
       <c r="B766" s="2">
         <v>10765</v>
       </c>
-      <c r="C766" s="2">
+      <c r="C766" s="4">
         <v>44828</v>
       </c>
       <c r="D766" s="2" t="s">
@@ -15776,7 +15781,7 @@
       <c r="B767" s="2">
         <v>10766</v>
       </c>
-      <c r="C767" s="2">
+      <c r="C767" s="4">
         <v>44828</v>
       </c>
       <c r="D767" s="2" t="s">
@@ -15796,7 +15801,7 @@
       <c r="B768" s="2">
         <v>10767</v>
       </c>
-      <c r="C768" s="2">
+      <c r="C768" s="4">
         <v>44828</v>
       </c>
       <c r="D768" s="2" t="s">
@@ -15816,7 +15821,7 @@
       <c r="B769" s="2">
         <v>10768</v>
       </c>
-      <c r="C769" s="2">
+      <c r="C769" s="4">
         <v>44828</v>
       </c>
       <c r="D769" s="2" t="s">
@@ -15836,7 +15841,7 @@
       <c r="B770" s="2">
         <v>10769</v>
       </c>
-      <c r="C770" s="2">
+      <c r="C770" s="4">
         <v>44828</v>
       </c>
       <c r="D770" s="2" t="s">
@@ -15856,7 +15861,7 @@
       <c r="B771" s="2">
         <v>10770</v>
       </c>
-      <c r="C771" s="2">
+      <c r="C771" s="4">
         <v>44828</v>
       </c>
       <c r="D771" s="2" t="s">
@@ -15876,7 +15881,7 @@
       <c r="B772" s="2">
         <v>10771</v>
       </c>
-      <c r="C772" s="2">
+      <c r="C772" s="4">
         <v>44828</v>
       </c>
       <c r="D772" s="2" t="s">
@@ -15896,7 +15901,7 @@
       <c r="B773" s="2">
         <v>10772</v>
       </c>
-      <c r="C773" s="2">
+      <c r="C773" s="4">
         <v>44828</v>
       </c>
       <c r="D773" s="2" t="s">
@@ -15916,7 +15921,7 @@
       <c r="B774" s="2">
         <v>10773</v>
       </c>
-      <c r="C774" s="2">
+      <c r="C774" s="4">
         <v>44828</v>
       </c>
       <c r="D774" s="2" t="s">
@@ -15936,7 +15941,7 @@
       <c r="B775" s="2">
         <v>10774</v>
       </c>
-      <c r="C775" s="2">
+      <c r="C775" s="4">
         <v>44828</v>
       </c>
       <c r="D775" s="2" t="s">
@@ -15956,7 +15961,7 @@
       <c r="B776" s="2">
         <v>10775</v>
       </c>
-      <c r="C776" s="2">
+      <c r="C776" s="4">
         <v>44828</v>
       </c>
       <c r="D776" s="2" t="s">
@@ -15976,7 +15981,7 @@
       <c r="B777" s="2">
         <v>10776</v>
       </c>
-      <c r="C777" s="2">
+      <c r="C777" s="4">
         <v>44828</v>
       </c>
       <c r="D777" s="2" t="s">
@@ -15996,7 +16001,7 @@
       <c r="B778" s="2">
         <v>10777</v>
       </c>
-      <c r="C778" s="2">
+      <c r="C778" s="4">
         <v>44828</v>
       </c>
       <c r="D778" s="2" t="s">
@@ -16016,7 +16021,7 @@
       <c r="B779" s="2">
         <v>10778</v>
       </c>
-      <c r="C779" s="2">
+      <c r="C779" s="4">
         <v>44828</v>
       </c>
       <c r="D779" s="2" t="s">
@@ -16036,7 +16041,7 @@
       <c r="B780" s="2">
         <v>10779</v>
       </c>
-      <c r="C780" s="2">
+      <c r="C780" s="4">
         <v>44828</v>
       </c>
       <c r="D780" s="2" t="s">
@@ -16056,7 +16061,7 @@
       <c r="B781" s="2">
         <v>10780</v>
       </c>
-      <c r="C781" s="2">
+      <c r="C781" s="4">
         <v>44828</v>
       </c>
       <c r="D781" s="2" t="s">
@@ -16076,7 +16081,7 @@
       <c r="B782" s="2">
         <v>10781</v>
       </c>
-      <c r="C782" s="2">
+      <c r="C782" s="4">
         <v>44828</v>
       </c>
       <c r="D782" s="2" t="s">
@@ -16096,7 +16101,7 @@
       <c r="B783" s="2">
         <v>10782</v>
       </c>
-      <c r="C783" s="2">
+      <c r="C783" s="4">
         <v>44828</v>
       </c>
       <c r="D783" s="2" t="s">
@@ -16116,7 +16121,7 @@
       <c r="B784" s="2">
         <v>10783</v>
       </c>
-      <c r="C784" s="2">
+      <c r="C784" s="4">
         <v>44828</v>
       </c>
       <c r="D784" s="2" t="s">
@@ -16136,7 +16141,7 @@
       <c r="B785" s="2">
         <v>10784</v>
       </c>
-      <c r="C785" s="2">
+      <c r="C785" s="4">
         <v>44828</v>
       </c>
       <c r="D785" s="2" t="s">
@@ -16156,7 +16161,7 @@
       <c r="B786" s="2">
         <v>10785</v>
       </c>
-      <c r="C786" s="2">
+      <c r="C786" s="4">
         <v>44828</v>
       </c>
       <c r="D786" s="2" t="s">
@@ -16176,7 +16181,7 @@
       <c r="B787" s="2">
         <v>10786</v>
       </c>
-      <c r="C787" s="2">
+      <c r="C787" s="4">
         <v>44828</v>
       </c>
       <c r="D787" s="2" t="s">
@@ -16196,7 +16201,7 @@
       <c r="B788" s="2">
         <v>10787</v>
       </c>
-      <c r="C788" s="2">
+      <c r="C788" s="4">
         <v>44828</v>
       </c>
       <c r="D788" s="2" t="s">
@@ -16216,7 +16221,7 @@
       <c r="B789" s="2">
         <v>10788</v>
       </c>
-      <c r="C789" s="2">
+      <c r="C789" s="4">
         <v>44828</v>
       </c>
       <c r="D789" s="2" t="s">
@@ -16236,7 +16241,7 @@
       <c r="B790" s="2">
         <v>10789</v>
       </c>
-      <c r="C790" s="2">
+      <c r="C790" s="4">
         <v>44828</v>
       </c>
       <c r="D790" s="2" t="s">
@@ -16256,7 +16261,7 @@
       <c r="B791" s="2">
         <v>10790</v>
       </c>
-      <c r="C791" s="2">
+      <c r="C791" s="4">
         <v>44828</v>
       </c>
       <c r="D791" s="2" t="s">
@@ -16276,7 +16281,7 @@
       <c r="B792" s="2">
         <v>10791</v>
       </c>
-      <c r="C792" s="2">
+      <c r="C792" s="4">
         <v>44828</v>
       </c>
       <c r="D792" s="2" t="s">
@@ -16296,7 +16301,7 @@
       <c r="B793" s="2">
         <v>10792</v>
       </c>
-      <c r="C793" s="2">
+      <c r="C793" s="4">
         <v>44828</v>
       </c>
       <c r="D793" s="2" t="s">
@@ -16316,7 +16321,7 @@
       <c r="B794" s="2">
         <v>10793</v>
       </c>
-      <c r="C794" s="2">
+      <c r="C794" s="4">
         <v>44828</v>
       </c>
       <c r="D794" s="2" t="s">
@@ -16336,7 +16341,7 @@
       <c r="B795" s="2">
         <v>10794</v>
       </c>
-      <c r="C795" s="2">
+      <c r="C795" s="4">
         <v>44828</v>
       </c>
       <c r="D795" s="2" t="s">
@@ -16356,7 +16361,7 @@
       <c r="B796" s="2">
         <v>10795</v>
       </c>
-      <c r="C796" s="2">
+      <c r="C796" s="4">
         <v>44828</v>
       </c>
       <c r="D796" s="2" t="s">
@@ -16376,7 +16381,7 @@
       <c r="B797" s="2">
         <v>10796</v>
       </c>
-      <c r="C797" s="2">
+      <c r="C797" s="4">
         <v>44828</v>
       </c>
       <c r="D797" s="2" t="s">
@@ -16396,7 +16401,7 @@
       <c r="B798" s="2">
         <v>10797</v>
       </c>
-      <c r="C798" s="2">
+      <c r="C798" s="4">
         <v>44828</v>
       </c>
       <c r="D798" s="2" t="s">
@@ -16416,7 +16421,7 @@
       <c r="B799" s="2">
         <v>10798</v>
       </c>
-      <c r="C799" s="2">
+      <c r="C799" s="4">
         <v>44828</v>
       </c>
       <c r="D799" s="2" t="s">
@@ -16436,7 +16441,7 @@
       <c r="B800" s="2">
         <v>10799</v>
       </c>
-      <c r="C800" s="2">
+      <c r="C800" s="4">
         <v>44828</v>
       </c>
       <c r="D800" s="2" t="s">
@@ -16456,7 +16461,7 @@
       <c r="B801" s="2">
         <v>10800</v>
       </c>
-      <c r="C801" s="2">
+      <c r="C801" s="4">
         <v>44828</v>
       </c>
       <c r="D801" s="2" t="s">
@@ -16476,7 +16481,7 @@
       <c r="B802" s="2">
         <v>10801</v>
       </c>
-      <c r="C802" s="2">
+      <c r="C802" s="4">
         <v>44828</v>
       </c>
       <c r="D802" s="2" t="s">
@@ -16496,7 +16501,7 @@
       <c r="B803" s="2">
         <v>10802</v>
       </c>
-      <c r="C803" s="2">
+      <c r="C803" s="4">
         <v>44828</v>
       </c>
       <c r="D803" s="2" t="s">
@@ -16516,7 +16521,7 @@
       <c r="B804" s="2">
         <v>10803</v>
       </c>
-      <c r="C804" s="2">
+      <c r="C804" s="4">
         <v>44828</v>
       </c>
       <c r="D804" s="2" t="s">
@@ -16536,7 +16541,7 @@
       <c r="B805" s="2">
         <v>10804</v>
       </c>
-      <c r="C805" s="2">
+      <c r="C805" s="4">
         <v>44828</v>
       </c>
       <c r="D805" s="2" t="s">
@@ -16556,7 +16561,7 @@
       <c r="B806" s="2">
         <v>10805</v>
       </c>
-      <c r="C806" s="2">
+      <c r="C806" s="4">
         <v>44828</v>
       </c>
       <c r="D806" s="2" t="s">
@@ -16576,7 +16581,7 @@
       <c r="B807" s="2">
         <v>10806</v>
       </c>
-      <c r="C807" s="2">
+      <c r="C807" s="4">
         <v>44828</v>
       </c>
       <c r="D807" s="2" t="s">
@@ -16596,7 +16601,7 @@
       <c r="B808" s="2">
         <v>10807</v>
       </c>
-      <c r="C808" s="2">
+      <c r="C808" s="4">
         <v>44828</v>
       </c>
       <c r="D808" s="2" t="s">
@@ -16616,7 +16621,7 @@
       <c r="B809" s="2">
         <v>10808</v>
       </c>
-      <c r="C809" s="2">
+      <c r="C809" s="4">
         <v>44828</v>
       </c>
       <c r="D809" s="2" t="s">
@@ -16636,7 +16641,7 @@
       <c r="B810" s="2">
         <v>10809</v>
       </c>
-      <c r="C810" s="2">
+      <c r="C810" s="4">
         <v>44828</v>
       </c>
       <c r="D810" s="2" t="s">
@@ -16656,7 +16661,7 @@
       <c r="B811" s="2">
         <v>10810</v>
       </c>
-      <c r="C811" s="2">
+      <c r="C811" s="4">
         <v>44828</v>
       </c>
       <c r="D811" s="2" t="s">
@@ -16676,7 +16681,7 @@
       <c r="B812" s="2">
         <v>10811</v>
       </c>
-      <c r="C812" s="2">
+      <c r="C812" s="4">
         <v>44828</v>
       </c>
       <c r="D812" s="2" t="s">
@@ -16696,7 +16701,7 @@
       <c r="B813" s="2">
         <v>10812</v>
       </c>
-      <c r="C813" s="2">
+      <c r="C813" s="4">
         <v>44828</v>
       </c>
       <c r="D813" s="2" t="s">
@@ -16716,7 +16721,7 @@
       <c r="B814" s="2">
         <v>10813</v>
       </c>
-      <c r="C814" s="2">
+      <c r="C814" s="4">
         <v>44828</v>
       </c>
       <c r="D814" s="2" t="s">
@@ -16736,7 +16741,7 @@
       <c r="B815" s="2">
         <v>10814</v>
       </c>
-      <c r="C815" s="2">
+      <c r="C815" s="4">
         <v>44828</v>
       </c>
       <c r="D815" s="2" t="s">
@@ -16756,7 +16761,7 @@
       <c r="B816" s="2">
         <v>10815</v>
       </c>
-      <c r="C816" s="2">
+      <c r="C816" s="4">
         <v>44828</v>
       </c>
       <c r="D816" s="2" t="s">
@@ -16776,7 +16781,7 @@
       <c r="B817" s="2">
         <v>10816</v>
       </c>
-      <c r="C817" s="2">
+      <c r="C817" s="4">
         <v>44828</v>
       </c>
       <c r="D817" s="2" t="s">
@@ -16796,7 +16801,7 @@
       <c r="B818" s="2">
         <v>10817</v>
       </c>
-      <c r="C818" s="2">
+      <c r="C818" s="4">
         <v>44828</v>
       </c>
       <c r="D818" s="2" t="s">
@@ -16816,7 +16821,7 @@
       <c r="B819" s="2">
         <v>10818</v>
       </c>
-      <c r="C819" s="2">
+      <c r="C819" s="4">
         <v>44828</v>
       </c>
       <c r="D819" s="2" t="s">
@@ -16836,7 +16841,7 @@
       <c r="B820" s="2">
         <v>10819</v>
       </c>
-      <c r="C820" s="2">
+      <c r="C820" s="4">
         <v>44828</v>
       </c>
       <c r="D820" s="2" t="s">
@@ -16856,7 +16861,7 @@
       <c r="B821" s="2">
         <v>10820</v>
       </c>
-      <c r="C821" s="2">
+      <c r="C821" s="4">
         <v>44828</v>
       </c>
       <c r="D821" s="2" t="s">
@@ -16876,7 +16881,7 @@
       <c r="B822" s="2">
         <v>10821</v>
       </c>
-      <c r="C822" s="2">
+      <c r="C822" s="4">
         <v>44828</v>
       </c>
       <c r="D822" s="2" t="s">
@@ -16896,7 +16901,7 @@
       <c r="B823" s="2">
         <v>10822</v>
       </c>
-      <c r="C823" s="2">
+      <c r="C823" s="4">
         <v>44828</v>
       </c>
       <c r="D823" s="2" t="s">
@@ -16916,7 +16921,7 @@
       <c r="B824" s="2">
         <v>10823</v>
       </c>
-      <c r="C824" s="2">
+      <c r="C824" s="4">
         <v>44828</v>
       </c>
       <c r="D824" s="2" t="s">
@@ -16936,7 +16941,7 @@
       <c r="B825" s="2">
         <v>10824</v>
       </c>
-      <c r="C825" s="2">
+      <c r="C825" s="4">
         <v>44828</v>
       </c>
       <c r="D825" s="2" t="s">
@@ -16956,7 +16961,7 @@
       <c r="B826" s="2">
         <v>10825</v>
       </c>
-      <c r="C826" s="2">
+      <c r="C826" s="4">
         <v>44828</v>
       </c>
       <c r="D826" s="2" t="s">
@@ -16976,7 +16981,7 @@
       <c r="B827" s="2">
         <v>10826</v>
       </c>
-      <c r="C827" s="2">
+      <c r="C827" s="4">
         <v>44828</v>
       </c>
       <c r="D827" s="2" t="s">
@@ -16996,7 +17001,7 @@
       <c r="B828" s="2">
         <v>10827</v>
       </c>
-      <c r="C828" s="2">
+      <c r="C828" s="4">
         <v>44828</v>
       </c>
       <c r="D828" s="2" t="s">
@@ -17016,7 +17021,7 @@
       <c r="B829" s="2">
         <v>10828</v>
       </c>
-      <c r="C829" s="2">
+      <c r="C829" s="4">
         <v>44828</v>
       </c>
       <c r="D829" s="2" t="s">
@@ -17036,7 +17041,7 @@
       <c r="B830" s="2">
         <v>10829</v>
       </c>
-      <c r="C830" s="2">
+      <c r="C830" s="4">
         <v>44828</v>
       </c>
       <c r="D830" s="2" t="s">
@@ -17056,7 +17061,7 @@
       <c r="B831" s="2">
         <v>10830</v>
       </c>
-      <c r="C831" s="2">
+      <c r="C831" s="4">
         <v>44828</v>
       </c>
       <c r="D831" s="2" t="s">
@@ -17076,7 +17081,7 @@
       <c r="B832" s="2">
         <v>10831</v>
       </c>
-      <c r="C832" s="2">
+      <c r="C832" s="4">
         <v>44828</v>
       </c>
       <c r="D832" s="2" t="s">
@@ -17096,7 +17101,7 @@
       <c r="B833" s="2">
         <v>10832</v>
       </c>
-      <c r="C833" s="2">
+      <c r="C833" s="4">
         <v>44828</v>
       </c>
       <c r="D833" s="2" t="s">
@@ -17116,7 +17121,7 @@
       <c r="B834" s="2">
         <v>10833</v>
       </c>
-      <c r="C834" s="2">
+      <c r="C834" s="4">
         <v>44828</v>
       </c>
       <c r="D834" s="2" t="s">
@@ -17136,7 +17141,7 @@
       <c r="B835" s="2">
         <v>10834</v>
       </c>
-      <c r="C835" s="2">
+      <c r="C835" s="4">
         <v>44828</v>
       </c>
       <c r="D835" s="2" t="s">
@@ -17156,7 +17161,7 @@
       <c r="B836" s="2">
         <v>10835</v>
       </c>
-      <c r="C836" s="2">
+      <c r="C836" s="4">
         <v>44828</v>
       </c>
       <c r="D836" s="2" t="s">
@@ -17176,7 +17181,7 @@
       <c r="B837" s="2">
         <v>10836</v>
       </c>
-      <c r="C837" s="2">
+      <c r="C837" s="4">
         <v>44828</v>
       </c>
       <c r="D837" s="2" t="s">
@@ -17196,7 +17201,7 @@
       <c r="B838" s="2">
         <v>10837</v>
       </c>
-      <c r="C838" s="2">
+      <c r="C838" s="4">
         <v>44828</v>
       </c>
       <c r="D838" s="2" t="s">
@@ -17216,7 +17221,7 @@
       <c r="B839" s="2">
         <v>10838</v>
       </c>
-      <c r="C839" s="2">
+      <c r="C839" s="4">
         <v>44828</v>
       </c>
       <c r="D839" s="2" t="s">
@@ -17236,7 +17241,7 @@
       <c r="B840" s="2">
         <v>10839</v>
       </c>
-      <c r="C840" s="2">
+      <c r="C840" s="4">
         <v>44828</v>
       </c>
       <c r="D840" s="2" t="s">
@@ -17256,7 +17261,7 @@
       <c r="B841" s="2">
         <v>10840</v>
       </c>
-      <c r="C841" s="2">
+      <c r="C841" s="4">
         <v>44828</v>
       </c>
       <c r="D841" s="2" t="s">
@@ -17276,7 +17281,7 @@
       <c r="B842" s="2">
         <v>10841</v>
       </c>
-      <c r="C842" s="2">
+      <c r="C842" s="4">
         <v>44828</v>
       </c>
       <c r="D842" s="2" t="s">
@@ -17296,7 +17301,7 @@
       <c r="B843" s="2">
         <v>10842</v>
       </c>
-      <c r="C843" s="2">
+      <c r="C843" s="4">
         <v>44828</v>
       </c>
       <c r="D843" s="2" t="s">
@@ -17316,7 +17321,7 @@
       <c r="B844" s="2">
         <v>10843</v>
       </c>
-      <c r="C844" s="2">
+      <c r="C844" s="4">
         <v>44828</v>
       </c>
       <c r="D844" s="2" t="s">
@@ -17336,7 +17341,7 @@
       <c r="B845" s="2">
         <v>10844</v>
       </c>
-      <c r="C845" s="2">
+      <c r="C845" s="4">
         <v>44828</v>
       </c>
       <c r="D845" s="2" t="s">
@@ -17356,7 +17361,7 @@
       <c r="B846" s="2">
         <v>10845</v>
       </c>
-      <c r="C846" s="2">
+      <c r="C846" s="4">
         <v>44828</v>
       </c>
       <c r="D846" s="2" t="s">
@@ -17376,7 +17381,7 @@
       <c r="B847" s="2">
         <v>10846</v>
       </c>
-      <c r="C847" s="2">
+      <c r="C847" s="4">
         <v>44828</v>
       </c>
       <c r="D847" s="2" t="s">
@@ -17396,7 +17401,7 @@
       <c r="B848" s="2">
         <v>10847</v>
       </c>
-      <c r="C848" s="2">
+      <c r="C848" s="4">
         <v>44828</v>
       </c>
       <c r="D848" s="2" t="s">
@@ -17416,7 +17421,7 @@
       <c r="B849" s="2">
         <v>10848</v>
       </c>
-      <c r="C849" s="2">
+      <c r="C849" s="4">
         <v>44828</v>
       </c>
       <c r="D849" s="2" t="s">
@@ -17436,7 +17441,7 @@
       <c r="B850" s="2">
         <v>10849</v>
       </c>
-      <c r="C850" s="2">
+      <c r="C850" s="4">
         <v>44828</v>
       </c>
       <c r="D850" s="2" t="s">
@@ -17456,7 +17461,7 @@
       <c r="B851" s="2">
         <v>10850</v>
       </c>
-      <c r="C851" s="2">
+      <c r="C851" s="4">
         <v>44828</v>
       </c>
       <c r="D851" s="2" t="s">
@@ -17476,7 +17481,7 @@
       <c r="B852" s="2">
         <v>10851</v>
       </c>
-      <c r="C852" s="2">
+      <c r="C852" s="4">
         <v>44828</v>
       </c>
       <c r="D852" s="2" t="s">
@@ -17496,7 +17501,7 @@
       <c r="B853" s="2">
         <v>10852</v>
       </c>
-      <c r="C853" s="2">
+      <c r="C853" s="4">
         <v>44828</v>
       </c>
       <c r="D853" s="2" t="s">
@@ -17516,7 +17521,7 @@
       <c r="B854" s="2">
         <v>10853</v>
       </c>
-      <c r="C854" s="2">
+      <c r="C854" s="4">
         <v>44828</v>
       </c>
       <c r="D854" s="2" t="s">
@@ -17536,7 +17541,7 @@
       <c r="B855" s="2">
         <v>10854</v>
       </c>
-      <c r="C855" s="2">
+      <c r="C855" s="4">
         <v>44828</v>
       </c>
       <c r="D855" s="2" t="s">
@@ -17556,7 +17561,7 @@
       <c r="B856" s="2">
         <v>10855</v>
       </c>
-      <c r="C856" s="2">
+      <c r="C856" s="4">
         <v>44828</v>
       </c>
       <c r="D856" s="2" t="s">
@@ -17576,7 +17581,7 @@
       <c r="B857" s="2">
         <v>10856</v>
       </c>
-      <c r="C857" s="2">
+      <c r="C857" s="4">
         <v>44828</v>
       </c>
       <c r="D857" s="2" t="s">
@@ -17596,7 +17601,7 @@
       <c r="B858" s="2">
         <v>10857</v>
       </c>
-      <c r="C858" s="2">
+      <c r="C858" s="4">
         <v>44828</v>
       </c>
       <c r="D858" s="2" t="s">
@@ -17616,7 +17621,7 @@
       <c r="B859" s="2">
         <v>10858</v>
       </c>
-      <c r="C859" s="2">
+      <c r="C859" s="4">
         <v>44828</v>
       </c>
       <c r="D859" s="2" t="s">
@@ -17636,7 +17641,7 @@
       <c r="B860" s="2">
         <v>10859</v>
       </c>
-      <c r="C860" s="2">
+      <c r="C860" s="4">
         <v>44828</v>
       </c>
       <c r="D860" s="2" t="s">
@@ -17656,7 +17661,7 @@
       <c r="B861" s="2">
         <v>10860</v>
       </c>
-      <c r="C861" s="2">
+      <c r="C861" s="4">
         <v>44828</v>
       </c>
       <c r="D861" s="2" t="s">
@@ -17676,7 +17681,7 @@
       <c r="B862" s="2">
         <v>10861</v>
       </c>
-      <c r="C862" s="2">
+      <c r="C862" s="4">
         <v>44828</v>
       </c>
       <c r="D862" s="2" t="s">
@@ -17696,7 +17701,7 @@
       <c r="B863" s="2">
         <v>10862</v>
       </c>
-      <c r="C863" s="2">
+      <c r="C863" s="4">
         <v>44828</v>
       </c>
       <c r="D863" s="2" t="s">
@@ -17716,7 +17721,7 @@
       <c r="B864" s="2">
         <v>10863</v>
       </c>
-      <c r="C864" s="2">
+      <c r="C864" s="4">
         <v>44828</v>
       </c>
       <c r="D864" s="2" t="s">
@@ -17736,7 +17741,7 @@
       <c r="B865" s="2">
         <v>10864</v>
       </c>
-      <c r="C865" s="2">
+      <c r="C865" s="4">
         <v>44828</v>
       </c>
       <c r="D865" s="2" t="s">
@@ -17756,7 +17761,7 @@
       <c r="B866" s="2">
         <v>10865</v>
       </c>
-      <c r="C866" s="2">
+      <c r="C866" s="4">
         <v>44828</v>
       </c>
       <c r="D866" s="2" t="s">
@@ -17776,7 +17781,7 @@
       <c r="B867" s="2">
         <v>10866</v>
       </c>
-      <c r="C867" s="2">
+      <c r="C867" s="4">
         <v>44828</v>
       </c>
       <c r="D867" s="2" t="s">
@@ -17796,7 +17801,7 @@
       <c r="B868" s="2">
         <v>10867</v>
       </c>
-      <c r="C868" s="2">
+      <c r="C868" s="4">
         <v>44828</v>
       </c>
       <c r="D868" s="2" t="s">
@@ -17816,7 +17821,7 @@
       <c r="B869" s="2">
         <v>10868</v>
       </c>
-      <c r="C869" s="2">
+      <c r="C869" s="4">
         <v>44828</v>
       </c>
       <c r="D869" s="2" t="s">
@@ -17836,7 +17841,7 @@
       <c r="B870" s="2">
         <v>10869</v>
       </c>
-      <c r="C870" s="2">
+      <c r="C870" s="4">
         <v>44828</v>
       </c>
       <c r="D870" s="2" t="s">
@@ -17856,7 +17861,7 @@
       <c r="B871" s="2">
         <v>10870</v>
       </c>
-      <c r="C871" s="2">
+      <c r="C871" s="4">
         <v>44828</v>
       </c>
       <c r="D871" s="2" t="s">
@@ -17876,7 +17881,7 @@
       <c r="B872" s="2">
         <v>10871</v>
       </c>
-      <c r="C872" s="2">
+      <c r="C872" s="4">
         <v>44828</v>
       </c>
       <c r="D872" s="2" t="s">
@@ -17896,7 +17901,7 @@
       <c r="B873" s="2">
         <v>10872</v>
       </c>
-      <c r="C873" s="2">
+      <c r="C873" s="4">
         <v>44828</v>
       </c>
       <c r="D873" s="2" t="s">
@@ -17916,7 +17921,7 @@
       <c r="B874" s="2">
         <v>10873</v>
       </c>
-      <c r="C874" s="2">
+      <c r="C874" s="4">
         <v>44828</v>
       </c>
       <c r="D874" s="2" t="s">
@@ -17936,7 +17941,7 @@
       <c r="B875" s="2">
         <v>10874</v>
       </c>
-      <c r="C875" s="2">
+      <c r="C875" s="4">
         <v>44828</v>
       </c>
       <c r="D875" s="2" t="s">
@@ -17956,7 +17961,7 @@
       <c r="B876" s="2">
         <v>10875</v>
       </c>
-      <c r="C876" s="2">
+      <c r="C876" s="4">
         <v>44828</v>
       </c>
       <c r="D876" s="2" t="s">
@@ -17976,7 +17981,7 @@
       <c r="B877" s="2">
         <v>10876</v>
       </c>
-      <c r="C877" s="2">
+      <c r="C877" s="4">
         <v>44828</v>
       </c>
       <c r="D877" s="2" t="s">
@@ -17996,7 +18001,7 @@
       <c r="B878" s="2">
         <v>10877</v>
       </c>
-      <c r="C878" s="2">
+      <c r="C878" s="4">
         <v>44828</v>
       </c>
       <c r="D878" s="2" t="s">
@@ -18016,7 +18021,7 @@
       <c r="B879" s="2">
         <v>10878</v>
       </c>
-      <c r="C879" s="2">
+      <c r="C879" s="4">
         <v>44828</v>
       </c>
       <c r="D879" s="2" t="s">
@@ -18036,7 +18041,7 @@
       <c r="B880" s="2">
         <v>10879</v>
       </c>
-      <c r="C880" s="2">
+      <c r="C880" s="4">
         <v>44828</v>
       </c>
       <c r="D880" s="2" t="s">
@@ -18056,7 +18061,7 @@
       <c r="B881" s="2">
         <v>10880</v>
       </c>
-      <c r="C881" s="2">
+      <c r="C881" s="4">
         <v>44828</v>
       </c>
       <c r="D881" s="2" t="s">
@@ -18076,7 +18081,7 @@
       <c r="B882" s="2">
         <v>10881</v>
       </c>
-      <c r="C882" s="2">
+      <c r="C882" s="4">
         <v>44828</v>
       </c>
       <c r="D882" s="2" t="s">
@@ -18096,7 +18101,7 @@
       <c r="B883" s="2">
         <v>10882</v>
       </c>
-      <c r="C883" s="2">
+      <c r="C883" s="4">
         <v>44828</v>
       </c>
       <c r="D883" s="2" t="s">
@@ -18116,7 +18121,7 @@
       <c r="B884" s="2">
         <v>10883</v>
       </c>
-      <c r="C884" s="2">
+      <c r="C884" s="4">
         <v>44828</v>
       </c>
       <c r="D884" s="2" t="s">
@@ -18136,7 +18141,7 @@
       <c r="B885" s="2">
         <v>10884</v>
       </c>
-      <c r="C885" s="2">
+      <c r="C885" s="4">
         <v>44828</v>
       </c>
       <c r="D885" s="2" t="s">
@@ -18156,7 +18161,7 @@
       <c r="B886" s="2">
         <v>10885</v>
       </c>
-      <c r="C886" s="2">
+      <c r="C886" s="4">
         <v>44828</v>
       </c>
       <c r="D886" s="2" t="s">
@@ -18176,7 +18181,7 @@
       <c r="B887" s="2">
         <v>10886</v>
       </c>
-      <c r="C887" s="2">
+      <c r="C887" s="4">
         <v>44828</v>
       </c>
       <c r="D887" s="2" t="s">
@@ -18196,7 +18201,7 @@
       <c r="B888" s="2">
         <v>10887</v>
       </c>
-      <c r="C888" s="2">
+      <c r="C888" s="4">
         <v>44828</v>
       </c>
       <c r="D888" s="2" t="s">
@@ -18216,7 +18221,7 @@
       <c r="B889" s="2">
         <v>10888</v>
       </c>
-      <c r="C889" s="2">
+      <c r="C889" s="4">
         <v>44828</v>
       </c>
       <c r="D889" s="2" t="s">
@@ -18236,7 +18241,7 @@
       <c r="B890" s="2">
         <v>10889</v>
       </c>
-      <c r="C890" s="2">
+      <c r="C890" s="4">
         <v>44828</v>
       </c>
       <c r="D890" s="2" t="s">
@@ -18256,7 +18261,7 @@
       <c r="B891" s="2">
         <v>10890</v>
       </c>
-      <c r="C891" s="2">
+      <c r="C891" s="4">
         <v>44828</v>
       </c>
       <c r="D891" s="2" t="s">
@@ -18276,7 +18281,7 @@
       <c r="B892" s="2">
         <v>10891</v>
       </c>
-      <c r="C892" s="2">
+      <c r="C892" s="4">
         <v>44828</v>
       </c>
       <c r="D892" s="2" t="s">
@@ -18296,7 +18301,7 @@
       <c r="B893" s="2">
         <v>10892</v>
       </c>
-      <c r="C893" s="2">
+      <c r="C893" s="4">
         <v>44828</v>
       </c>
       <c r="D893" s="2" t="s">
@@ -18316,7 +18321,7 @@
       <c r="B894" s="2">
         <v>10893</v>
       </c>
-      <c r="C894" s="2">
+      <c r="C894" s="4">
         <v>44828</v>
       </c>
       <c r="D894" s="2" t="s">
@@ -18336,7 +18341,7 @@
       <c r="B895" s="2">
         <v>10894</v>
       </c>
-      <c r="C895" s="2">
+      <c r="C895" s="4">
         <v>44828</v>
       </c>
       <c r="D895" s="2" t="s">
@@ -18356,7 +18361,7 @@
       <c r="B896" s="2">
         <v>10895</v>
       </c>
-      <c r="C896" s="2">
+      <c r="C896" s="4">
         <v>44828</v>
       </c>
       <c r="D896" s="2" t="s">
@@ -18376,7 +18381,7 @@
       <c r="B897" s="2">
         <v>10896</v>
       </c>
-      <c r="C897" s="2">
+      <c r="C897" s="4">
         <v>44828</v>
       </c>
       <c r="D897" s="2" t="s">
@@ -18396,7 +18401,7 @@
       <c r="B898" s="2">
         <v>10897</v>
       </c>
-      <c r="C898" s="2">
+      <c r="C898" s="4">
         <v>44828</v>
       </c>
       <c r="D898" s="2" t="s">
@@ -18416,7 +18421,7 @@
       <c r="B899" s="2">
         <v>10898</v>
       </c>
-      <c r="C899" s="2">
+      <c r="C899" s="4">
         <v>44828</v>
       </c>
       <c r="D899" s="2" t="s">
@@ -18436,7 +18441,7 @@
       <c r="B900" s="2">
         <v>10899</v>
       </c>
-      <c r="C900" s="2">
+      <c r="C900" s="4">
         <v>44828</v>
       </c>
       <c r="D900" s="2" t="s">
@@ -18456,7 +18461,7 @@
       <c r="B901" s="2">
         <v>10900</v>
       </c>
-      <c r="C901" s="2">
+      <c r="C901" s="4">
         <v>44828</v>
       </c>
       <c r="D901" s="2" t="s">
@@ -18476,7 +18481,7 @@
       <c r="B902" s="2">
         <v>10901</v>
       </c>
-      <c r="C902" s="2">
+      <c r="C902" s="4">
         <v>44828</v>
       </c>
       <c r="D902" s="2" t="s">
@@ -18496,7 +18501,7 @@
       <c r="B903" s="2">
         <v>10902</v>
       </c>
-      <c r="C903" s="2">
+      <c r="C903" s="4">
         <v>44828</v>
       </c>
       <c r="D903" s="2" t="s">
@@ -18516,7 +18521,7 @@
       <c r="B904" s="2">
         <v>10903</v>
       </c>
-      <c r="C904" s="2">
+      <c r="C904" s="4">
         <v>44828</v>
       </c>
       <c r="D904" s="2" t="s">
@@ -18536,7 +18541,7 @@
       <c r="B905" s="2">
         <v>10904</v>
       </c>
-      <c r="C905" s="2">
+      <c r="C905" s="4">
         <v>44828</v>
       </c>
       <c r="D905" s="2" t="s">
@@ -18556,7 +18561,7 @@
       <c r="B906" s="2">
         <v>10905</v>
       </c>
-      <c r="C906" s="2">
+      <c r="C906" s="4">
         <v>44828</v>
       </c>
       <c r="D906" s="2" t="s">
@@ -18576,7 +18581,7 @@
       <c r="B907" s="2">
         <v>10906</v>
       </c>
-      <c r="C907" s="2">
+      <c r="C907" s="4">
         <v>44828</v>
       </c>
       <c r="D907" s="2" t="s">
@@ -18596,7 +18601,7 @@
       <c r="B908" s="2">
         <v>10907</v>
       </c>
-      <c r="C908" s="2">
+      <c r="C908" s="4">
         <v>44828</v>
       </c>
       <c r="D908" s="2" t="s">
@@ -18616,7 +18621,7 @@
       <c r="B909" s="2">
         <v>10908</v>
       </c>
-      <c r="C909" s="2">
+      <c r="C909" s="4">
         <v>44828</v>
       </c>
       <c r="D909" s="2" t="s">
@@ -18636,7 +18641,7 @@
       <c r="B910" s="2">
         <v>10909</v>
       </c>
-      <c r="C910" s="2">
+      <c r="C910" s="4">
         <v>44828</v>
       </c>
       <c r="D910" s="2" t="s">
@@ -18656,7 +18661,7 @@
       <c r="B911" s="2">
         <v>10910</v>
       </c>
-      <c r="C911" s="2">
+      <c r="C911" s="4">
         <v>44828</v>
       </c>
       <c r="D911" s="2" t="s">
@@ -18676,7 +18681,7 @@
       <c r="B912" s="2">
         <v>10911</v>
       </c>
-      <c r="C912" s="2">
+      <c r="C912" s="4">
         <v>44828</v>
       </c>
       <c r="D912" s="2" t="s">
@@ -18696,7 +18701,7 @@
       <c r="B913" s="2">
         <v>10912</v>
       </c>
-      <c r="C913" s="2">
+      <c r="C913" s="4">
         <v>44828</v>
       </c>
       <c r="D913" s="2" t="s">
@@ -18716,7 +18721,7 @@
       <c r="B914" s="2">
         <v>10913</v>
       </c>
-      <c r="C914" s="2">
+      <c r="C914" s="4">
         <v>44828</v>
       </c>
       <c r="D914" s="2" t="s">
@@ -18736,7 +18741,7 @@
       <c r="B915" s="2">
         <v>10914</v>
       </c>
-      <c r="C915" s="2">
+      <c r="C915" s="4">
         <v>44828</v>
       </c>
       <c r="D915" s="2" t="s">
@@ -18756,7 +18761,7 @@
       <c r="B916" s="2">
         <v>10915</v>
       </c>
-      <c r="C916" s="2">
+      <c r="C916" s="4">
         <v>44828</v>
       </c>
       <c r="D916" s="2" t="s">
@@ -18776,7 +18781,7 @@
       <c r="B917" s="2">
         <v>10916</v>
       </c>
-      <c r="C917" s="2">
+      <c r="C917" s="4">
         <v>44828</v>
       </c>
       <c r="D917" s="2" t="s">
@@ -18796,7 +18801,7 @@
       <c r="B918" s="2">
         <v>10917</v>
       </c>
-      <c r="C918" s="2">
+      <c r="C918" s="4">
         <v>44828</v>
       </c>
       <c r="D918" s="2" t="s">
@@ -18816,7 +18821,7 @@
       <c r="B919" s="2">
         <v>10918</v>
       </c>
-      <c r="C919" s="2">
+      <c r="C919" s="4">
         <v>44828</v>
       </c>
       <c r="D919" s="2" t="s">
@@ -18836,7 +18841,7 @@
       <c r="B920" s="2">
         <v>10919</v>
       </c>
-      <c r="C920" s="2">
+      <c r="C920" s="4">
         <v>44828</v>
       </c>
       <c r="D920" s="2" t="s">
@@ -18856,7 +18861,7 @@
       <c r="B921" s="2">
         <v>10920</v>
       </c>
-      <c r="C921" s="2">
+      <c r="C921" s="4">
         <v>44828</v>
       </c>
       <c r="D921" s="2" t="s">
@@ -18876,7 +18881,7 @@
       <c r="B922" s="2">
         <v>10921</v>
       </c>
-      <c r="C922" s="2">
+      <c r="C922" s="4">
         <v>44828</v>
       </c>
       <c r="D922" s="2" t="s">
@@ -18896,7 +18901,7 @@
       <c r="B923" s="2">
         <v>10922</v>
       </c>
-      <c r="C923" s="2">
+      <c r="C923" s="4">
         <v>44828</v>
       </c>
       <c r="D923" s="2" t="s">
@@ -18916,7 +18921,7 @@
       <c r="B924" s="2">
         <v>10923</v>
       </c>
-      <c r="C924" s="2">
+      <c r="C924" s="4">
         <v>44828</v>
       </c>
       <c r="D924" s="2" t="s">
@@ -18936,7 +18941,7 @@
       <c r="B925" s="2">
         <v>10924</v>
       </c>
-      <c r="C925" s="2">
+      <c r="C925" s="4">
         <v>44828</v>
       </c>
       <c r="D925" s="2" t="s">
@@ -18956,7 +18961,7 @@
       <c r="B926" s="2">
         <v>10925</v>
       </c>
-      <c r="C926" s="2">
+      <c r="C926" s="4">
         <v>44828</v>
       </c>
       <c r="D926" s="2" t="s">
@@ -18976,7 +18981,7 @@
       <c r="B927" s="2">
         <v>10926</v>
       </c>
-      <c r="C927" s="2">
+      <c r="C927" s="4">
         <v>44828</v>
       </c>
       <c r="D927" s="2" t="s">
@@ -18996,7 +19001,7 @@
       <c r="B928" s="2">
         <v>10927</v>
       </c>
-      <c r="C928" s="2">
+      <c r="C928" s="4">
         <v>44828</v>
       </c>
       <c r="D928" s="2" t="s">
@@ -19016,7 +19021,7 @@
       <c r="B929" s="2">
         <v>10928</v>
       </c>
-      <c r="C929" s="2">
+      <c r="C929" s="4">
         <v>44828</v>
       </c>
       <c r="D929" s="2" t="s">
@@ -19036,7 +19041,7 @@
       <c r="B930" s="2">
         <v>10929</v>
       </c>
-      <c r="C930" s="2">
+      <c r="C930" s="4">
         <v>44828</v>
       </c>
       <c r="D930" s="2" t="s">
@@ -19056,7 +19061,7 @@
       <c r="B931" s="2">
         <v>10930</v>
       </c>
-      <c r="C931" s="2">
+      <c r="C931" s="4">
         <v>44828</v>
       </c>
       <c r="D931" s="2" t="s">
@@ -19076,7 +19081,7 @@
       <c r="B932" s="2">
         <v>10931</v>
       </c>
-      <c r="C932" s="2">
+      <c r="C932" s="4">
         <v>44828</v>
       </c>
       <c r="D932" s="2" t="s">
@@ -19096,7 +19101,7 @@
       <c r="B933" s="2">
         <v>10932</v>
       </c>
-      <c r="C933" s="2">
+      <c r="C933" s="4">
         <v>44828</v>
       </c>
       <c r="D933" s="2" t="s">
@@ -19116,7 +19121,7 @@
       <c r="B934" s="2">
         <v>10933</v>
       </c>
-      <c r="C934" s="2">
+      <c r="C934" s="4">
         <v>44828</v>
       </c>
       <c r="D934" s="2" t="s">
@@ -19136,7 +19141,7 @@
       <c r="B935" s="2">
         <v>10934</v>
       </c>
-      <c r="C935" s="2">
+      <c r="C935" s="4">
         <v>44828</v>
       </c>
       <c r="D935" s="2" t="s">
@@ -19156,7 +19161,7 @@
       <c r="B936" s="2">
         <v>10935</v>
       </c>
-      <c r="C936" s="2">
+      <c r="C936" s="4">
         <v>44828</v>
       </c>
       <c r="D936" s="2" t="s">
@@ -19176,7 +19181,7 @@
       <c r="B937" s="2">
         <v>10936</v>
       </c>
-      <c r="C937" s="2">
+      <c r="C937" s="4">
         <v>44828</v>
       </c>
       <c r="D937" s="2" t="s">
@@ -19196,7 +19201,7 @@
       <c r="B938" s="2">
         <v>10937</v>
       </c>
-      <c r="C938" s="2">
+      <c r="C938" s="4">
         <v>44828</v>
       </c>
       <c r="D938" s="2" t="s">
@@ -19216,7 +19221,7 @@
       <c r="B939" s="2">
         <v>10938</v>
       </c>
-      <c r="C939" s="2">
+      <c r="C939" s="4">
         <v>44828</v>
       </c>
       <c r="D939" s="2" t="s">
@@ -19236,7 +19241,7 @@
       <c r="B940" s="2">
         <v>10939</v>
       </c>
-      <c r="C940" s="2">
+      <c r="C940" s="4">
         <v>44828</v>
       </c>
       <c r="D940" s="2" t="s">
@@ -19256,7 +19261,7 @@
       <c r="B941" s="2">
         <v>10940</v>
       </c>
-      <c r="C941" s="2">
+      <c r="C941" s="4">
         <v>44828</v>
       </c>
       <c r="D941" s="2" t="s">
@@ -19276,7 +19281,7 @@
       <c r="B942" s="2">
         <v>10941</v>
       </c>
-      <c r="C942" s="2">
+      <c r="C942" s="4">
         <v>44828</v>
       </c>
       <c r="D942" s="2" t="s">
@@ -19296,7 +19301,7 @@
       <c r="B943" s="2">
         <v>10942</v>
       </c>
-      <c r="C943" s="2">
+      <c r="C943" s="4">
         <v>44828</v>
       </c>
       <c r="D943" s="2" t="s">
@@ -19316,7 +19321,7 @@
       <c r="B944" s="2">
         <v>10943</v>
       </c>
-      <c r="C944" s="2">
+      <c r="C944" s="4">
         <v>44828</v>
       </c>
       <c r="D944" s="2" t="s">
@@ -19336,7 +19341,7 @@
       <c r="B945" s="2">
         <v>10944</v>
       </c>
-      <c r="C945" s="2">
+      <c r="C945" s="4">
         <v>44828</v>
       </c>
       <c r="D945" s="2" t="s">
@@ -19356,7 +19361,7 @@
       <c r="B946" s="2">
         <v>10945</v>
       </c>
-      <c r="C946" s="2">
+      <c r="C946" s="4">
         <v>44828</v>
       </c>
       <c r="D946" s="2" t="s">
@@ -19376,7 +19381,7 @@
       <c r="B947" s="2">
         <v>10946</v>
       </c>
-      <c r="C947" s="2">
+      <c r="C947" s="4">
         <v>44828</v>
       </c>
       <c r="D947" s="2" t="s">
@@ -19396,7 +19401,7 @@
       <c r="B948" s="2">
         <v>10947</v>
       </c>
-      <c r="C948" s="2">
+      <c r="C948" s="4">
         <v>44828</v>
       </c>
       <c r="D948" s="2" t="s">
@@ -19416,7 +19421,7 @@
       <c r="B949" s="2">
         <v>10948</v>
       </c>
-      <c r="C949" s="2">
+      <c r="C949" s="4">
         <v>44828</v>
       </c>
       <c r="D949" s="2" t="s">
@@ -19436,7 +19441,7 @@
       <c r="B950" s="2">
         <v>10949</v>
       </c>
-      <c r="C950" s="2">
+      <c r="C950" s="4">
         <v>44828</v>
       </c>
       <c r="D950" s="2" t="s">
@@ -19456,7 +19461,7 @@
       <c r="B951" s="2">
         <v>10950</v>
       </c>
-      <c r="C951" s="2">
+      <c r="C951" s="4">
         <v>44828</v>
       </c>
       <c r="D951" s="2" t="s">
@@ -19476,7 +19481,7 @@
       <c r="B952" s="2">
         <v>10951</v>
       </c>
-      <c r="C952" s="2">
+      <c r="C952" s="4">
         <v>44828</v>
       </c>
       <c r="D952" s="2" t="s">
@@ -19496,7 +19501,7 @@
       <c r="B953" s="2">
         <v>10952</v>
       </c>
-      <c r="C953" s="2">
+      <c r="C953" s="4">
         <v>44828</v>
       </c>
       <c r="D953" s="2" t="s">
@@ -19516,7 +19521,7 @@
       <c r="B954" s="2">
         <v>10953</v>
       </c>
-      <c r="C954" s="2">
+      <c r="C954" s="4">
         <v>44828</v>
       </c>
       <c r="D954" s="2" t="s">
@@ -19536,7 +19541,7 @@
       <c r="B955" s="2">
         <v>10954</v>
       </c>
-      <c r="C955" s="2">
+      <c r="C955" s="4">
         <v>44828</v>
       </c>
       <c r="D955" s="2" t="s">
@@ -19556,7 +19561,7 @@
       <c r="B956" s="2">
         <v>10955</v>
       </c>
-      <c r="C956" s="2">
+      <c r="C956" s="4">
         <v>44828</v>
       </c>
       <c r="D956" s="2" t="s">
@@ -19576,7 +19581,7 @@
       <c r="B957" s="2">
         <v>10956</v>
       </c>
-      <c r="C957" s="2">
+      <c r="C957" s="4">
         <v>44828</v>
       </c>
       <c r="D957" s="2" t="s">
@@ -19596,7 +19601,7 @@
       <c r="B958" s="2">
         <v>10957</v>
       </c>
-      <c r="C958" s="2">
+      <c r="C958" s="4">
         <v>44828</v>
       </c>
       <c r="D958" s="2" t="s">
@@ -19616,7 +19621,7 @@
       <c r="B959" s="2">
         <v>10958</v>
       </c>
-      <c r="C959" s="2">
+      <c r="C959" s="4">
         <v>44828</v>
       </c>
       <c r="D959" s="2" t="s">
@@ -19636,7 +19641,7 @@
       <c r="B960" s="2">
         <v>10959</v>
       </c>
-      <c r="C960" s="2">
+      <c r="C960" s="4">
         <v>44828</v>
       </c>
       <c r="D960" s="2" t="s">
@@ -19656,7 +19661,7 @@
       <c r="B961" s="2">
         <v>10960</v>
       </c>
-      <c r="C961" s="2">
+      <c r="C961" s="4">
         <v>44828</v>
       </c>
       <c r="D961" s="2" t="s">
@@ -19676,7 +19681,7 @@
       <c r="B962" s="2">
         <v>10961</v>
       </c>
-      <c r="C962" s="2">
+      <c r="C962" s="4">
         <v>44828</v>
       </c>
       <c r="D962" s="2" t="s">
@@ -19696,7 +19701,7 @@
       <c r="B963" s="2">
         <v>10962</v>
       </c>
-      <c r="C963" s="2">
+      <c r="C963" s="4">
         <v>44828</v>
       </c>
       <c r="D963" s="2" t="s">
@@ -19716,7 +19721,7 @@
       <c r="B964" s="2">
         <v>10963</v>
       </c>
-      <c r="C964" s="2">
+      <c r="C964" s="4">
         <v>44828</v>
       </c>
       <c r="D964" s="2" t="s">
@@ -19736,7 +19741,7 @@
       <c r="B965" s="2">
         <v>10964</v>
       </c>
-      <c r="C965" s="2">
+      <c r="C965" s="4">
         <v>44828</v>
       </c>
       <c r="D965" s="2" t="s">
@@ -19756,7 +19761,7 @@
       <c r="B966" s="2">
         <v>10965</v>
       </c>
-      <c r="C966" s="2">
+      <c r="C966" s="4">
         <v>44828</v>
       </c>
       <c r="D966" s="2" t="s">
@@ -19776,7 +19781,7 @@
       <c r="B967" s="2">
         <v>10966</v>
       </c>
-      <c r="C967" s="2">
+      <c r="C967" s="4">
         <v>44828</v>
       </c>
       <c r="D967" s="2" t="s">
@@ -19796,7 +19801,7 @@
       <c r="B968" s="2">
         <v>10967</v>
       </c>
-      <c r="C968" s="2">
+      <c r="C968" s="4">
         <v>44828</v>
       </c>
       <c r="D968" s="2" t="s">
@@ -19816,7 +19821,7 @@
       <c r="B969" s="2">
         <v>10968</v>
       </c>
-      <c r="C969" s="2">
+      <c r="C969" s="4">
         <v>44828</v>
       </c>
       <c r="D969" s="2" t="s">
@@ -19836,7 +19841,7 @@
       <c r="B970" s="2">
         <v>10969</v>
       </c>
-      <c r="C970" s="2">
+      <c r="C970" s="4">
         <v>44828</v>
       </c>
       <c r="D970" s="2" t="s">
@@ -19856,7 +19861,7 @@
       <c r="B971" s="2">
         <v>10970</v>
       </c>
-      <c r="C971" s="2">
+      <c r="C971" s="4">
         <v>44828</v>
       </c>
       <c r="D971" s="2" t="s">
@@ -19876,7 +19881,7 @@
       <c r="B972" s="2">
         <v>10971</v>
       </c>
-      <c r="C972" s="2">
+      <c r="C972" s="4">
         <v>44828</v>
       </c>
       <c r="D972" s="2" t="s">
@@ -19896,7 +19901,7 @@
       <c r="B973" s="2">
         <v>10972</v>
       </c>
-      <c r="C973" s="2">
+      <c r="C973" s="4">
         <v>44828</v>
       </c>
       <c r="D973" s="2" t="s">
@@ -19916,7 +19921,7 @@
       <c r="B974" s="2">
         <v>10973</v>
       </c>
-      <c r="C974" s="2">
+      <c r="C974" s="4">
         <v>44828</v>
       </c>
       <c r="D974" s="2" t="s">
@@ -19936,7 +19941,7 @@
       <c r="B975" s="2">
         <v>10974</v>
       </c>
-      <c r="C975" s="2">
+      <c r="C975" s="4">
         <v>44828</v>
       </c>
       <c r="D975" s="2" t="s">
@@ -19956,7 +19961,7 @@
       <c r="B976" s="2">
         <v>10975</v>
       </c>
-      <c r="C976" s="2">
+      <c r="C976" s="4">
         <v>44828</v>
       </c>
       <c r="D976" s="2" t="s">
@@ -19976,7 +19981,7 @@
       <c r="B977" s="2">
         <v>10976</v>
       </c>
-      <c r="C977" s="2">
+      <c r="C977" s="4">
         <v>44828</v>
       </c>
       <c r="D977" s="2" t="s">
@@ -19996,7 +20001,7 @@
       <c r="B978" s="2">
         <v>10977</v>
       </c>
-      <c r="C978" s="2">
+      <c r="C978" s="4">
         <v>44828</v>
       </c>
       <c r="D978" s="2" t="s">
@@ -20016,7 +20021,7 @@
       <c r="B979" s="2">
         <v>10978</v>
       </c>
-      <c r="C979" s="2">
+      <c r="C979" s="4">
         <v>44828</v>
       </c>
       <c r="D979" s="2" t="s">
@@ -20036,7 +20041,7 @@
       <c r="B980" s="2">
         <v>10979</v>
       </c>
-      <c r="C980" s="2">
+      <c r="C980" s="4">
         <v>44828</v>
       </c>
       <c r="D980" s="2" t="s">
@@ -20056,7 +20061,7 @@
       <c r="B981" s="2">
         <v>10980</v>
       </c>
-      <c r="C981" s="2">
+      <c r="C981" s="4">
         <v>44828</v>
       </c>
       <c r="D981" s="2" t="s">
@@ -20076,7 +20081,7 @@
       <c r="B982" s="2">
         <v>10981</v>
       </c>
-      <c r="C982" s="2">
+      <c r="C982" s="4">
         <v>44828</v>
       </c>
       <c r="D982" s="2" t="s">
@@ -20096,7 +20101,7 @@
       <c r="B983" s="2">
         <v>10982</v>
       </c>
-      <c r="C983" s="2">
+      <c r="C983" s="4">
         <v>44828</v>
       </c>
       <c r="D983" s="2" t="s">
@@ -20116,7 +20121,7 @@
       <c r="B984" s="2">
         <v>10983</v>
       </c>
-      <c r="C984" s="2">
+      <c r="C984" s="4">
         <v>44828</v>
       </c>
       <c r="D984" s="2" t="s">
@@ -20136,7 +20141,7 @@
       <c r="B985" s="2">
         <v>10984</v>
       </c>
-      <c r="C985" s="2">
+      <c r="C985" s="4">
         <v>44828</v>
       </c>
       <c r="D985" s="2" t="s">
@@ -20156,7 +20161,7 @@
       <c r="B986" s="2">
         <v>10985</v>
       </c>
-      <c r="C986" s="2">
+      <c r="C986" s="4">
         <v>44828</v>
       </c>
       <c r="D986" s="2" t="s">
@@ -20176,7 +20181,7 @@
       <c r="B987" s="2">
         <v>10986</v>
       </c>
-      <c r="C987" s="2">
+      <c r="C987" s="4">
         <v>44828</v>
       </c>
       <c r="D987" s="2" t="s">
@@ -20196,7 +20201,7 @@
       <c r="B988" s="2">
         <v>10987</v>
       </c>
-      <c r="C988" s="2">
+      <c r="C988" s="4">
         <v>44828</v>
       </c>
       <c r="D988" s="2" t="s">
@@ -20216,7 +20221,7 @@
       <c r="B989" s="2">
         <v>10988</v>
       </c>
-      <c r="C989" s="2">
+      <c r="C989" s="4">
         <v>44828</v>
       </c>
       <c r="D989" s="2" t="s">
@@ -20236,7 +20241,7 @@
       <c r="B990" s="2">
         <v>10989</v>
       </c>
-      <c r="C990" s="2">
+      <c r="C990" s="4">
         <v>44828</v>
       </c>
       <c r="D990" s="2" t="s">
@@ -20256,7 +20261,7 @@
       <c r="B991" s="2">
         <v>10990</v>
       </c>
-      <c r="C991" s="2">
+      <c r="C991" s="4">
         <v>44828</v>
       </c>
       <c r="D991" s="2" t="s">
@@ -20276,7 +20281,7 @@
       <c r="B992" s="2">
         <v>10991</v>
       </c>
-      <c r="C992" s="2">
+      <c r="C992" s="4">
         <v>44828</v>
       </c>
       <c r="D992" s="2" t="s">
@@ -20296,7 +20301,7 @@
       <c r="B993" s="2">
         <v>10992</v>
       </c>
-      <c r="C993" s="2">
+      <c r="C993" s="4">
         <v>44828</v>
       </c>
       <c r="D993" s="2" t="s">
@@ -20316,7 +20321,7 @@
       <c r="B994" s="2">
         <v>10993</v>
       </c>
-      <c r="C994" s="2">
+      <c r="C994" s="4">
         <v>44828</v>
       </c>
       <c r="D994" s="2" t="s">
@@ -20336,7 +20341,7 @@
       <c r="B995" s="2">
         <v>10994</v>
       </c>
-      <c r="C995" s="2">
+      <c r="C995" s="4">
         <v>44828</v>
       </c>
       <c r="D995" s="2" t="s">
@@ -20356,7 +20361,7 @@
       <c r="B996" s="2">
         <v>10995</v>
       </c>
-      <c r="C996" s="2">
+      <c r="C996" s="4">
         <v>44828</v>
       </c>
       <c r="D996" s="2" t="s">
@@ -20376,7 +20381,7 @@
       <c r="B997" s="2">
         <v>10996</v>
       </c>
-      <c r="C997" s="2">
+      <c r="C997" s="4">
         <v>44828</v>
       </c>
       <c r="D997" s="2" t="s">
@@ -20396,7 +20401,7 @@
       <c r="B998" s="2">
         <v>10997</v>
       </c>
-      <c r="C998" s="2">
+      <c r="C998" s="4">
         <v>44828</v>
       </c>
       <c r="D998" s="2" t="s">
@@ -20416,7 +20421,7 @@
       <c r="B999" s="2">
         <v>10998</v>
       </c>
-      <c r="C999" s="2">
+      <c r="C999" s="4">
         <v>44828</v>
       </c>
       <c r="D999" s="2" t="s">
@@ -20436,7 +20441,7 @@
       <c r="B1000" s="2">
         <v>10999</v>
       </c>
-      <c r="C1000" s="2">
+      <c r="C1000" s="4">
         <v>44828</v>
       </c>
       <c r="D1000" s="2" t="s">
@@ -20456,7 +20461,7 @@
       <c r="B1001" s="2">
         <v>11000</v>
       </c>
-      <c r="C1001" s="2">
+      <c r="C1001" s="4">
         <v>44828</v>
       </c>
       <c r="D1001" s="2" t="s">
@@ -20472,6 +20477,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>